--- a/data/phase2/Roster of phase 2 stages (descriptive survey take 1).xlsx
+++ b/data/phase2/Roster of phase 2 stages (descriptive survey take 1).xlsx
@@ -11,7 +11,7 @@
   <definedNames>
     <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">'sampling roster descriptive sur'!$A$1:$F$107</definedName>
     <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">'stage roster'!$A$1:$X$50</definedName>
-    <definedName hidden="1" localSheetId="2" name="_xlnm._FilterDatabase">'route roster'!$A$1:$O$68</definedName>
+    <definedName hidden="1" localSheetId="2" name="_xlnm._FilterDatabase">'route roster'!$A$1:$P$68</definedName>
   </definedNames>
   <calcPr/>
 </workbook>
@@ -45,6 +45,12 @@
     <author/>
   </authors>
   <commentList>
+    <comment authorId="0" ref="P1">
+      <text>
+        <t xml:space="preserve">where fare varies for a route depending on # of stops, i took the median fare
+	-Gray Collins</t>
+      </text>
+    </comment>
     <comment authorId="0" ref="K1">
       <text>
         <t xml:space="preserve">Rationale: To the greatest extent possible, keep all routes in the same stratum during the same time period, and maximize interval overlap within parks.
@@ -98,7 +104,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1908" uniqueCount="648">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1910" uniqueCount="649">
   <si>
     <t>surveyor</t>
   </si>
@@ -1335,6 +1341,9 @@
   </si>
   <si>
     <t>Average frequency</t>
+  </si>
+  <si>
+    <t>Route Fare</t>
   </si>
   <si>
     <t>ente_expr_g</t>
@@ -2292,7 +2301,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="84">
+  <cellXfs count="85">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -2492,6 +2501,9 @@
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="3" fontId="20" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="20" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
@@ -11716,15 +11728,18 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1.0" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="B3" sqref="B3" pane="bottomLeft"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
     <col customWidth="1" min="3" max="3" width="11.75"/>
     <col customWidth="1" min="7" max="7" width="30.25"/>
     <col customWidth="1" hidden="1" min="8" max="8" width="26.38"/>
-    <col customWidth="1" min="9" max="9" width="32.0"/>
-    <col customWidth="1" min="15" max="15" width="19.13"/>
+    <col customWidth="1" hidden="1" min="9" max="9" width="32.0"/>
+    <col customWidth="1" min="15" max="16" width="19.13"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -11773,6 +11788,9 @@
       <c r="O1" s="68" t="s">
         <v>177</v>
       </c>
+      <c r="P1" s="71" t="s">
+        <v>400</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="68" t="s">
@@ -11791,10 +11809,10 @@
         <v>189</v>
       </c>
       <c r="F2" s="68" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="G2" s="68" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="H2" s="68" t="s">
         <v>183</v>
@@ -11802,11 +11820,11 @@
       <c r="I2" s="68" t="s">
         <v>186</v>
       </c>
-      <c r="J2" s="71" t="s">
-        <v>402</v>
-      </c>
-      <c r="K2" s="72" t="s">
+      <c r="J2" s="72" t="s">
         <v>403</v>
+      </c>
+      <c r="K2" s="73" t="s">
+        <v>404</v>
       </c>
       <c r="L2" s="68">
         <v>1.0</v>
@@ -11814,11 +11832,14 @@
       <c r="M2" s="68" t="s">
         <v>187</v>
       </c>
-      <c r="N2" s="73">
+      <c r="N2" s="74">
         <v>40.2745501</v>
       </c>
       <c r="O2" s="68" t="s">
         <v>188</v>
+      </c>
+      <c r="P2" s="68">
+        <v>5000.0</v>
       </c>
     </row>
     <row r="3">
@@ -11838,10 +11859,10 @@
         <v>189</v>
       </c>
       <c r="F3" s="68" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="G3" s="68" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="H3" s="68" t="s">
         <v>183</v>
@@ -11849,11 +11870,11 @@
       <c r="I3" s="68" t="s">
         <v>186</v>
       </c>
-      <c r="J3" s="71" t="s">
-        <v>402</v>
-      </c>
-      <c r="K3" s="72" t="s">
+      <c r="J3" s="72" t="s">
         <v>403</v>
+      </c>
+      <c r="K3" s="73" t="s">
+        <v>404</v>
       </c>
       <c r="L3" s="68">
         <v>1.0</v>
@@ -11861,11 +11882,14 @@
       <c r="M3" s="68" t="s">
         <v>187</v>
       </c>
-      <c r="N3" s="73">
+      <c r="N3" s="74">
         <v>40.2745501</v>
       </c>
       <c r="O3" s="68" t="s">
         <v>188</v>
+      </c>
+      <c r="P3" s="68">
+        <v>4000.0</v>
       </c>
     </row>
     <row r="4">
@@ -11885,10 +11909,10 @@
         <v>189</v>
       </c>
       <c r="F4" s="68" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="G4" s="68" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="H4" s="68" t="s">
         <v>204</v>
@@ -11896,11 +11920,11 @@
       <c r="I4" s="68" t="s">
         <v>208</v>
       </c>
-      <c r="J4" s="71" t="s">
-        <v>408</v>
-      </c>
-      <c r="K4" s="72" t="s">
-        <v>403</v>
+      <c r="J4" s="72" t="s">
+        <v>409</v>
+      </c>
+      <c r="K4" s="73" t="s">
+        <v>404</v>
       </c>
       <c r="L4" s="68">
         <v>1.0</v>
@@ -11908,10 +11932,13 @@
       <c r="M4" s="68" t="s">
         <v>209</v>
       </c>
-      <c r="N4" s="73">
+      <c r="N4" s="74">
         <v>12.0733898</v>
       </c>
       <c r="O4" s="68">
+        <v>2000.0</v>
+      </c>
+      <c r="P4" s="68">
         <v>2000.0</v>
       </c>
     </row>
@@ -11932,10 +11959,10 @@
         <v>189</v>
       </c>
       <c r="F5" s="68" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="G5" s="68" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="H5" s="68" t="s">
         <v>192</v>
@@ -11943,11 +11970,11 @@
       <c r="I5" s="68" t="s">
         <v>193</v>
       </c>
-      <c r="J5" s="71" t="s">
-        <v>411</v>
-      </c>
-      <c r="K5" s="72" t="s">
-        <v>403</v>
+      <c r="J5" s="72" t="s">
+        <v>412</v>
+      </c>
+      <c r="K5" s="73" t="s">
+        <v>404</v>
       </c>
       <c r="L5" s="68">
         <v>1.0</v>
@@ -11955,10 +11982,13 @@
       <c r="M5" s="68" t="s">
         <v>194</v>
       </c>
-      <c r="N5" s="73">
+      <c r="N5" s="74">
         <v>13.8712444</v>
       </c>
       <c r="O5" s="68">
+        <v>2000.0</v>
+      </c>
+      <c r="P5" s="68">
         <v>2000.0</v>
       </c>
     </row>
@@ -11979,10 +12009,10 @@
         <v>189</v>
       </c>
       <c r="F6" s="68" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="G6" s="68" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="H6" s="68" t="s">
         <v>192</v>
@@ -11990,11 +12020,11 @@
       <c r="I6" s="68" t="s">
         <v>193</v>
       </c>
-      <c r="J6" s="71" t="s">
-        <v>411</v>
-      </c>
-      <c r="K6" s="72" t="s">
-        <v>403</v>
+      <c r="J6" s="72" t="s">
+        <v>412</v>
+      </c>
+      <c r="K6" s="73" t="s">
+        <v>404</v>
       </c>
       <c r="L6" s="68">
         <v>1.0</v>
@@ -12002,10 +12032,13 @@
       <c r="M6" s="68" t="s">
         <v>194</v>
       </c>
-      <c r="N6" s="73">
+      <c r="N6" s="74">
         <v>13.8712444</v>
       </c>
       <c r="O6" s="68">
+        <v>2000.0</v>
+      </c>
+      <c r="P6" s="68">
         <v>2000.0</v>
       </c>
     </row>
@@ -12026,10 +12059,10 @@
         <v>189</v>
       </c>
       <c r="F7" s="68" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="G7" s="68" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="H7" s="68" t="s">
         <v>192</v>
@@ -12037,11 +12070,11 @@
       <c r="I7" s="68" t="s">
         <v>193</v>
       </c>
-      <c r="J7" s="71" t="s">
-        <v>411</v>
-      </c>
-      <c r="K7" s="72" t="s">
-        <v>403</v>
+      <c r="J7" s="72" t="s">
+        <v>412</v>
+      </c>
+      <c r="K7" s="73" t="s">
+        <v>404</v>
       </c>
       <c r="L7" s="68">
         <v>1.0</v>
@@ -12049,10 +12082,13 @@
       <c r="M7" s="68" t="s">
         <v>194</v>
       </c>
-      <c r="N7" s="73">
+      <c r="N7" s="74">
         <v>13.8712444</v>
       </c>
       <c r="O7" s="68">
+        <v>2000.0</v>
+      </c>
+      <c r="P7" s="68">
         <v>2000.0</v>
       </c>
     </row>
@@ -12073,10 +12109,10 @@
         <v>189</v>
       </c>
       <c r="F8" s="68" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="G8" s="68" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="H8" s="68" t="s">
         <v>192</v>
@@ -12084,11 +12120,11 @@
       <c r="I8" s="68" t="s">
         <v>193</v>
       </c>
-      <c r="J8" s="71" t="s">
-        <v>411</v>
-      </c>
-      <c r="K8" s="72" t="s">
-        <v>403</v>
+      <c r="J8" s="72" t="s">
+        <v>412</v>
+      </c>
+      <c r="K8" s="73" t="s">
+        <v>404</v>
       </c>
       <c r="L8" s="68">
         <v>1.0</v>
@@ -12096,10 +12132,13 @@
       <c r="M8" s="68" t="s">
         <v>194</v>
       </c>
-      <c r="N8" s="73">
+      <c r="N8" s="74">
         <v>13.8712444</v>
       </c>
       <c r="O8" s="68">
+        <v>2000.0</v>
+      </c>
+      <c r="P8" s="68">
         <v>2000.0</v>
       </c>
     </row>
@@ -12120,10 +12159,10 @@
         <v>189</v>
       </c>
       <c r="F9" s="68" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="G9" s="68" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="H9" s="68" t="s">
         <v>192</v>
@@ -12131,11 +12170,11 @@
       <c r="I9" s="68" t="s">
         <v>193</v>
       </c>
-      <c r="J9" s="71" t="s">
-        <v>411</v>
-      </c>
-      <c r="K9" s="72" t="s">
-        <v>403</v>
+      <c r="J9" s="72" t="s">
+        <v>412</v>
+      </c>
+      <c r="K9" s="73" t="s">
+        <v>404</v>
       </c>
       <c r="L9" s="68">
         <v>1.0</v>
@@ -12143,10 +12182,13 @@
       <c r="M9" s="68" t="s">
         <v>194</v>
       </c>
-      <c r="N9" s="73">
+      <c r="N9" s="74">
         <v>13.8712444</v>
       </c>
       <c r="O9" s="68">
+        <v>2000.0</v>
+      </c>
+      <c r="P9" s="68">
         <v>2000.0</v>
       </c>
     </row>
@@ -12167,10 +12209,10 @@
         <v>189</v>
       </c>
       <c r="F10" s="68" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="G10" s="68" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="H10" s="68" t="s">
         <v>192</v>
@@ -12178,11 +12220,11 @@
       <c r="I10" s="68" t="s">
         <v>193</v>
       </c>
-      <c r="J10" s="71" t="s">
-        <v>411</v>
-      </c>
-      <c r="K10" s="72" t="s">
-        <v>403</v>
+      <c r="J10" s="72" t="s">
+        <v>412</v>
+      </c>
+      <c r="K10" s="73" t="s">
+        <v>404</v>
       </c>
       <c r="L10" s="68">
         <v>1.0</v>
@@ -12190,10 +12232,13 @@
       <c r="M10" s="68" t="s">
         <v>194</v>
       </c>
-      <c r="N10" s="73">
+      <c r="N10" s="74">
         <v>13.8712444</v>
       </c>
       <c r="O10" s="68">
+        <v>2000.0</v>
+      </c>
+      <c r="P10" s="68">
         <v>2000.0</v>
       </c>
     </row>
@@ -12214,10 +12259,10 @@
         <v>189</v>
       </c>
       <c r="F11" s="68" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="G11" s="68" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="H11" s="68" t="s">
         <v>196</v>
@@ -12225,11 +12270,11 @@
       <c r="I11" s="68" t="s">
         <v>200</v>
       </c>
-      <c r="J11" s="71" t="s">
-        <v>408</v>
-      </c>
-      <c r="K11" s="72" t="s">
-        <v>403</v>
+      <c r="J11" s="72" t="s">
+        <v>409</v>
+      </c>
+      <c r="K11" s="73" t="s">
+        <v>404</v>
       </c>
       <c r="L11" s="68">
         <v>1.0</v>
@@ -12237,11 +12282,14 @@
       <c r="M11" s="68" t="s">
         <v>201</v>
       </c>
-      <c r="N11" s="73">
+      <c r="N11" s="74">
         <v>21.2486974</v>
       </c>
       <c r="O11" s="68" t="s">
         <v>202</v>
+      </c>
+      <c r="P11" s="68">
+        <v>2500.0</v>
       </c>
     </row>
     <row r="12">
@@ -12261,10 +12309,10 @@
         <v>216</v>
       </c>
       <c r="F12" s="68" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="G12" s="68" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="H12" s="68" t="s">
         <v>221</v>
@@ -12272,11 +12320,11 @@
       <c r="I12" s="68" t="s">
         <v>223</v>
       </c>
-      <c r="J12" s="71" t="s">
-        <v>403</v>
-      </c>
-      <c r="K12" s="72" t="s">
-        <v>403</v>
+      <c r="J12" s="72" t="s">
+        <v>404</v>
+      </c>
+      <c r="K12" s="73" t="s">
+        <v>404</v>
       </c>
       <c r="L12" s="68">
         <v>1.0</v>
@@ -12284,11 +12332,14 @@
       <c r="M12" s="68" t="s">
         <v>224</v>
       </c>
-      <c r="N12" s="73">
+      <c r="N12" s="74">
         <v>8.82092796</v>
       </c>
       <c r="O12" s="68" t="s">
         <v>225</v>
+      </c>
+      <c r="P12" s="68">
+        <v>2500.0</v>
       </c>
     </row>
     <row r="13">
@@ -12308,10 +12359,10 @@
         <v>216</v>
       </c>
       <c r="F13" s="68" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="G13" s="68" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="H13" s="68" t="s">
         <v>221</v>
@@ -12319,11 +12370,11 @@
       <c r="I13" s="68" t="s">
         <v>223</v>
       </c>
-      <c r="J13" s="71" t="s">
-        <v>403</v>
-      </c>
-      <c r="K13" s="72" t="s">
-        <v>403</v>
+      <c r="J13" s="72" t="s">
+        <v>404</v>
+      </c>
+      <c r="K13" s="73" t="s">
+        <v>404</v>
       </c>
       <c r="L13" s="68">
         <v>1.0</v>
@@ -12331,11 +12382,14 @@
       <c r="M13" s="68" t="s">
         <v>224</v>
       </c>
-      <c r="N13" s="73">
+      <c r="N13" s="74">
         <v>8.82092796</v>
       </c>
       <c r="O13" s="68" t="s">
         <v>225</v>
+      </c>
+      <c r="P13" s="68">
+        <v>2000.0</v>
       </c>
     </row>
     <row r="14">
@@ -12355,10 +12409,10 @@
         <v>216</v>
       </c>
       <c r="F14" s="68" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="G14" s="68" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="H14" s="68" t="s">
         <v>211</v>
@@ -12366,22 +12420,25 @@
       <c r="I14" s="68" t="s">
         <v>214</v>
       </c>
-      <c r="J14" s="71" t="s">
-        <v>430</v>
-      </c>
-      <c r="K14" s="72" t="s">
-        <v>430</v>
+      <c r="J14" s="72" t="s">
+        <v>431</v>
+      </c>
+      <c r="K14" s="73" t="s">
+        <v>431</v>
       </c>
       <c r="L14" s="68">
         <v>0.0</v>
       </c>
       <c r="M14" s="68" t="s">
-        <v>431</v>
-      </c>
-      <c r="N14" s="73">
+        <v>432</v>
+      </c>
+      <c r="N14" s="74">
         <v>7.96380922</v>
       </c>
       <c r="O14" s="68">
+        <v>2000.0</v>
+      </c>
+      <c r="P14" s="68">
         <v>2000.0</v>
       </c>
     </row>
@@ -12402,10 +12459,10 @@
         <v>216</v>
       </c>
       <c r="F15" s="68" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="G15" s="68" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="H15" s="68" t="s">
         <v>211</v>
@@ -12413,22 +12470,25 @@
       <c r="I15" s="68" t="s">
         <v>214</v>
       </c>
-      <c r="J15" s="71" t="s">
-        <v>430</v>
-      </c>
-      <c r="K15" s="72" t="s">
-        <v>430</v>
+      <c r="J15" s="72" t="s">
+        <v>431</v>
+      </c>
+      <c r="K15" s="73" t="s">
+        <v>431</v>
       </c>
       <c r="L15" s="68">
         <v>1.0</v>
       </c>
       <c r="M15" s="68" t="s">
-        <v>431</v>
-      </c>
-      <c r="N15" s="73">
+        <v>432</v>
+      </c>
+      <c r="N15" s="74">
         <v>7.96380922</v>
       </c>
       <c r="O15" s="68">
+        <v>2000.0</v>
+      </c>
+      <c r="P15" s="68">
         <v>2000.0</v>
       </c>
     </row>
@@ -12449,10 +12509,10 @@
         <v>216</v>
       </c>
       <c r="F16" s="68" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="G16" s="68" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="H16" s="68" t="s">
         <v>211</v>
@@ -12460,22 +12520,25 @@
       <c r="I16" s="68" t="s">
         <v>214</v>
       </c>
-      <c r="J16" s="71" t="s">
-        <v>430</v>
-      </c>
-      <c r="K16" s="72" t="s">
-        <v>430</v>
+      <c r="J16" s="72" t="s">
+        <v>431</v>
+      </c>
+      <c r="K16" s="73" t="s">
+        <v>431</v>
       </c>
       <c r="L16" s="68">
         <v>0.0</v>
       </c>
       <c r="M16" s="68" t="s">
-        <v>431</v>
-      </c>
-      <c r="N16" s="73">
+        <v>432</v>
+      </c>
+      <c r="N16" s="74">
         <v>7.96380922</v>
       </c>
       <c r="O16" s="68">
+        <v>2000.0</v>
+      </c>
+      <c r="P16" s="68">
         <v>2000.0</v>
       </c>
     </row>
@@ -12496,10 +12559,10 @@
         <v>216</v>
       </c>
       <c r="F17" s="68" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="G17" s="68" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="H17" s="68" t="s">
         <v>227</v>
@@ -12507,11 +12570,11 @@
       <c r="I17" s="68" t="s">
         <v>228</v>
       </c>
-      <c r="J17" s="71" t="s">
-        <v>402</v>
-      </c>
-      <c r="K17" s="72" t="s">
+      <c r="J17" s="72" t="s">
         <v>403</v>
+      </c>
+      <c r="K17" s="73" t="s">
+        <v>404</v>
       </c>
       <c r="L17" s="68">
         <v>1.0</v>
@@ -12519,10 +12582,13 @@
       <c r="M17" s="68" t="s">
         <v>229</v>
       </c>
-      <c r="N17" s="73">
+      <c r="N17" s="74">
         <v>12.0048693</v>
       </c>
       <c r="O17" s="68">
+        <v>2000.0</v>
+      </c>
+      <c r="P17" s="68">
         <v>2000.0</v>
       </c>
     </row>
@@ -12543,10 +12609,10 @@
         <v>216</v>
       </c>
       <c r="F18" s="68" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="G18" s="68" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="H18" s="68" t="s">
         <v>218</v>
@@ -12554,11 +12620,11 @@
       <c r="I18" s="68" t="s">
         <v>219</v>
       </c>
-      <c r="J18" s="71" t="s">
-        <v>440</v>
-      </c>
-      <c r="K18" s="72" t="s">
-        <v>403</v>
+      <c r="J18" s="72" t="s">
+        <v>441</v>
+      </c>
+      <c r="K18" s="73" t="s">
+        <v>404</v>
       </c>
       <c r="L18" s="68">
         <v>1.0</v>
@@ -12566,10 +12632,13 @@
       <c r="M18" s="68" t="s">
         <v>220</v>
       </c>
-      <c r="N18" s="73">
+      <c r="N18" s="74">
         <v>7.68518881</v>
       </c>
       <c r="O18" s="68">
+        <v>2000.0</v>
+      </c>
+      <c r="P18" s="68">
         <v>2000.0</v>
       </c>
     </row>
@@ -12584,16 +12653,16 @@
         <v>13.0</v>
       </c>
       <c r="D19" s="68" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="E19" s="68" t="s">
         <v>235</v>
       </c>
       <c r="F19" s="68" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="G19" s="68" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="H19" s="68" t="s">
         <v>231</v>
@@ -12601,11 +12670,11 @@
       <c r="I19" s="68" t="s">
         <v>233</v>
       </c>
-      <c r="J19" s="71" t="s">
-        <v>444</v>
-      </c>
-      <c r="K19" s="72" t="s">
+      <c r="J19" s="72" t="s">
         <v>445</v>
+      </c>
+      <c r="K19" s="73" t="s">
+        <v>446</v>
       </c>
       <c r="L19" s="68">
         <v>0.0</v>
@@ -12613,10 +12682,13 @@
       <c r="M19" s="68" t="s">
         <v>234</v>
       </c>
-      <c r="N19" s="73">
+      <c r="N19" s="74">
         <v>10.049094</v>
       </c>
       <c r="O19" s="68">
+        <v>3000.0</v>
+      </c>
+      <c r="P19" s="68">
         <v>3000.0</v>
       </c>
     </row>
@@ -12631,16 +12703,16 @@
         <v>13.0</v>
       </c>
       <c r="D20" s="68" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="E20" s="68" t="s">
         <v>235</v>
       </c>
       <c r="F20" s="68" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="G20" s="68" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="H20" s="68" t="s">
         <v>231</v>
@@ -12648,11 +12720,11 @@
       <c r="I20" s="68" t="s">
         <v>233</v>
       </c>
-      <c r="J20" s="71" t="s">
-        <v>444</v>
-      </c>
-      <c r="K20" s="72" t="s">
+      <c r="J20" s="72" t="s">
         <v>445</v>
+      </c>
+      <c r="K20" s="73" t="s">
+        <v>446</v>
       </c>
       <c r="L20" s="68">
         <v>1.0</v>
@@ -12660,10 +12732,13 @@
       <c r="M20" s="68" t="s">
         <v>234</v>
       </c>
-      <c r="N20" s="73">
+      <c r="N20" s="74">
         <v>10.049094</v>
       </c>
       <c r="O20" s="68">
+        <v>3000.0</v>
+      </c>
+      <c r="P20" s="68">
         <v>3000.0</v>
       </c>
     </row>
@@ -12678,16 +12753,16 @@
         <v>13.0</v>
       </c>
       <c r="D21" s="68" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="E21" s="68" t="s">
         <v>235</v>
       </c>
       <c r="F21" s="68" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="G21" s="68" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="H21" s="68" t="s">
         <v>231</v>
@@ -12695,11 +12770,11 @@
       <c r="I21" s="68" t="s">
         <v>233</v>
       </c>
-      <c r="J21" s="71" t="s">
-        <v>444</v>
-      </c>
-      <c r="K21" s="72" t="s">
+      <c r="J21" s="72" t="s">
         <v>445</v>
+      </c>
+      <c r="K21" s="73" t="s">
+        <v>446</v>
       </c>
       <c r="L21" s="68">
         <v>0.0</v>
@@ -12707,10 +12782,13 @@
       <c r="M21" s="68" t="s">
         <v>234</v>
       </c>
-      <c r="N21" s="73">
+      <c r="N21" s="74">
         <v>10.049094</v>
       </c>
       <c r="O21" s="68">
+        <v>3000.0</v>
+      </c>
+      <c r="P21" s="68">
         <v>3000.0</v>
       </c>
     </row>
@@ -12725,16 +12803,16 @@
         <v>13.0</v>
       </c>
       <c r="D22" s="68" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="E22" s="68" t="s">
         <v>235</v>
       </c>
       <c r="F22" s="68" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="G22" s="68" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="H22" s="68" t="s">
         <v>231</v>
@@ -12742,11 +12820,11 @@
       <c r="I22" s="68" t="s">
         <v>233</v>
       </c>
-      <c r="J22" s="71" t="s">
-        <v>444</v>
-      </c>
-      <c r="K22" s="72" t="s">
+      <c r="J22" s="72" t="s">
         <v>445</v>
+      </c>
+      <c r="K22" s="73" t="s">
+        <v>446</v>
       </c>
       <c r="L22" s="68">
         <v>1.0</v>
@@ -12754,10 +12832,13 @@
       <c r="M22" s="68" t="s">
         <v>234</v>
       </c>
-      <c r="N22" s="73">
+      <c r="N22" s="74">
         <v>10.049094</v>
       </c>
       <c r="O22" s="68">
+        <v>3000.0</v>
+      </c>
+      <c r="P22" s="68">
         <v>3000.0</v>
       </c>
     </row>
@@ -12778,10 +12859,10 @@
         <v>235</v>
       </c>
       <c r="F23" s="68" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="G23" s="68" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="H23" s="68" t="s">
         <v>240</v>
@@ -12789,11 +12870,11 @@
       <c r="I23" s="68" t="s">
         <v>248</v>
       </c>
-      <c r="J23" s="71" t="s">
-        <v>445</v>
-      </c>
-      <c r="K23" s="72" t="s">
-        <v>445</v>
+      <c r="J23" s="72" t="s">
+        <v>446</v>
+      </c>
+      <c r="K23" s="73" t="s">
+        <v>446</v>
       </c>
       <c r="L23" s="68">
         <v>1.0</v>
@@ -12801,10 +12882,13 @@
       <c r="M23" s="68" t="s">
         <v>249</v>
       </c>
-      <c r="N23" s="73">
+      <c r="N23" s="74">
         <v>23.0839328</v>
       </c>
       <c r="O23" s="68">
+        <v>3000.0</v>
+      </c>
+      <c r="P23" s="68">
         <v>3000.0</v>
       </c>
     </row>
@@ -12825,10 +12909,10 @@
         <v>235</v>
       </c>
       <c r="F24" s="68" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="G24" s="68" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="H24" s="68" t="s">
         <v>240</v>
@@ -12836,11 +12920,11 @@
       <c r="I24" s="68" t="s">
         <v>248</v>
       </c>
-      <c r="J24" s="71" t="s">
-        <v>445</v>
-      </c>
-      <c r="K24" s="72" t="s">
-        <v>445</v>
+      <c r="J24" s="72" t="s">
+        <v>446</v>
+      </c>
+      <c r="K24" s="73" t="s">
+        <v>446</v>
       </c>
       <c r="L24" s="68">
         <v>1.0</v>
@@ -12848,10 +12932,13 @@
       <c r="M24" s="68" t="s">
         <v>249</v>
       </c>
-      <c r="N24" s="73">
+      <c r="N24" s="74">
         <v>23.0839328</v>
       </c>
       <c r="O24" s="68">
+        <v>3000.0</v>
+      </c>
+      <c r="P24" s="68">
         <v>3000.0</v>
       </c>
     </row>
@@ -12872,10 +12959,10 @@
         <v>235</v>
       </c>
       <c r="F25" s="68" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="G25" s="68" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="H25" s="68" t="s">
         <v>240</v>
@@ -12883,11 +12970,11 @@
       <c r="I25" s="68" t="s">
         <v>248</v>
       </c>
-      <c r="J25" s="71" t="s">
-        <v>445</v>
-      </c>
-      <c r="K25" s="72" t="s">
-        <v>445</v>
+      <c r="J25" s="72" t="s">
+        <v>446</v>
+      </c>
+      <c r="K25" s="73" t="s">
+        <v>446</v>
       </c>
       <c r="L25" s="68">
         <v>1.0</v>
@@ -12895,10 +12982,13 @@
       <c r="M25" s="68" t="s">
         <v>249</v>
       </c>
-      <c r="N25" s="73">
+      <c r="N25" s="74">
         <v>23.0839328</v>
       </c>
       <c r="O25" s="68">
+        <v>3000.0</v>
+      </c>
+      <c r="P25" s="68">
         <v>3000.0</v>
       </c>
     </row>
@@ -12919,10 +13009,10 @@
         <v>235</v>
       </c>
       <c r="F26" s="68" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="G26" s="68" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="H26" s="68" t="s">
         <v>240</v>
@@ -12930,11 +13020,11 @@
       <c r="I26" s="68" t="s">
         <v>200</v>
       </c>
-      <c r="J26" s="71" t="s">
-        <v>408</v>
-      </c>
-      <c r="K26" s="72" t="s">
-        <v>445</v>
+      <c r="J26" s="72" t="s">
+        <v>409</v>
+      </c>
+      <c r="K26" s="73" t="s">
+        <v>446</v>
       </c>
       <c r="L26" s="68">
         <v>1.0</v>
@@ -12942,10 +13032,13 @@
       <c r="M26" s="68" t="s">
         <v>244</v>
       </c>
-      <c r="N26" s="73">
+      <c r="N26" s="74">
         <v>55.0175743</v>
       </c>
       <c r="O26" s="68">
+        <v>4000.0</v>
+      </c>
+      <c r="P26" s="68">
         <v>4000.0</v>
       </c>
     </row>
@@ -12966,22 +13059,22 @@
         <v>235</v>
       </c>
       <c r="F27" s="68" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="G27" s="68" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="H27" s="68" t="s">
         <v>204</v>
       </c>
       <c r="I27" s="68" t="s">
-        <v>462</v>
-      </c>
-      <c r="J27" s="71" t="s">
-        <v>402</v>
-      </c>
-      <c r="K27" s="72" t="s">
-        <v>445</v>
+        <v>463</v>
+      </c>
+      <c r="J27" s="72" t="s">
+        <v>403</v>
+      </c>
+      <c r="K27" s="73" t="s">
+        <v>446</v>
       </c>
       <c r="L27" s="68">
         <v>1.0</v>
@@ -12989,10 +13082,13 @@
       <c r="M27" s="68" t="s">
         <v>238</v>
       </c>
-      <c r="N27" s="73">
+      <c r="N27" s="74">
         <v>18.229571</v>
       </c>
       <c r="O27" s="68">
+        <v>2000.0</v>
+      </c>
+      <c r="P27" s="68">
         <v>2000.0</v>
       </c>
     </row>
@@ -13013,22 +13109,22 @@
         <v>235</v>
       </c>
       <c r="F28" s="68" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="G28" s="68" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="H28" s="68" t="s">
         <v>204</v>
       </c>
       <c r="I28" s="68" t="s">
-        <v>462</v>
-      </c>
-      <c r="J28" s="71" t="s">
-        <v>402</v>
-      </c>
-      <c r="K28" s="72" t="s">
-        <v>445</v>
+        <v>463</v>
+      </c>
+      <c r="J28" s="72" t="s">
+        <v>403</v>
+      </c>
+      <c r="K28" s="73" t="s">
+        <v>446</v>
       </c>
       <c r="L28" s="68">
         <v>0.0</v>
@@ -13036,10 +13132,13 @@
       <c r="M28" s="68" t="s">
         <v>238</v>
       </c>
-      <c r="N28" s="73">
+      <c r="N28" s="74">
         <v>18.229571</v>
       </c>
       <c r="O28" s="68">
+        <v>2000.0</v>
+      </c>
+      <c r="P28" s="68">
         <v>2000.0</v>
       </c>
     </row>
@@ -13060,22 +13159,22 @@
         <v>235</v>
       </c>
       <c r="F29" s="68" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="G29" s="68" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="H29" s="68" t="s">
         <v>204</v>
       </c>
       <c r="I29" s="68" t="s">
-        <v>462</v>
-      </c>
-      <c r="J29" s="71" t="s">
-        <v>402</v>
-      </c>
-      <c r="K29" s="72" t="s">
-        <v>445</v>
+        <v>463</v>
+      </c>
+      <c r="J29" s="72" t="s">
+        <v>403</v>
+      </c>
+      <c r="K29" s="73" t="s">
+        <v>446</v>
       </c>
       <c r="L29" s="68">
         <v>0.0</v>
@@ -13083,10 +13182,13 @@
       <c r="M29" s="68" t="s">
         <v>238</v>
       </c>
-      <c r="N29" s="73">
+      <c r="N29" s="74">
         <v>18.229571</v>
       </c>
       <c r="O29" s="68">
+        <v>2000.0</v>
+      </c>
+      <c r="P29" s="68">
         <v>2000.0</v>
       </c>
     </row>
@@ -13107,22 +13209,22 @@
         <v>235</v>
       </c>
       <c r="F30" s="68" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="G30" s="68" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="H30" s="68" t="s">
         <v>204</v>
       </c>
       <c r="I30" s="68" t="s">
-        <v>462</v>
-      </c>
-      <c r="J30" s="71" t="s">
-        <v>402</v>
-      </c>
-      <c r="K30" s="72" t="s">
-        <v>445</v>
+        <v>463</v>
+      </c>
+      <c r="J30" s="72" t="s">
+        <v>403</v>
+      </c>
+      <c r="K30" s="73" t="s">
+        <v>446</v>
       </c>
       <c r="L30" s="68">
         <v>0.0</v>
@@ -13130,10 +13232,13 @@
       <c r="M30" s="68" t="s">
         <v>238</v>
       </c>
-      <c r="N30" s="73">
+      <c r="N30" s="74">
         <v>18.229571</v>
       </c>
       <c r="O30" s="68">
+        <v>2000.0</v>
+      </c>
+      <c r="P30" s="68">
         <v>2000.0</v>
       </c>
     </row>
@@ -13154,22 +13259,22 @@
         <v>235</v>
       </c>
       <c r="F31" s="68" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="G31" s="68" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="H31" s="68" t="s">
         <v>204</v>
       </c>
       <c r="I31" s="68" t="s">
-        <v>462</v>
-      </c>
-      <c r="J31" s="71" t="s">
-        <v>402</v>
-      </c>
-      <c r="K31" s="72" t="s">
-        <v>445</v>
+        <v>463</v>
+      </c>
+      <c r="J31" s="72" t="s">
+        <v>403</v>
+      </c>
+      <c r="K31" s="73" t="s">
+        <v>446</v>
       </c>
       <c r="L31" s="68">
         <v>0.0</v>
@@ -13177,10 +13282,13 @@
       <c r="M31" s="68" t="s">
         <v>238</v>
       </c>
-      <c r="N31" s="73">
+      <c r="N31" s="74">
         <v>18.229571</v>
       </c>
       <c r="O31" s="68">
+        <v>2000.0</v>
+      </c>
+      <c r="P31" s="68">
         <v>2000.0</v>
       </c>
     </row>
@@ -13201,22 +13309,22 @@
         <v>235</v>
       </c>
       <c r="F32" s="68" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="G32" s="68" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H32" s="68" t="s">
         <v>204</v>
       </c>
       <c r="I32" s="68" t="s">
-        <v>462</v>
-      </c>
-      <c r="J32" s="71" t="s">
-        <v>402</v>
-      </c>
-      <c r="K32" s="72" t="s">
-        <v>445</v>
+        <v>463</v>
+      </c>
+      <c r="J32" s="72" t="s">
+        <v>403</v>
+      </c>
+      <c r="K32" s="73" t="s">
+        <v>446</v>
       </c>
       <c r="L32" s="68">
         <v>0.0</v>
@@ -13224,10 +13332,13 @@
       <c r="M32" s="68" t="s">
         <v>238</v>
       </c>
-      <c r="N32" s="73">
+      <c r="N32" s="74">
         <v>18.229571</v>
       </c>
       <c r="O32" s="68">
+        <v>2000.0</v>
+      </c>
+      <c r="P32" s="68">
         <v>2000.0</v>
       </c>
     </row>
@@ -13241,29 +13352,29 @@
       <c r="C33" s="68">
         <v>35.0</v>
       </c>
-      <c r="D33" s="74" t="s">
+      <c r="D33" s="75" t="s">
         <v>140</v>
       </c>
       <c r="E33" s="68" t="s">
         <v>285</v>
       </c>
       <c r="F33" s="68" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="G33" s="68" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="H33" s="68" t="s">
         <v>279</v>
       </c>
       <c r="I33" s="68" t="s">
-        <v>475</v>
-      </c>
-      <c r="J33" s="75" t="s">
         <v>476</v>
       </c>
-      <c r="K33" s="76" t="s">
-        <v>445</v>
+      <c r="J33" s="76" t="s">
+        <v>477</v>
+      </c>
+      <c r="K33" s="77" t="s">
+        <v>446</v>
       </c>
       <c r="L33" s="68">
         <v>0.0</v>
@@ -13271,11 +13382,14 @@
       <c r="M33" s="68" t="s">
         <v>283</v>
       </c>
-      <c r="N33" s="73">
+      <c r="N33" s="74">
         <v>20.3295363</v>
       </c>
       <c r="O33" s="68" t="s">
         <v>284</v>
+      </c>
+      <c r="P33" s="68" t="s">
+        <v>477</v>
       </c>
     </row>
     <row r="34">
@@ -13288,29 +13402,29 @@
       <c r="C34" s="68">
         <v>35.0</v>
       </c>
-      <c r="D34" s="74" t="s">
+      <c r="D34" s="75" t="s">
         <v>140</v>
       </c>
       <c r="E34" s="68" t="s">
         <v>285</v>
       </c>
       <c r="F34" s="68" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="G34" s="68" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="H34" s="68" t="s">
         <v>279</v>
       </c>
       <c r="I34" s="68" t="s">
-        <v>475</v>
-      </c>
-      <c r="J34" s="77" t="s">
-        <v>402</v>
-      </c>
-      <c r="K34" s="76" t="s">
-        <v>445</v>
+        <v>476</v>
+      </c>
+      <c r="J34" s="78" t="s">
+        <v>403</v>
+      </c>
+      <c r="K34" s="77" t="s">
+        <v>446</v>
       </c>
       <c r="L34" s="68">
         <v>1.0</v>
@@ -13318,11 +13432,14 @@
       <c r="M34" s="68" t="s">
         <v>283</v>
       </c>
-      <c r="N34" s="73">
+      <c r="N34" s="74">
         <v>20.3295363</v>
       </c>
       <c r="O34" s="68" t="s">
         <v>284</v>
+      </c>
+      <c r="P34" s="68">
+        <v>3000.0</v>
       </c>
     </row>
     <row r="35">
@@ -13335,29 +13452,29 @@
       <c r="C35" s="68">
         <v>35.0</v>
       </c>
-      <c r="D35" s="74" t="s">
+      <c r="D35" s="75" t="s">
         <v>140</v>
       </c>
       <c r="E35" s="68" t="s">
         <v>285</v>
       </c>
       <c r="F35" s="68" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="G35" s="68" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="H35" s="68" t="s">
         <v>279</v>
       </c>
       <c r="I35" s="68" t="s">
-        <v>475</v>
-      </c>
-      <c r="J35" s="77" t="s">
         <v>476</v>
       </c>
-      <c r="K35" s="76" t="s">
-        <v>445</v>
+      <c r="J35" s="78" t="s">
+        <v>477</v>
+      </c>
+      <c r="K35" s="77" t="s">
+        <v>446</v>
       </c>
       <c r="L35" s="68">
         <v>1.0</v>
@@ -13365,11 +13482,14 @@
       <c r="M35" s="68" t="s">
         <v>283</v>
       </c>
-      <c r="N35" s="73">
+      <c r="N35" s="74">
         <v>20.3295363</v>
       </c>
       <c r="O35" s="68" t="s">
         <v>284</v>
+      </c>
+      <c r="P35" s="68">
+        <v>3000.0</v>
       </c>
     </row>
     <row r="36">
@@ -13382,29 +13502,29 @@
       <c r="C36" s="68">
         <v>35.0</v>
       </c>
-      <c r="D36" s="74" t="s">
+      <c r="D36" s="75" t="s">
         <v>140</v>
       </c>
       <c r="E36" s="68" t="s">
         <v>285</v>
       </c>
       <c r="F36" s="68" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="G36" s="68" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="H36" s="68" t="s">
         <v>279</v>
       </c>
       <c r="I36" s="68" t="s">
-        <v>475</v>
-      </c>
-      <c r="J36" s="75" t="s">
         <v>476</v>
       </c>
-      <c r="K36" s="76" t="s">
-        <v>445</v>
+      <c r="J36" s="76" t="s">
+        <v>477</v>
+      </c>
+      <c r="K36" s="77" t="s">
+        <v>446</v>
       </c>
       <c r="L36" s="68">
         <v>0.0</v>
@@ -13412,11 +13532,14 @@
       <c r="M36" s="68" t="s">
         <v>283</v>
       </c>
-      <c r="N36" s="73">
+      <c r="N36" s="74">
         <v>20.3295363</v>
       </c>
       <c r="O36" s="68" t="s">
         <v>284</v>
+      </c>
+      <c r="P36" s="68">
+        <v>2500.0</v>
       </c>
     </row>
     <row r="37">
@@ -13436,10 +13559,10 @@
         <v>285</v>
       </c>
       <c r="F37" s="68" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="G37" s="68" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="H37" s="68" t="s">
         <v>291</v>
@@ -13447,11 +13570,11 @@
       <c r="I37" s="68" t="s">
         <v>295</v>
       </c>
-      <c r="J37" s="71" t="s">
-        <v>445</v>
-      </c>
-      <c r="K37" s="76" t="s">
-        <v>445</v>
+      <c r="J37" s="72" t="s">
+        <v>446</v>
+      </c>
+      <c r="K37" s="77" t="s">
+        <v>446</v>
       </c>
       <c r="L37" s="68">
         <v>0.0</v>
@@ -13459,11 +13582,14 @@
       <c r="M37" s="68" t="s">
         <v>296</v>
       </c>
-      <c r="N37" s="73">
+      <c r="N37" s="74">
         <v>12.0323181</v>
       </c>
       <c r="O37" s="68" t="s">
         <v>297</v>
+      </c>
+      <c r="P37" s="68">
+        <v>2000.0</v>
       </c>
     </row>
     <row r="38">
@@ -13483,10 +13609,10 @@
         <v>285</v>
       </c>
       <c r="F38" s="68" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="G38" s="68" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="H38" s="68" t="s">
         <v>291</v>
@@ -13494,11 +13620,11 @@
       <c r="I38" s="68" t="s">
         <v>295</v>
       </c>
-      <c r="J38" s="71" t="s">
-        <v>445</v>
-      </c>
-      <c r="K38" s="76" t="s">
-        <v>445</v>
+      <c r="J38" s="72" t="s">
+        <v>446</v>
+      </c>
+      <c r="K38" s="77" t="s">
+        <v>446</v>
       </c>
       <c r="L38" s="68">
         <v>1.0</v>
@@ -13506,11 +13632,14 @@
       <c r="M38" s="68" t="s">
         <v>296</v>
       </c>
-      <c r="N38" s="73">
+      <c r="N38" s="74">
         <v>12.0323181</v>
       </c>
       <c r="O38" s="68" t="s">
         <v>297</v>
+      </c>
+      <c r="P38" s="68">
+        <v>3000.0</v>
       </c>
     </row>
     <row r="39">
@@ -13530,10 +13659,10 @@
         <v>285</v>
       </c>
       <c r="F39" s="68" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="G39" s="68" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="H39" s="68" t="s">
         <v>291</v>
@@ -13541,11 +13670,11 @@
       <c r="I39" s="68" t="s">
         <v>295</v>
       </c>
-      <c r="J39" s="71" t="s">
-        <v>445</v>
-      </c>
-      <c r="K39" s="76" t="s">
-        <v>445</v>
+      <c r="J39" s="72" t="s">
+        <v>446</v>
+      </c>
+      <c r="K39" s="77" t="s">
+        <v>446</v>
       </c>
       <c r="L39" s="68">
         <v>1.0</v>
@@ -13553,11 +13682,14 @@
       <c r="M39" s="68" t="s">
         <v>296</v>
       </c>
-      <c r="N39" s="73">
+      <c r="N39" s="74">
         <v>12.0323181</v>
       </c>
       <c r="O39" s="68" t="s">
         <v>297</v>
+      </c>
+      <c r="P39" s="68">
+        <v>3000.0</v>
       </c>
     </row>
     <row r="40">
@@ -13577,10 +13709,10 @@
         <v>285</v>
       </c>
       <c r="F40" s="68" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="G40" s="68" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="H40" s="68" t="s">
         <v>291</v>
@@ -13588,11 +13720,11 @@
       <c r="I40" s="68" t="s">
         <v>295</v>
       </c>
-      <c r="J40" s="71" t="s">
-        <v>445</v>
-      </c>
-      <c r="K40" s="76" t="s">
-        <v>445</v>
+      <c r="J40" s="72" t="s">
+        <v>446</v>
+      </c>
+      <c r="K40" s="77" t="s">
+        <v>446</v>
       </c>
       <c r="L40" s="68">
         <v>1.0</v>
@@ -13600,11 +13732,14 @@
       <c r="M40" s="68" t="s">
         <v>296</v>
       </c>
-      <c r="N40" s="73">
+      <c r="N40" s="74">
         <v>12.0323181</v>
       </c>
       <c r="O40" s="68" t="s">
         <v>297</v>
+      </c>
+      <c r="P40" s="68">
+        <v>2000.0</v>
       </c>
     </row>
     <row r="41" ht="18.75" customHeight="1">
@@ -13617,29 +13752,29 @@
       <c r="C41" s="68">
         <v>55.0</v>
       </c>
-      <c r="D41" s="78" t="s">
-        <v>491</v>
+      <c r="D41" s="79" t="s">
+        <v>492</v>
       </c>
       <c r="E41" s="68" t="s">
         <v>285</v>
       </c>
       <c r="F41" s="68" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="G41" s="68" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="H41" s="68" t="s">
         <v>302</v>
       </c>
       <c r="I41" s="68" t="s">
-        <v>494</v>
-      </c>
-      <c r="J41" s="79" t="s">
         <v>495</v>
       </c>
-      <c r="K41" s="76" t="s">
+      <c r="J41" s="80" t="s">
         <v>496</v>
+      </c>
+      <c r="K41" s="77" t="s">
+        <v>497</v>
       </c>
       <c r="L41" s="68">
         <v>1.0</v>
@@ -13647,11 +13782,14 @@
       <c r="M41" s="68" t="s">
         <v>308</v>
       </c>
-      <c r="N41" s="73">
+      <c r="N41" s="74">
         <v>12.7616326</v>
       </c>
       <c r="O41" s="68" t="s">
         <v>309</v>
+      </c>
+      <c r="P41" s="68">
+        <v>2500.0</v>
       </c>
     </row>
     <row r="42" ht="18.75" customHeight="1">
@@ -13664,29 +13802,29 @@
       <c r="C42" s="68">
         <v>55.0</v>
       </c>
-      <c r="D42" s="78" t="s">
-        <v>491</v>
+      <c r="D42" s="79" t="s">
+        <v>492</v>
       </c>
       <c r="E42" s="68" t="s">
         <v>285</v>
       </c>
       <c r="F42" s="68" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="G42" s="68" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="H42" s="68" t="s">
         <v>302</v>
       </c>
       <c r="I42" s="68" t="s">
-        <v>494</v>
-      </c>
-      <c r="J42" s="80" t="s">
-        <v>499</v>
-      </c>
-      <c r="K42" s="76" t="s">
-        <v>496</v>
+        <v>495</v>
+      </c>
+      <c r="J42" s="81" t="s">
+        <v>500</v>
+      </c>
+      <c r="K42" s="77" t="s">
+        <v>497</v>
       </c>
       <c r="L42" s="68">
         <v>1.0</v>
@@ -13694,11 +13832,14 @@
       <c r="M42" s="68" t="s">
         <v>308</v>
       </c>
-      <c r="N42" s="73">
+      <c r="N42" s="74">
         <v>12.7616326</v>
       </c>
       <c r="O42" s="68" t="s">
         <v>309</v>
+      </c>
+      <c r="P42" s="68">
+        <v>3500.0</v>
       </c>
     </row>
     <row r="43" ht="18.75" customHeight="1">
@@ -13711,29 +13852,29 @@
       <c r="C43" s="68">
         <v>55.0</v>
       </c>
-      <c r="D43" s="78" t="s">
-        <v>491</v>
+      <c r="D43" s="79" t="s">
+        <v>492</v>
       </c>
       <c r="E43" s="68" t="s">
         <v>285</v>
       </c>
       <c r="F43" s="68" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="G43" s="68" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="H43" s="68" t="s">
         <v>302</v>
       </c>
       <c r="I43" s="68" t="s">
-        <v>494</v>
-      </c>
-      <c r="J43" s="81" t="s">
-        <v>445</v>
-      </c>
-      <c r="K43" s="76" t="s">
-        <v>445</v>
+        <v>495</v>
+      </c>
+      <c r="J43" s="82" t="s">
+        <v>446</v>
+      </c>
+      <c r="K43" s="77" t="s">
+        <v>446</v>
       </c>
       <c r="L43" s="68">
         <v>1.0</v>
@@ -13741,11 +13882,14 @@
       <c r="M43" s="68" t="s">
         <v>308</v>
       </c>
-      <c r="N43" s="73">
+      <c r="N43" s="74">
         <v>12.7616326</v>
       </c>
       <c r="O43" s="68" t="s">
         <v>309</v>
+      </c>
+      <c r="P43" s="68">
+        <v>3000.0</v>
       </c>
     </row>
     <row r="44" ht="18.75" customHeight="1">
@@ -13758,29 +13902,29 @@
       <c r="C44" s="68">
         <v>55.0</v>
       </c>
-      <c r="D44" s="78" t="s">
-        <v>491</v>
+      <c r="D44" s="79" t="s">
+        <v>492</v>
       </c>
       <c r="E44" s="68" t="s">
         <v>285</v>
       </c>
       <c r="F44" s="68" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="G44" s="68" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="H44" s="68" t="s">
         <v>302</v>
       </c>
       <c r="I44" s="68" t="s">
-        <v>494</v>
-      </c>
-      <c r="J44" s="80" t="s">
-        <v>499</v>
-      </c>
-      <c r="K44" s="76" t="s">
-        <v>496</v>
+        <v>495</v>
+      </c>
+      <c r="J44" s="81" t="s">
+        <v>500</v>
+      </c>
+      <c r="K44" s="77" t="s">
+        <v>497</v>
       </c>
       <c r="L44" s="68">
         <v>1.0</v>
@@ -13788,11 +13932,14 @@
       <c r="M44" s="68" t="s">
         <v>308</v>
       </c>
-      <c r="N44" s="73">
+      <c r="N44" s="74">
         <v>12.7616326</v>
       </c>
       <c r="O44" s="68" t="s">
         <v>309</v>
+      </c>
+      <c r="P44" s="68">
+        <v>3000.0</v>
       </c>
     </row>
     <row r="45" ht="18.75" customHeight="1">
@@ -13805,29 +13952,29 @@
       <c r="C45" s="68">
         <v>55.0</v>
       </c>
-      <c r="D45" s="78" t="s">
-        <v>491</v>
+      <c r="D45" s="79" t="s">
+        <v>492</v>
       </c>
       <c r="E45" s="68" t="s">
         <v>285</v>
       </c>
       <c r="F45" s="68" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="G45" s="68" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="H45" s="68" t="s">
         <v>302</v>
       </c>
       <c r="I45" s="68" t="s">
-        <v>494</v>
-      </c>
-      <c r="J45" s="79" t="s">
-        <v>499</v>
-      </c>
-      <c r="K45" s="76" t="s">
-        <v>496</v>
+        <v>495</v>
+      </c>
+      <c r="J45" s="80" t="s">
+        <v>500</v>
+      </c>
+      <c r="K45" s="77" t="s">
+        <v>497</v>
       </c>
       <c r="L45" s="68">
         <v>1.0</v>
@@ -13835,11 +13982,14 @@
       <c r="M45" s="68" t="s">
         <v>308</v>
       </c>
-      <c r="N45" s="73">
+      <c r="N45" s="74">
         <v>12.7616326</v>
       </c>
       <c r="O45" s="68" t="s">
         <v>309</v>
+      </c>
+      <c r="P45" s="68">
+        <v>2500.0</v>
       </c>
     </row>
     <row r="46" ht="18.75" customHeight="1">
@@ -13852,29 +14002,29 @@
       <c r="C46" s="68">
         <v>55.0</v>
       </c>
-      <c r="D46" s="78" t="s">
-        <v>491</v>
+      <c r="D46" s="79" t="s">
+        <v>492</v>
       </c>
       <c r="E46" s="68" t="s">
         <v>285</v>
       </c>
       <c r="F46" s="68" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="G46" s="68" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="H46" s="68" t="s">
         <v>302</v>
       </c>
       <c r="I46" s="68" t="s">
-        <v>494</v>
-      </c>
-      <c r="J46" s="81" t="s">
-        <v>445</v>
-      </c>
-      <c r="K46" s="76" t="s">
-        <v>445</v>
+        <v>495</v>
+      </c>
+      <c r="J46" s="82" t="s">
+        <v>446</v>
+      </c>
+      <c r="K46" s="77" t="s">
+        <v>446</v>
       </c>
       <c r="L46" s="68">
         <v>1.0</v>
@@ -13882,11 +14032,14 @@
       <c r="M46" s="68" t="s">
         <v>308</v>
       </c>
-      <c r="N46" s="73">
+      <c r="N46" s="74">
         <v>12.7616326</v>
       </c>
       <c r="O46" s="68" t="s">
         <v>309</v>
+      </c>
+      <c r="P46" s="68">
+        <v>3000.0</v>
       </c>
     </row>
     <row r="47">
@@ -13906,34 +14059,37 @@
         <v>285</v>
       </c>
       <c r="F47" s="68" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="G47" s="68" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="H47" s="68" t="s">
         <v>329</v>
       </c>
       <c r="I47" s="68" t="s">
-        <v>508</v>
-      </c>
-      <c r="J47" s="71" t="s">
-        <v>408</v>
-      </c>
-      <c r="K47" s="72" t="s">
         <v>509</v>
+      </c>
+      <c r="J47" s="72" t="s">
+        <v>409</v>
+      </c>
+      <c r="K47" s="73" t="s">
+        <v>510</v>
       </c>
       <c r="L47" s="68">
         <v>1.0</v>
       </c>
       <c r="M47" s="68" t="s">
-        <v>510</v>
-      </c>
-      <c r="N47" s="73">
+        <v>511</v>
+      </c>
+      <c r="N47" s="74">
         <v>12.8090755</v>
       </c>
       <c r="O47" s="68" t="s">
         <v>333</v>
+      </c>
+      <c r="P47" s="68">
+        <v>2500.0</v>
       </c>
     </row>
     <row r="48">
@@ -13953,34 +14109,37 @@
         <v>285</v>
       </c>
       <c r="F48" s="68" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="G48" s="68" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="H48" s="68" t="s">
         <v>329</v>
       </c>
       <c r="I48" s="68" t="s">
-        <v>508</v>
-      </c>
-      <c r="J48" s="71" t="s">
-        <v>408</v>
-      </c>
-      <c r="K48" s="72" t="s">
         <v>509</v>
+      </c>
+      <c r="J48" s="72" t="s">
+        <v>409</v>
+      </c>
+      <c r="K48" s="73" t="s">
+        <v>510</v>
       </c>
       <c r="L48" s="68">
         <v>0.0</v>
       </c>
       <c r="M48" s="68" t="s">
-        <v>510</v>
-      </c>
-      <c r="N48" s="73">
+        <v>511</v>
+      </c>
+      <c r="N48" s="74">
         <v>12.8090755</v>
       </c>
       <c r="O48" s="68" t="s">
         <v>333</v>
+      </c>
+      <c r="P48" s="68">
+        <v>2500.0</v>
       </c>
     </row>
     <row r="49">
@@ -14000,34 +14159,37 @@
         <v>285</v>
       </c>
       <c r="F49" s="68" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="G49" s="68" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="H49" s="68" t="s">
         <v>329</v>
       </c>
       <c r="I49" s="68" t="s">
-        <v>508</v>
-      </c>
-      <c r="J49" s="71" t="s">
-        <v>408</v>
-      </c>
-      <c r="K49" s="72" t="s">
         <v>509</v>
+      </c>
+      <c r="J49" s="72" t="s">
+        <v>409</v>
+      </c>
+      <c r="K49" s="73" t="s">
+        <v>510</v>
       </c>
       <c r="L49" s="68">
         <v>0.0</v>
       </c>
       <c r="M49" s="68" t="s">
-        <v>510</v>
-      </c>
-      <c r="N49" s="73">
+        <v>511</v>
+      </c>
+      <c r="N49" s="74">
         <v>12.8090755</v>
       </c>
       <c r="O49" s="68" t="s">
         <v>333</v>
+      </c>
+      <c r="P49" s="68">
+        <v>2500.0</v>
       </c>
     </row>
     <row r="50">
@@ -14047,22 +14209,22 @@
         <v>340</v>
       </c>
       <c r="F50" s="68" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="G50" s="68" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="H50" s="68" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="I50" s="68" t="s">
         <v>337</v>
       </c>
-      <c r="J50" s="71" t="s">
-        <v>518</v>
-      </c>
-      <c r="K50" s="76" t="s">
-        <v>518</v>
+      <c r="J50" s="72" t="s">
+        <v>519</v>
+      </c>
+      <c r="K50" s="77" t="s">
+        <v>519</v>
       </c>
       <c r="L50" s="68">
         <v>0.0</v>
@@ -14070,11 +14232,14 @@
       <c r="M50" s="68" t="s">
         <v>338</v>
       </c>
-      <c r="N50" s="73">
+      <c r="N50" s="74">
         <v>20.5393281</v>
       </c>
       <c r="O50" s="68" t="s">
         <v>339</v>
+      </c>
+      <c r="P50" s="68">
+        <v>3500.0</v>
       </c>
     </row>
     <row r="51">
@@ -14094,22 +14259,22 @@
         <v>340</v>
       </c>
       <c r="F51" s="68" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="G51" s="68" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="H51" s="68" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="I51" s="68" t="s">
         <v>337</v>
       </c>
-      <c r="J51" s="71" t="s">
-        <v>518</v>
-      </c>
-      <c r="K51" s="76" t="s">
-        <v>518</v>
+      <c r="J51" s="72" t="s">
+        <v>519</v>
+      </c>
+      <c r="K51" s="77" t="s">
+        <v>519</v>
       </c>
       <c r="L51" s="68">
         <v>1.0</v>
@@ -14117,11 +14282,14 @@
       <c r="M51" s="68" t="s">
         <v>338</v>
       </c>
-      <c r="N51" s="73">
+      <c r="N51" s="74">
         <v>20.5393281</v>
       </c>
       <c r="O51" s="68" t="s">
         <v>339</v>
+      </c>
+      <c r="P51" s="68">
+        <v>3500.0</v>
       </c>
     </row>
     <row r="52">
@@ -14141,10 +14309,10 @@
         <v>340</v>
       </c>
       <c r="F52" s="68" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="G52" s="68" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="H52" s="68" t="s">
         <v>343</v>
@@ -14152,11 +14320,11 @@
       <c r="I52" s="68" t="s">
         <v>344</v>
       </c>
-      <c r="J52" s="71" t="s">
-        <v>523</v>
-      </c>
-      <c r="K52" s="72" t="s">
-        <v>523</v>
+      <c r="J52" s="72" t="s">
+        <v>524</v>
+      </c>
+      <c r="K52" s="73" t="s">
+        <v>524</v>
       </c>
       <c r="L52" s="68">
         <v>1.0</v>
@@ -14164,10 +14332,13 @@
       <c r="M52" s="68" t="s">
         <v>345</v>
       </c>
-      <c r="N52" s="73">
+      <c r="N52" s="74">
         <v>7.0320315</v>
       </c>
       <c r="O52" s="68">
+        <v>2000.0</v>
+      </c>
+      <c r="P52" s="68">
         <v>2000.0</v>
       </c>
     </row>
@@ -14188,10 +14359,10 @@
         <v>340</v>
       </c>
       <c r="F53" s="68" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="G53" s="68" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="H53" s="68" t="s">
         <v>343</v>
@@ -14199,11 +14370,11 @@
       <c r="I53" s="68" t="s">
         <v>344</v>
       </c>
-      <c r="J53" s="71" t="s">
-        <v>523</v>
-      </c>
-      <c r="K53" s="72" t="s">
-        <v>523</v>
+      <c r="J53" s="72" t="s">
+        <v>524</v>
+      </c>
+      <c r="K53" s="73" t="s">
+        <v>524</v>
       </c>
       <c r="L53" s="68">
         <v>1.0</v>
@@ -14211,10 +14382,13 @@
       <c r="M53" s="68" t="s">
         <v>345</v>
       </c>
-      <c r="N53" s="73">
+      <c r="N53" s="74">
         <v>7.0320315</v>
       </c>
       <c r="O53" s="68">
+        <v>2000.0</v>
+      </c>
+      <c r="P53" s="68">
         <v>2000.0</v>
       </c>
     </row>
@@ -14235,10 +14409,10 @@
         <v>340</v>
       </c>
       <c r="F54" s="68" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="G54" s="68" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="H54" s="68" t="s">
         <v>343</v>
@@ -14246,11 +14420,11 @@
       <c r="I54" s="68" t="s">
         <v>344</v>
       </c>
-      <c r="J54" s="71" t="s">
-        <v>523</v>
-      </c>
-      <c r="K54" s="72" t="s">
-        <v>523</v>
+      <c r="J54" s="72" t="s">
+        <v>524</v>
+      </c>
+      <c r="K54" s="73" t="s">
+        <v>524</v>
       </c>
       <c r="L54" s="68">
         <v>1.0</v>
@@ -14258,10 +14432,13 @@
       <c r="M54" s="68" t="s">
         <v>345</v>
       </c>
-      <c r="N54" s="73">
+      <c r="N54" s="74">
         <v>7.0320315</v>
       </c>
       <c r="O54" s="68">
+        <v>2000.0</v>
+      </c>
+      <c r="P54" s="68">
         <v>2000.0</v>
       </c>
     </row>
@@ -14282,22 +14459,22 @@
         <v>351</v>
       </c>
       <c r="F55" s="68" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="G55" s="68" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="H55" s="68" t="s">
         <v>348</v>
       </c>
       <c r="I55" s="68" t="s">
-        <v>530</v>
-      </c>
-      <c r="J55" s="71" t="s">
-        <v>402</v>
-      </c>
-      <c r="K55" s="76" t="s">
-        <v>445</v>
+        <v>531</v>
+      </c>
+      <c r="J55" s="72" t="s">
+        <v>403</v>
+      </c>
+      <c r="K55" s="77" t="s">
+        <v>446</v>
       </c>
       <c r="L55" s="68">
         <v>0.0</v>
@@ -14305,10 +14482,13 @@
       <c r="M55" s="68" t="s">
         <v>350</v>
       </c>
-      <c r="N55" s="73">
+      <c r="N55" s="74">
         <v>6.08292251</v>
       </c>
       <c r="O55" s="68">
+        <v>2000.0</v>
+      </c>
+      <c r="P55" s="68">
         <v>2000.0</v>
       </c>
     </row>
@@ -14329,22 +14509,22 @@
         <v>351</v>
       </c>
       <c r="F56" s="68" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="G56" s="68" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="H56" s="68" t="s">
         <v>348</v>
       </c>
       <c r="I56" s="68" t="s">
-        <v>530</v>
-      </c>
-      <c r="J56" s="71" t="s">
-        <v>402</v>
-      </c>
-      <c r="K56" s="76" t="s">
-        <v>445</v>
+        <v>531</v>
+      </c>
+      <c r="J56" s="72" t="s">
+        <v>403</v>
+      </c>
+      <c r="K56" s="77" t="s">
+        <v>446</v>
       </c>
       <c r="L56" s="68">
         <v>1.0</v>
@@ -14352,10 +14532,13 @@
       <c r="M56" s="68" t="s">
         <v>350</v>
       </c>
-      <c r="N56" s="73">
+      <c r="N56" s="74">
         <v>6.08292251</v>
       </c>
       <c r="O56" s="68">
+        <v>2000.0</v>
+      </c>
+      <c r="P56" s="68">
         <v>2000.0</v>
       </c>
     </row>
@@ -14376,22 +14559,22 @@
         <v>351</v>
       </c>
       <c r="F57" s="68" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="G57" s="68" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="H57" s="68" t="s">
         <v>348</v>
       </c>
       <c r="I57" s="68" t="s">
-        <v>530</v>
-      </c>
-      <c r="J57" s="71" t="s">
-        <v>402</v>
-      </c>
-      <c r="K57" s="76" t="s">
-        <v>445</v>
+        <v>531</v>
+      </c>
+      <c r="J57" s="72" t="s">
+        <v>403</v>
+      </c>
+      <c r="K57" s="77" t="s">
+        <v>446</v>
       </c>
       <c r="L57" s="68">
         <v>1.0</v>
@@ -14399,10 +14582,13 @@
       <c r="M57" s="68" t="s">
         <v>350</v>
       </c>
-      <c r="N57" s="73">
+      <c r="N57" s="74">
         <v>6.08292251</v>
       </c>
       <c r="O57" s="68">
+        <v>2000.0</v>
+      </c>
+      <c r="P57" s="68">
         <v>2000.0</v>
       </c>
     </row>
@@ -14423,10 +14609,10 @@
         <v>351</v>
       </c>
       <c r="F58" s="68" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="G58" s="68" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="H58" s="68" t="s">
         <v>204</v>
@@ -14434,11 +14620,11 @@
       <c r="I58" s="68" t="s">
         <v>353</v>
       </c>
-      <c r="J58" s="71" t="s">
-        <v>408</v>
-      </c>
-      <c r="K58" s="76" t="s">
-        <v>445</v>
+      <c r="J58" s="72" t="s">
+        <v>409</v>
+      </c>
+      <c r="K58" s="77" t="s">
+        <v>446</v>
       </c>
       <c r="L58" s="68">
         <v>0.0</v>
@@ -14446,10 +14632,13 @@
       <c r="M58" s="68" t="s">
         <v>354</v>
       </c>
-      <c r="N58" s="73">
+      <c r="N58" s="74">
         <v>30.7005423</v>
       </c>
       <c r="O58" s="68">
+        <v>4000.0</v>
+      </c>
+      <c r="P58" s="68">
         <v>4000.0</v>
       </c>
     </row>
@@ -14470,10 +14659,10 @@
         <v>351</v>
       </c>
       <c r="F59" s="68" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="G59" s="68" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="H59" s="68" t="s">
         <v>204</v>
@@ -14481,11 +14670,11 @@
       <c r="I59" s="68" t="s">
         <v>353</v>
       </c>
-      <c r="J59" s="71" t="s">
-        <v>408</v>
-      </c>
-      <c r="K59" s="76" t="s">
-        <v>445</v>
+      <c r="J59" s="72" t="s">
+        <v>409</v>
+      </c>
+      <c r="K59" s="77" t="s">
+        <v>446</v>
       </c>
       <c r="L59" s="68">
         <v>1.0</v>
@@ -14493,10 +14682,13 @@
       <c r="M59" s="68" t="s">
         <v>354</v>
       </c>
-      <c r="N59" s="73">
+      <c r="N59" s="74">
         <v>30.7005423</v>
       </c>
       <c r="O59" s="68">
+        <v>4000.0</v>
+      </c>
+      <c r="P59" s="68">
         <v>4000.0</v>
       </c>
     </row>
@@ -14511,16 +14703,16 @@
         <v>96.0</v>
       </c>
       <c r="D60" s="68" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="E60" s="68" t="s">
         <v>358</v>
       </c>
       <c r="F60" s="68" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="G60" s="68" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="H60" s="68" t="s">
         <v>362</v>
@@ -14528,11 +14720,11 @@
       <c r="I60" s="68" t="s">
         <v>385</v>
       </c>
-      <c r="J60" s="71" t="s">
-        <v>445</v>
-      </c>
-      <c r="K60" s="76" t="s">
-        <v>445</v>
+      <c r="J60" s="72" t="s">
+        <v>446</v>
+      </c>
+      <c r="K60" s="77" t="s">
+        <v>446</v>
       </c>
       <c r="L60" s="68">
         <v>1.0</v>
@@ -14540,10 +14732,13 @@
       <c r="M60" s="68" t="s">
         <v>372</v>
       </c>
-      <c r="N60" s="73">
+      <c r="N60" s="74">
         <v>8.99927986</v>
       </c>
       <c r="O60" s="68">
+        <v>2000.0</v>
+      </c>
+      <c r="P60" s="68">
         <v>2000.0</v>
       </c>
     </row>
@@ -14564,10 +14759,10 @@
         <v>358</v>
       </c>
       <c r="F61" s="68" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="G61" s="68" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="H61" s="68" t="s">
         <v>204</v>
@@ -14575,11 +14770,11 @@
       <c r="I61" s="68" t="s">
         <v>353</v>
       </c>
-      <c r="J61" s="71" t="s">
-        <v>408</v>
-      </c>
-      <c r="K61" s="76" t="s">
-        <v>445</v>
+      <c r="J61" s="72" t="s">
+        <v>409</v>
+      </c>
+      <c r="K61" s="77" t="s">
+        <v>446</v>
       </c>
       <c r="L61" s="68">
         <v>1.0</v>
@@ -14587,11 +14782,14 @@
       <c r="M61" s="68" t="s">
         <v>354</v>
       </c>
-      <c r="N61" s="73">
+      <c r="N61" s="74">
         <v>12.2839223</v>
       </c>
       <c r="O61" s="68" t="s">
         <v>357</v>
+      </c>
+      <c r="P61" s="68">
+        <v>2250.0</v>
       </c>
     </row>
     <row r="62" ht="16.5" customHeight="1">
@@ -14611,10 +14809,10 @@
         <v>358</v>
       </c>
       <c r="F62" s="68" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="G62" s="68" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="H62" s="68" t="s">
         <v>204</v>
@@ -14622,11 +14820,11 @@
       <c r="I62" s="68" t="s">
         <v>365</v>
       </c>
-      <c r="J62" s="71" t="s">
-        <v>408</v>
-      </c>
-      <c r="K62" s="76" t="s">
-        <v>445</v>
+      <c r="J62" s="72" t="s">
+        <v>409</v>
+      </c>
+      <c r="K62" s="77" t="s">
+        <v>446</v>
       </c>
       <c r="L62" s="68">
         <v>0.0</v>
@@ -14634,11 +14832,14 @@
       <c r="M62" s="68" t="s">
         <v>366</v>
       </c>
-      <c r="N62" s="73">
+      <c r="N62" s="74">
         <v>13.581307</v>
       </c>
       <c r="O62" s="68" t="s">
         <v>367</v>
+      </c>
+      <c r="P62" s="68">
+        <v>2250.0</v>
       </c>
     </row>
     <row r="63">
@@ -14658,10 +14859,10 @@
         <v>358</v>
       </c>
       <c r="F63" s="68" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="G63" s="68" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="H63" s="68" t="s">
         <v>204</v>
@@ -14669,11 +14870,11 @@
       <c r="I63" s="68" t="s">
         <v>365</v>
       </c>
-      <c r="J63" s="71" t="s">
-        <v>408</v>
-      </c>
-      <c r="K63" s="76" t="s">
-        <v>445</v>
+      <c r="J63" s="72" t="s">
+        <v>409</v>
+      </c>
+      <c r="K63" s="77" t="s">
+        <v>446</v>
       </c>
       <c r="L63" s="68">
         <v>1.0</v>
@@ -14681,11 +14882,14 @@
       <c r="M63" s="68" t="s">
         <v>366</v>
       </c>
-      <c r="N63" s="73">
+      <c r="N63" s="74">
         <v>13.581307</v>
       </c>
       <c r="O63" s="68" t="s">
         <v>367</v>
+      </c>
+      <c r="P63" s="68">
+        <v>2500.0</v>
       </c>
     </row>
     <row r="64">
@@ -14705,10 +14909,10 @@
         <v>358</v>
       </c>
       <c r="F64" s="68" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="G64" s="68" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="H64" s="68" t="s">
         <v>204</v>
@@ -14716,11 +14920,11 @@
       <c r="I64" s="68" t="s">
         <v>365</v>
       </c>
-      <c r="J64" s="71" t="s">
-        <v>408</v>
-      </c>
-      <c r="K64" s="76" t="s">
-        <v>445</v>
+      <c r="J64" s="72" t="s">
+        <v>409</v>
+      </c>
+      <c r="K64" s="77" t="s">
+        <v>446</v>
       </c>
       <c r="L64" s="68">
         <v>0.0</v>
@@ -14728,11 +14932,14 @@
       <c r="M64" s="68" t="s">
         <v>366</v>
       </c>
-      <c r="N64" s="73">
+      <c r="N64" s="74">
         <v>13.581307</v>
       </c>
       <c r="O64" s="68" t="s">
         <v>367</v>
+      </c>
+      <c r="P64" s="68">
+        <v>2250.0</v>
       </c>
     </row>
     <row r="65">
@@ -14752,10 +14959,10 @@
         <v>358</v>
       </c>
       <c r="F65" s="68" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="G65" s="68" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="H65" s="68" t="s">
         <v>204</v>
@@ -14763,11 +14970,11 @@
       <c r="I65" s="68" t="s">
         <v>365</v>
       </c>
-      <c r="J65" s="71" t="s">
-        <v>408</v>
-      </c>
-      <c r="K65" s="76" t="s">
-        <v>445</v>
+      <c r="J65" s="72" t="s">
+        <v>409</v>
+      </c>
+      <c r="K65" s="77" t="s">
+        <v>446</v>
       </c>
       <c r="L65" s="68">
         <v>1.0</v>
@@ -14775,11 +14982,14 @@
       <c r="M65" s="68" t="s">
         <v>366</v>
       </c>
-      <c r="N65" s="73">
+      <c r="N65" s="74">
         <v>13.581307</v>
       </c>
       <c r="O65" s="68" t="s">
         <v>367</v>
+      </c>
+      <c r="P65" s="68">
+        <v>2000.0</v>
       </c>
     </row>
     <row r="66">
@@ -14793,16 +15003,16 @@
         <v>111.0</v>
       </c>
       <c r="D66" s="68" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="E66" s="68" t="s">
         <v>358</v>
       </c>
       <c r="F66" s="68" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="G66" s="68" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="H66" s="68" t="s">
         <v>204</v>
@@ -14810,11 +15020,11 @@
       <c r="I66" s="68" t="s">
         <v>371</v>
       </c>
-      <c r="J66" s="71" t="s">
-        <v>408</v>
-      </c>
-      <c r="K66" s="76" t="s">
-        <v>445</v>
+      <c r="J66" s="72" t="s">
+        <v>409</v>
+      </c>
+      <c r="K66" s="77" t="s">
+        <v>446</v>
       </c>
       <c r="L66" s="68">
         <v>1.0</v>
@@ -14822,11 +15032,14 @@
       <c r="M66" s="68" t="s">
         <v>372</v>
       </c>
-      <c r="N66" s="73">
+      <c r="N66" s="74">
         <v>18.4645998</v>
       </c>
       <c r="O66" s="68" t="s">
         <v>373</v>
+      </c>
+      <c r="P66" s="68">
+        <v>2750.0</v>
       </c>
     </row>
     <row r="67">
@@ -14840,16 +15053,16 @@
         <v>111.0</v>
       </c>
       <c r="D67" s="68" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="E67" s="68" t="s">
         <v>358</v>
       </c>
       <c r="F67" s="68" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="G67" s="68" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="H67" s="68" t="s">
         <v>204</v>
@@ -14857,11 +15070,11 @@
       <c r="I67" s="68" t="s">
         <v>371</v>
       </c>
-      <c r="J67" s="71" t="s">
-        <v>408</v>
-      </c>
-      <c r="K67" s="76" t="s">
-        <v>445</v>
+      <c r="J67" s="72" t="s">
+        <v>409</v>
+      </c>
+      <c r="K67" s="77" t="s">
+        <v>446</v>
       </c>
       <c r="L67" s="68">
         <v>0.0</v>
@@ -14869,11 +15082,14 @@
       <c r="M67" s="68" t="s">
         <v>372</v>
       </c>
-      <c r="N67" s="73">
+      <c r="N67" s="74">
         <v>18.4645998</v>
       </c>
       <c r="O67" s="68" t="s">
         <v>373</v>
+      </c>
+      <c r="P67" s="68">
+        <v>2750.0</v>
       </c>
     </row>
     <row r="68">
@@ -14887,16 +15103,16 @@
         <v>111.0</v>
       </c>
       <c r="D68" s="68" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="E68" s="68" t="s">
         <v>358</v>
       </c>
       <c r="F68" s="68" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="G68" s="68" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="H68" s="68" t="s">
         <v>204</v>
@@ -14904,11 +15120,11 @@
       <c r="I68" s="68" t="s">
         <v>371</v>
       </c>
-      <c r="J68" s="71" t="s">
-        <v>408</v>
-      </c>
-      <c r="K68" s="76" t="s">
-        <v>445</v>
+      <c r="J68" s="72" t="s">
+        <v>409</v>
+      </c>
+      <c r="K68" s="77" t="s">
+        <v>446</v>
       </c>
       <c r="L68" s="68">
         <v>0.0</v>
@@ -14916,3661 +15132,3658 @@
       <c r="M68" s="68" t="s">
         <v>372</v>
       </c>
-      <c r="N68" s="73">
+      <c r="N68" s="74">
         <v>18.4645998</v>
       </c>
       <c r="O68" s="68" t="s">
         <v>373</v>
       </c>
+      <c r="P68" s="68">
+        <v>2750.0</v>
+      </c>
     </row>
     <row r="69">
-      <c r="J69" s="82"/>
-      <c r="K69" s="83"/>
+      <c r="J69" s="83"/>
+      <c r="K69" s="84"/>
     </row>
     <row r="70">
-      <c r="J70" s="82"/>
-      <c r="K70" s="83"/>
+      <c r="J70" s="83"/>
+      <c r="K70" s="84"/>
     </row>
     <row r="71">
-      <c r="J71" s="82"/>
-      <c r="K71" s="83"/>
+      <c r="J71" s="83"/>
+      <c r="K71" s="84"/>
     </row>
     <row r="72">
-      <c r="J72" s="82"/>
-      <c r="K72" s="83"/>
+      <c r="J72" s="83"/>
+      <c r="K72" s="84"/>
     </row>
     <row r="73">
-      <c r="J73" s="82"/>
-      <c r="K73" s="83"/>
+      <c r="J73" s="83"/>
+      <c r="K73" s="84"/>
     </row>
     <row r="74">
-      <c r="J74" s="82"/>
-      <c r="K74" s="83"/>
+      <c r="J74" s="83"/>
+      <c r="K74" s="84"/>
     </row>
     <row r="75">
-      <c r="J75" s="82"/>
-      <c r="K75" s="83"/>
+      <c r="J75" s="83"/>
+      <c r="K75" s="84"/>
     </row>
     <row r="76">
-      <c r="J76" s="82"/>
-      <c r="K76" s="83"/>
+      <c r="J76" s="83"/>
+      <c r="K76" s="84"/>
     </row>
     <row r="77">
-      <c r="J77" s="82"/>
-      <c r="K77" s="83"/>
+      <c r="J77" s="83"/>
+      <c r="K77" s="84"/>
     </row>
     <row r="78">
-      <c r="J78" s="82"/>
-      <c r="K78" s="83"/>
+      <c r="J78" s="83"/>
+      <c r="K78" s="84"/>
     </row>
     <row r="79">
-      <c r="J79" s="82"/>
-      <c r="K79" s="83"/>
+      <c r="J79" s="83"/>
+      <c r="K79" s="84"/>
     </row>
     <row r="80">
-      <c r="J80" s="82"/>
-      <c r="K80" s="83"/>
+      <c r="J80" s="83"/>
+      <c r="K80" s="84"/>
     </row>
     <row r="81">
-      <c r="J81" s="82"/>
-      <c r="K81" s="83"/>
+      <c r="J81" s="83"/>
+      <c r="K81" s="84"/>
     </row>
     <row r="82">
-      <c r="J82" s="82"/>
-      <c r="K82" s="83"/>
+      <c r="J82" s="83"/>
+      <c r="K82" s="84"/>
     </row>
     <row r="83">
-      <c r="J83" s="82"/>
-      <c r="K83" s="83"/>
+      <c r="J83" s="83"/>
+      <c r="K83" s="84"/>
     </row>
     <row r="84">
-      <c r="J84" s="82"/>
-      <c r="K84" s="83"/>
+      <c r="J84" s="83"/>
+      <c r="K84" s="84"/>
     </row>
     <row r="85">
-      <c r="J85" s="82"/>
-      <c r="K85" s="83"/>
+      <c r="J85" s="83"/>
+      <c r="K85" s="84"/>
     </row>
     <row r="86">
-      <c r="J86" s="82"/>
-      <c r="K86" s="83"/>
+      <c r="J86" s="83"/>
+      <c r="K86" s="84"/>
     </row>
     <row r="87">
-      <c r="J87" s="82"/>
-      <c r="K87" s="83"/>
+      <c r="J87" s="83"/>
+      <c r="K87" s="84"/>
     </row>
     <row r="88">
-      <c r="J88" s="82"/>
-      <c r="K88" s="83"/>
+      <c r="J88" s="83"/>
+      <c r="K88" s="84"/>
     </row>
     <row r="89">
-      <c r="J89" s="82"/>
-      <c r="K89" s="83"/>
+      <c r="J89" s="83"/>
+      <c r="K89" s="84"/>
     </row>
     <row r="90">
-      <c r="J90" s="82"/>
-      <c r="K90" s="83"/>
+      <c r="J90" s="83"/>
+      <c r="K90" s="84"/>
     </row>
     <row r="91">
-      <c r="J91" s="82"/>
-      <c r="K91" s="83"/>
+      <c r="J91" s="83"/>
+      <c r="K91" s="84"/>
     </row>
     <row r="92">
-      <c r="J92" s="82"/>
-      <c r="K92" s="83"/>
+      <c r="J92" s="83"/>
+      <c r="K92" s="84"/>
     </row>
     <row r="93">
-      <c r="J93" s="82"/>
-      <c r="K93" s="83"/>
+      <c r="J93" s="83"/>
+      <c r="K93" s="84"/>
     </row>
     <row r="94">
-      <c r="J94" s="82"/>
-      <c r="K94" s="83"/>
+      <c r="J94" s="83"/>
+      <c r="K94" s="84"/>
     </row>
     <row r="95">
-      <c r="J95" s="82"/>
-      <c r="K95" s="83"/>
+      <c r="J95" s="83"/>
+      <c r="K95" s="84"/>
     </row>
     <row r="96">
-      <c r="J96" s="82"/>
-      <c r="K96" s="83"/>
+      <c r="J96" s="83"/>
+      <c r="K96" s="84"/>
     </row>
     <row r="97">
-      <c r="J97" s="82"/>
-      <c r="K97" s="83"/>
+      <c r="J97" s="83"/>
+      <c r="K97" s="84"/>
     </row>
     <row r="98">
-      <c r="J98" s="82"/>
-      <c r="K98" s="83"/>
+      <c r="J98" s="83"/>
+      <c r="K98" s="84"/>
     </row>
     <row r="99">
-      <c r="J99" s="82"/>
-      <c r="K99" s="83"/>
+      <c r="J99" s="83"/>
+      <c r="K99" s="84"/>
     </row>
     <row r="100">
-      <c r="J100" s="82"/>
-      <c r="K100" s="83"/>
+      <c r="J100" s="83"/>
+      <c r="K100" s="84"/>
     </row>
     <row r="101">
-      <c r="J101" s="82"/>
-      <c r="K101" s="83"/>
+      <c r="J101" s="83"/>
+      <c r="K101" s="84"/>
     </row>
     <row r="102">
-      <c r="J102" s="82"/>
-      <c r="K102" s="83"/>
+      <c r="J102" s="83"/>
+      <c r="K102" s="84"/>
     </row>
     <row r="103">
-      <c r="J103" s="82"/>
-      <c r="K103" s="83"/>
+      <c r="J103" s="83"/>
+      <c r="K103" s="84"/>
     </row>
     <row r="104">
-      <c r="J104" s="82"/>
-      <c r="K104" s="83"/>
+      <c r="J104" s="83"/>
+      <c r="K104" s="84"/>
     </row>
     <row r="105">
-      <c r="J105" s="82"/>
-      <c r="K105" s="83"/>
+      <c r="J105" s="83"/>
+      <c r="K105" s="84"/>
     </row>
     <row r="106">
-      <c r="J106" s="82"/>
-      <c r="K106" s="83"/>
+      <c r="J106" s="83"/>
+      <c r="K106" s="84"/>
     </row>
     <row r="107">
-      <c r="J107" s="82"/>
-      <c r="K107" s="83"/>
+      <c r="J107" s="83"/>
+      <c r="K107" s="84"/>
     </row>
     <row r="108">
-      <c r="J108" s="82"/>
-      <c r="K108" s="83"/>
+      <c r="J108" s="83"/>
+      <c r="K108" s="84"/>
     </row>
     <row r="109">
-      <c r="J109" s="82"/>
-      <c r="K109" s="83"/>
+      <c r="J109" s="83"/>
+      <c r="K109" s="84"/>
     </row>
     <row r="110">
-      <c r="J110" s="82"/>
-      <c r="K110" s="83"/>
+      <c r="J110" s="83"/>
+      <c r="K110" s="84"/>
     </row>
     <row r="111">
-      <c r="J111" s="82"/>
-      <c r="K111" s="83"/>
+      <c r="J111" s="83"/>
+      <c r="K111" s="84"/>
     </row>
     <row r="112">
-      <c r="J112" s="82"/>
-      <c r="K112" s="83"/>
+      <c r="J112" s="83"/>
+      <c r="K112" s="84"/>
     </row>
     <row r="113">
-      <c r="J113" s="82"/>
-      <c r="K113" s="83"/>
+      <c r="J113" s="83"/>
+      <c r="K113" s="84"/>
     </row>
     <row r="114">
-      <c r="J114" s="82"/>
-      <c r="K114" s="83"/>
+      <c r="J114" s="83"/>
+      <c r="K114" s="84"/>
     </row>
     <row r="115">
-      <c r="J115" s="82"/>
-      <c r="K115" s="83"/>
+      <c r="J115" s="83"/>
+      <c r="K115" s="84"/>
     </row>
     <row r="116">
-      <c r="J116" s="82"/>
-      <c r="K116" s="83"/>
+      <c r="J116" s="83"/>
+      <c r="K116" s="84"/>
     </row>
     <row r="117">
-      <c r="J117" s="82"/>
-      <c r="K117" s="83"/>
+      <c r="J117" s="83"/>
+      <c r="K117" s="84"/>
     </row>
     <row r="118">
-      <c r="J118" s="82"/>
-      <c r="K118" s="83"/>
+      <c r="J118" s="83"/>
+      <c r="K118" s="84"/>
     </row>
     <row r="119">
-      <c r="J119" s="82"/>
-      <c r="K119" s="83"/>
+      <c r="J119" s="83"/>
+      <c r="K119" s="84"/>
     </row>
     <row r="120">
-      <c r="J120" s="82"/>
-      <c r="K120" s="83"/>
+      <c r="J120" s="83"/>
+      <c r="K120" s="84"/>
     </row>
     <row r="121">
-      <c r="J121" s="82"/>
-      <c r="K121" s="83"/>
+      <c r="J121" s="83"/>
+      <c r="K121" s="84"/>
     </row>
     <row r="122">
-      <c r="J122" s="82"/>
-      <c r="K122" s="83"/>
+      <c r="J122" s="83"/>
+      <c r="K122" s="84"/>
     </row>
     <row r="123">
-      <c r="J123" s="82"/>
-      <c r="K123" s="83"/>
+      <c r="J123" s="83"/>
+      <c r="K123" s="84"/>
     </row>
     <row r="124">
-      <c r="J124" s="82"/>
-      <c r="K124" s="83"/>
+      <c r="J124" s="83"/>
+      <c r="K124" s="84"/>
     </row>
     <row r="125">
-      <c r="J125" s="82"/>
-      <c r="K125" s="83"/>
+      <c r="J125" s="83"/>
+      <c r="K125" s="84"/>
     </row>
     <row r="126">
-      <c r="J126" s="82"/>
-      <c r="K126" s="83"/>
+      <c r="J126" s="83"/>
+      <c r="K126" s="84"/>
     </row>
     <row r="127">
-      <c r="J127" s="82"/>
-      <c r="K127" s="83"/>
+      <c r="J127" s="83"/>
+      <c r="K127" s="84"/>
     </row>
     <row r="128">
-      <c r="J128" s="82"/>
-      <c r="K128" s="83"/>
+      <c r="J128" s="83"/>
+      <c r="K128" s="84"/>
     </row>
     <row r="129">
-      <c r="J129" s="82"/>
-      <c r="K129" s="83"/>
+      <c r="J129" s="83"/>
+      <c r="K129" s="84"/>
     </row>
     <row r="130">
-      <c r="J130" s="82"/>
-      <c r="K130" s="83"/>
+      <c r="J130" s="83"/>
+      <c r="K130" s="84"/>
     </row>
     <row r="131">
-      <c r="J131" s="82"/>
-      <c r="K131" s="83"/>
+      <c r="J131" s="83"/>
+      <c r="K131" s="84"/>
     </row>
     <row r="132">
-      <c r="J132" s="82"/>
-      <c r="K132" s="83"/>
+      <c r="J132" s="83"/>
+      <c r="K132" s="84"/>
     </row>
     <row r="133">
-      <c r="J133" s="82"/>
-      <c r="K133" s="83"/>
+      <c r="J133" s="83"/>
+      <c r="K133" s="84"/>
     </row>
     <row r="134">
-      <c r="J134" s="82"/>
-      <c r="K134" s="83"/>
+      <c r="J134" s="83"/>
+      <c r="K134" s="84"/>
     </row>
     <row r="135">
-      <c r="J135" s="82"/>
-      <c r="K135" s="83"/>
+      <c r="J135" s="83"/>
+      <c r="K135" s="84"/>
     </row>
     <row r="136">
-      <c r="J136" s="82"/>
-      <c r="K136" s="83"/>
+      <c r="J136" s="83"/>
+      <c r="K136" s="84"/>
     </row>
     <row r="137">
-      <c r="J137" s="82"/>
-      <c r="K137" s="83"/>
+      <c r="J137" s="83"/>
+      <c r="K137" s="84"/>
     </row>
     <row r="138">
-      <c r="J138" s="82"/>
-      <c r="K138" s="83"/>
+      <c r="J138" s="83"/>
+      <c r="K138" s="84"/>
     </row>
     <row r="139">
-      <c r="J139" s="82"/>
-      <c r="K139" s="83"/>
+      <c r="J139" s="83"/>
+      <c r="K139" s="84"/>
     </row>
     <row r="140">
-      <c r="J140" s="82"/>
-      <c r="K140" s="83"/>
+      <c r="J140" s="83"/>
+      <c r="K140" s="84"/>
     </row>
     <row r="141">
-      <c r="J141" s="82"/>
-      <c r="K141" s="83"/>
+      <c r="J141" s="83"/>
+      <c r="K141" s="84"/>
     </row>
     <row r="142">
-      <c r="J142" s="82"/>
-      <c r="K142" s="83"/>
+      <c r="J142" s="83"/>
+      <c r="K142" s="84"/>
     </row>
     <row r="143">
-      <c r="J143" s="82"/>
-      <c r="K143" s="83"/>
+      <c r="J143" s="83"/>
+      <c r="K143" s="84"/>
     </row>
     <row r="144">
-      <c r="J144" s="82"/>
-      <c r="K144" s="83"/>
+      <c r="J144" s="83"/>
+      <c r="K144" s="84"/>
     </row>
     <row r="145">
-      <c r="J145" s="82"/>
-      <c r="K145" s="83"/>
+      <c r="J145" s="83"/>
+      <c r="K145" s="84"/>
     </row>
     <row r="146">
-      <c r="J146" s="82"/>
-      <c r="K146" s="83"/>
+      <c r="J146" s="83"/>
+      <c r="K146" s="84"/>
     </row>
     <row r="147">
-      <c r="J147" s="82"/>
-      <c r="K147" s="83"/>
+      <c r="J147" s="83"/>
+      <c r="K147" s="84"/>
     </row>
     <row r="148">
-      <c r="J148" s="82"/>
-      <c r="K148" s="83"/>
+      <c r="J148" s="83"/>
+      <c r="K148" s="84"/>
     </row>
     <row r="149">
-      <c r="J149" s="82"/>
-      <c r="K149" s="83"/>
+      <c r="J149" s="83"/>
+      <c r="K149" s="84"/>
     </row>
     <row r="150">
-      <c r="J150" s="82"/>
-      <c r="K150" s="83"/>
+      <c r="J150" s="83"/>
+      <c r="K150" s="84"/>
     </row>
     <row r="151">
-      <c r="J151" s="82"/>
-      <c r="K151" s="83"/>
+      <c r="J151" s="83"/>
+      <c r="K151" s="84"/>
     </row>
     <row r="152">
-      <c r="J152" s="82"/>
-      <c r="K152" s="83"/>
+      <c r="J152" s="83"/>
+      <c r="K152" s="84"/>
     </row>
     <row r="153">
-      <c r="J153" s="82"/>
-      <c r="K153" s="83"/>
+      <c r="J153" s="83"/>
+      <c r="K153" s="84"/>
     </row>
     <row r="154">
-      <c r="J154" s="82"/>
-      <c r="K154" s="83"/>
+      <c r="J154" s="83"/>
+      <c r="K154" s="84"/>
     </row>
     <row r="155">
-      <c r="J155" s="82"/>
-      <c r="K155" s="83"/>
+      <c r="J155" s="83"/>
+      <c r="K155" s="84"/>
     </row>
     <row r="156">
-      <c r="J156" s="82"/>
-      <c r="K156" s="83"/>
+      <c r="J156" s="83"/>
+      <c r="K156" s="84"/>
     </row>
     <row r="157">
-      <c r="J157" s="82"/>
-      <c r="K157" s="83"/>
+      <c r="J157" s="83"/>
+      <c r="K157" s="84"/>
     </row>
     <row r="158">
-      <c r="J158" s="82"/>
-      <c r="K158" s="83"/>
+      <c r="J158" s="83"/>
+      <c r="K158" s="84"/>
     </row>
     <row r="159">
-      <c r="J159" s="82"/>
-      <c r="K159" s="83"/>
+      <c r="J159" s="83"/>
+      <c r="K159" s="84"/>
     </row>
     <row r="160">
-      <c r="J160" s="82"/>
-      <c r="K160" s="83"/>
+      <c r="J160" s="83"/>
+      <c r="K160" s="84"/>
     </row>
     <row r="161">
-      <c r="J161" s="82"/>
-      <c r="K161" s="83"/>
+      <c r="J161" s="83"/>
+      <c r="K161" s="84"/>
     </row>
     <row r="162">
-      <c r="J162" s="82"/>
-      <c r="K162" s="83"/>
+      <c r="J162" s="83"/>
+      <c r="K162" s="84"/>
     </row>
     <row r="163">
-      <c r="J163" s="82"/>
-      <c r="K163" s="83"/>
+      <c r="J163" s="83"/>
+      <c r="K163" s="84"/>
     </row>
     <row r="164">
-      <c r="J164" s="82"/>
-      <c r="K164" s="83"/>
+      <c r="J164" s="83"/>
+      <c r="K164" s="84"/>
     </row>
     <row r="165">
-      <c r="J165" s="82"/>
-      <c r="K165" s="83"/>
+      <c r="J165" s="83"/>
+      <c r="K165" s="84"/>
     </row>
     <row r="166">
-      <c r="J166" s="82"/>
-      <c r="K166" s="83"/>
+      <c r="J166" s="83"/>
+      <c r="K166" s="84"/>
     </row>
     <row r="167">
-      <c r="J167" s="82"/>
-      <c r="K167" s="83"/>
+      <c r="J167" s="83"/>
+      <c r="K167" s="84"/>
     </row>
     <row r="168">
-      <c r="J168" s="82"/>
-      <c r="K168" s="83"/>
+      <c r="J168" s="83"/>
+      <c r="K168" s="84"/>
     </row>
     <row r="169">
-      <c r="J169" s="82"/>
-      <c r="K169" s="83"/>
+      <c r="J169" s="83"/>
+      <c r="K169" s="84"/>
     </row>
     <row r="170">
-      <c r="J170" s="82"/>
-      <c r="K170" s="83"/>
+      <c r="J170" s="83"/>
+      <c r="K170" s="84"/>
     </row>
     <row r="171">
-      <c r="J171" s="82"/>
-      <c r="K171" s="83"/>
+      <c r="J171" s="83"/>
+      <c r="K171" s="84"/>
     </row>
     <row r="172">
-      <c r="J172" s="82"/>
-      <c r="K172" s="83"/>
+      <c r="J172" s="83"/>
+      <c r="K172" s="84"/>
     </row>
     <row r="173">
-      <c r="J173" s="82"/>
-      <c r="K173" s="83"/>
+      <c r="J173" s="83"/>
+      <c r="K173" s="84"/>
     </row>
     <row r="174">
-      <c r="J174" s="82"/>
-      <c r="K174" s="83"/>
+      <c r="J174" s="83"/>
+      <c r="K174" s="84"/>
     </row>
     <row r="175">
-      <c r="J175" s="82"/>
-      <c r="K175" s="83"/>
+      <c r="J175" s="83"/>
+      <c r="K175" s="84"/>
     </row>
     <row r="176">
-      <c r="J176" s="82"/>
-      <c r="K176" s="83"/>
+      <c r="J176" s="83"/>
+      <c r="K176" s="84"/>
     </row>
     <row r="177">
-      <c r="J177" s="82"/>
-      <c r="K177" s="83"/>
+      <c r="J177" s="83"/>
+      <c r="K177" s="84"/>
     </row>
     <row r="178">
-      <c r="J178" s="82"/>
-      <c r="K178" s="83"/>
+      <c r="J178" s="83"/>
+      <c r="K178" s="84"/>
     </row>
     <row r="179">
-      <c r="J179" s="82"/>
-      <c r="K179" s="83"/>
+      <c r="J179" s="83"/>
+      <c r="K179" s="84"/>
     </row>
     <row r="180">
-      <c r="J180" s="82"/>
-      <c r="K180" s="83"/>
+      <c r="J180" s="83"/>
+      <c r="K180" s="84"/>
     </row>
     <row r="181">
-      <c r="J181" s="82"/>
-      <c r="K181" s="83"/>
+      <c r="J181" s="83"/>
+      <c r="K181" s="84"/>
     </row>
     <row r="182">
-      <c r="J182" s="82"/>
-      <c r="K182" s="83"/>
+      <c r="J182" s="83"/>
+      <c r="K182" s="84"/>
     </row>
     <row r="183">
-      <c r="J183" s="82"/>
-      <c r="K183" s="83"/>
+      <c r="J183" s="83"/>
+      <c r="K183" s="84"/>
     </row>
     <row r="184">
-      <c r="J184" s="82"/>
-      <c r="K184" s="83"/>
+      <c r="J184" s="83"/>
+      <c r="K184" s="84"/>
     </row>
     <row r="185">
-      <c r="J185" s="82"/>
-      <c r="K185" s="83"/>
+      <c r="J185" s="83"/>
+      <c r="K185" s="84"/>
     </row>
     <row r="186">
-      <c r="J186" s="82"/>
-      <c r="K186" s="83"/>
+      <c r="J186" s="83"/>
+      <c r="K186" s="84"/>
     </row>
     <row r="187">
-      <c r="J187" s="82"/>
-      <c r="K187" s="83"/>
+      <c r="J187" s="83"/>
+      <c r="K187" s="84"/>
     </row>
     <row r="188">
-      <c r="J188" s="82"/>
-      <c r="K188" s="83"/>
+      <c r="J188" s="83"/>
+      <c r="K188" s="84"/>
     </row>
     <row r="189">
-      <c r="J189" s="82"/>
-      <c r="K189" s="83"/>
+      <c r="J189" s="83"/>
+      <c r="K189" s="84"/>
     </row>
     <row r="190">
-      <c r="J190" s="82"/>
-      <c r="K190" s="83"/>
+      <c r="J190" s="83"/>
+      <c r="K190" s="84"/>
     </row>
     <row r="191">
-      <c r="J191" s="82"/>
-      <c r="K191" s="83"/>
+      <c r="J191" s="83"/>
+      <c r="K191" s="84"/>
     </row>
     <row r="192">
-      <c r="J192" s="82"/>
-      <c r="K192" s="83"/>
+      <c r="J192" s="83"/>
+      <c r="K192" s="84"/>
     </row>
     <row r="193">
-      <c r="J193" s="82"/>
-      <c r="K193" s="83"/>
+      <c r="J193" s="83"/>
+      <c r="K193" s="84"/>
     </row>
     <row r="194">
-      <c r="J194" s="82"/>
-      <c r="K194" s="83"/>
+      <c r="J194" s="83"/>
+      <c r="K194" s="84"/>
     </row>
     <row r="195">
-      <c r="J195" s="82"/>
-      <c r="K195" s="83"/>
+      <c r="J195" s="83"/>
+      <c r="K195" s="84"/>
     </row>
     <row r="196">
-      <c r="J196" s="82"/>
-      <c r="K196" s="83"/>
+      <c r="J196" s="83"/>
+      <c r="K196" s="84"/>
     </row>
     <row r="197">
-      <c r="J197" s="82"/>
-      <c r="K197" s="83"/>
+      <c r="J197" s="83"/>
+      <c r="K197" s="84"/>
     </row>
     <row r="198">
-      <c r="J198" s="82"/>
-      <c r="K198" s="83"/>
+      <c r="J198" s="83"/>
+      <c r="K198" s="84"/>
     </row>
     <row r="199">
-      <c r="J199" s="82"/>
-      <c r="K199" s="83"/>
+      <c r="J199" s="83"/>
+      <c r="K199" s="84"/>
     </row>
     <row r="200">
-      <c r="J200" s="82"/>
-      <c r="K200" s="83"/>
+      <c r="J200" s="83"/>
+      <c r="K200" s="84"/>
     </row>
     <row r="201">
-      <c r="J201" s="82"/>
-      <c r="K201" s="83"/>
+      <c r="J201" s="83"/>
+      <c r="K201" s="84"/>
     </row>
     <row r="202">
-      <c r="J202" s="82"/>
-      <c r="K202" s="83"/>
+      <c r="J202" s="83"/>
+      <c r="K202" s="84"/>
     </row>
     <row r="203">
-      <c r="J203" s="82"/>
-      <c r="K203" s="83"/>
+      <c r="J203" s="83"/>
+      <c r="K203" s="84"/>
     </row>
     <row r="204">
-      <c r="J204" s="82"/>
-      <c r="K204" s="83"/>
+      <c r="J204" s="83"/>
+      <c r="K204" s="84"/>
     </row>
     <row r="205">
-      <c r="J205" s="82"/>
-      <c r="K205" s="83"/>
+      <c r="J205" s="83"/>
+      <c r="K205" s="84"/>
     </row>
     <row r="206">
-      <c r="J206" s="82"/>
-      <c r="K206" s="83"/>
+      <c r="J206" s="83"/>
+      <c r="K206" s="84"/>
     </row>
     <row r="207">
-      <c r="J207" s="82"/>
-      <c r="K207" s="83"/>
+      <c r="J207" s="83"/>
+      <c r="K207" s="84"/>
     </row>
     <row r="208">
-      <c r="J208" s="82"/>
-      <c r="K208" s="83"/>
+      <c r="J208" s="83"/>
+      <c r="K208" s="84"/>
     </row>
     <row r="209">
-      <c r="J209" s="82"/>
-      <c r="K209" s="83"/>
+      <c r="J209" s="83"/>
+      <c r="K209" s="84"/>
     </row>
     <row r="210">
-      <c r="J210" s="82"/>
-      <c r="K210" s="83"/>
+      <c r="J210" s="83"/>
+      <c r="K210" s="84"/>
     </row>
     <row r="211">
-      <c r="J211" s="82"/>
-      <c r="K211" s="83"/>
+      <c r="J211" s="83"/>
+      <c r="K211" s="84"/>
     </row>
     <row r="212">
-      <c r="J212" s="82"/>
-      <c r="K212" s="83"/>
+      <c r="J212" s="83"/>
+      <c r="K212" s="84"/>
     </row>
     <row r="213">
-      <c r="J213" s="82"/>
-      <c r="K213" s="83"/>
+      <c r="J213" s="83"/>
+      <c r="K213" s="84"/>
     </row>
     <row r="214">
-      <c r="J214" s="82"/>
-      <c r="K214" s="83"/>
+      <c r="J214" s="83"/>
+      <c r="K214" s="84"/>
     </row>
     <row r="215">
-      <c r="J215" s="82"/>
-      <c r="K215" s="83"/>
+      <c r="J215" s="83"/>
+      <c r="K215" s="84"/>
     </row>
     <row r="216">
-      <c r="J216" s="82"/>
-      <c r="K216" s="83"/>
+      <c r="J216" s="83"/>
+      <c r="K216" s="84"/>
     </row>
     <row r="217">
-      <c r="J217" s="82"/>
-      <c r="K217" s="83"/>
+      <c r="J217" s="83"/>
+      <c r="K217" s="84"/>
     </row>
     <row r="218">
-      <c r="J218" s="82"/>
-      <c r="K218" s="83"/>
+      <c r="J218" s="83"/>
+      <c r="K218" s="84"/>
     </row>
     <row r="219">
-      <c r="J219" s="82"/>
-      <c r="K219" s="83"/>
+      <c r="J219" s="83"/>
+      <c r="K219" s="84"/>
     </row>
     <row r="220">
-      <c r="J220" s="82"/>
-      <c r="K220" s="83"/>
+      <c r="J220" s="83"/>
+      <c r="K220" s="84"/>
     </row>
     <row r="221">
-      <c r="J221" s="82"/>
-      <c r="K221" s="83"/>
+      <c r="J221" s="83"/>
+      <c r="K221" s="84"/>
     </row>
     <row r="222">
-      <c r="J222" s="82"/>
-      <c r="K222" s="83"/>
+      <c r="J222" s="83"/>
+      <c r="K222" s="84"/>
     </row>
     <row r="223">
-      <c r="J223" s="82"/>
-      <c r="K223" s="83"/>
+      <c r="J223" s="83"/>
+      <c r="K223" s="84"/>
     </row>
     <row r="224">
-      <c r="J224" s="82"/>
-      <c r="K224" s="83"/>
+      <c r="J224" s="83"/>
+      <c r="K224" s="84"/>
     </row>
     <row r="225">
-      <c r="J225" s="82"/>
-      <c r="K225" s="83"/>
+      <c r="J225" s="83"/>
+      <c r="K225" s="84"/>
     </row>
     <row r="226">
-      <c r="J226" s="82"/>
-      <c r="K226" s="83"/>
+      <c r="J226" s="83"/>
+      <c r="K226" s="84"/>
     </row>
     <row r="227">
-      <c r="J227" s="82"/>
-      <c r="K227" s="83"/>
+      <c r="J227" s="83"/>
+      <c r="K227" s="84"/>
     </row>
     <row r="228">
-      <c r="J228" s="82"/>
-      <c r="K228" s="83"/>
+      <c r="J228" s="83"/>
+      <c r="K228" s="84"/>
     </row>
     <row r="229">
-      <c r="J229" s="82"/>
-      <c r="K229" s="83"/>
+      <c r="J229" s="83"/>
+      <c r="K229" s="84"/>
     </row>
     <row r="230">
-      <c r="J230" s="82"/>
-      <c r="K230" s="83"/>
+      <c r="J230" s="83"/>
+      <c r="K230" s="84"/>
     </row>
     <row r="231">
-      <c r="J231" s="82"/>
-      <c r="K231" s="83"/>
+      <c r="J231" s="83"/>
+      <c r="K231" s="84"/>
     </row>
     <row r="232">
-      <c r="J232" s="82"/>
-      <c r="K232" s="83"/>
+      <c r="J232" s="83"/>
+      <c r="K232" s="84"/>
     </row>
     <row r="233">
-      <c r="J233" s="82"/>
-      <c r="K233" s="83"/>
+      <c r="J233" s="83"/>
+      <c r="K233" s="84"/>
     </row>
     <row r="234">
-      <c r="J234" s="82"/>
-      <c r="K234" s="83"/>
+      <c r="J234" s="83"/>
+      <c r="K234" s="84"/>
     </row>
     <row r="235">
-      <c r="J235" s="82"/>
-      <c r="K235" s="83"/>
+      <c r="J235" s="83"/>
+      <c r="K235" s="84"/>
     </row>
     <row r="236">
-      <c r="J236" s="82"/>
-      <c r="K236" s="83"/>
+      <c r="J236" s="83"/>
+      <c r="K236" s="84"/>
     </row>
     <row r="237">
-      <c r="J237" s="82"/>
-      <c r="K237" s="83"/>
+      <c r="J237" s="83"/>
+      <c r="K237" s="84"/>
     </row>
     <row r="238">
-      <c r="J238" s="82"/>
-      <c r="K238" s="83"/>
+      <c r="J238" s="83"/>
+      <c r="K238" s="84"/>
     </row>
     <row r="239">
-      <c r="J239" s="82"/>
-      <c r="K239" s="83"/>
+      <c r="J239" s="83"/>
+      <c r="K239" s="84"/>
     </row>
     <row r="240">
-      <c r="J240" s="82"/>
-      <c r="K240" s="83"/>
+      <c r="J240" s="83"/>
+      <c r="K240" s="84"/>
     </row>
     <row r="241">
-      <c r="J241" s="82"/>
-      <c r="K241" s="83"/>
+      <c r="J241" s="83"/>
+      <c r="K241" s="84"/>
     </row>
     <row r="242">
-      <c r="J242" s="82"/>
-      <c r="K242" s="83"/>
+      <c r="J242" s="83"/>
+      <c r="K242" s="84"/>
     </row>
     <row r="243">
-      <c r="J243" s="82"/>
-      <c r="K243" s="83"/>
+      <c r="J243" s="83"/>
+      <c r="K243" s="84"/>
     </row>
     <row r="244">
-      <c r="J244" s="82"/>
-      <c r="K244" s="83"/>
+      <c r="J244" s="83"/>
+      <c r="K244" s="84"/>
     </row>
     <row r="245">
-      <c r="J245" s="82"/>
-      <c r="K245" s="83"/>
+      <c r="J245" s="83"/>
+      <c r="K245" s="84"/>
     </row>
     <row r="246">
-      <c r="J246" s="82"/>
-      <c r="K246" s="83"/>
+      <c r="J246" s="83"/>
+      <c r="K246" s="84"/>
     </row>
     <row r="247">
-      <c r="J247" s="82"/>
-      <c r="K247" s="83"/>
+      <c r="J247" s="83"/>
+      <c r="K247" s="84"/>
     </row>
     <row r="248">
-      <c r="J248" s="82"/>
-      <c r="K248" s="83"/>
+      <c r="J248" s="83"/>
+      <c r="K248" s="84"/>
     </row>
     <row r="249">
-      <c r="J249" s="82"/>
-      <c r="K249" s="83"/>
+      <c r="J249" s="83"/>
+      <c r="K249" s="84"/>
     </row>
     <row r="250">
-      <c r="J250" s="82"/>
-      <c r="K250" s="83"/>
+      <c r="J250" s="83"/>
+      <c r="K250" s="84"/>
     </row>
     <row r="251">
-      <c r="J251" s="82"/>
-      <c r="K251" s="83"/>
+      <c r="J251" s="83"/>
+      <c r="K251" s="84"/>
     </row>
     <row r="252">
-      <c r="J252" s="82"/>
-      <c r="K252" s="83"/>
+      <c r="J252" s="83"/>
+      <c r="K252" s="84"/>
     </row>
     <row r="253">
-      <c r="J253" s="82"/>
-      <c r="K253" s="83"/>
+      <c r="J253" s="83"/>
+      <c r="K253" s="84"/>
     </row>
     <row r="254">
-      <c r="J254" s="82"/>
-      <c r="K254" s="83"/>
+      <c r="J254" s="83"/>
+      <c r="K254" s="84"/>
     </row>
     <row r="255">
-      <c r="J255" s="82"/>
-      <c r="K255" s="83"/>
+      <c r="J255" s="83"/>
+      <c r="K255" s="84"/>
     </row>
     <row r="256">
-      <c r="J256" s="82"/>
-      <c r="K256" s="83"/>
+      <c r="J256" s="83"/>
+      <c r="K256" s="84"/>
     </row>
     <row r="257">
-      <c r="J257" s="82"/>
-      <c r="K257" s="83"/>
+      <c r="J257" s="83"/>
+      <c r="K257" s="84"/>
     </row>
     <row r="258">
-      <c r="J258" s="82"/>
-      <c r="K258" s="83"/>
+      <c r="J258" s="83"/>
+      <c r="K258" s="84"/>
     </row>
     <row r="259">
-      <c r="J259" s="82"/>
-      <c r="K259" s="83"/>
+      <c r="J259" s="83"/>
+      <c r="K259" s="84"/>
     </row>
     <row r="260">
-      <c r="J260" s="82"/>
-      <c r="K260" s="83"/>
+      <c r="J260" s="83"/>
+      <c r="K260" s="84"/>
     </row>
     <row r="261">
-      <c r="J261" s="82"/>
-      <c r="K261" s="83"/>
+      <c r="J261" s="83"/>
+      <c r="K261" s="84"/>
     </row>
     <row r="262">
-      <c r="J262" s="82"/>
-      <c r="K262" s="83"/>
+      <c r="J262" s="83"/>
+      <c r="K262" s="84"/>
     </row>
     <row r="263">
-      <c r="J263" s="82"/>
-      <c r="K263" s="83"/>
+      <c r="J263" s="83"/>
+      <c r="K263" s="84"/>
     </row>
     <row r="264">
-      <c r="J264" s="82"/>
-      <c r="K264" s="83"/>
+      <c r="J264" s="83"/>
+      <c r="K264" s="84"/>
     </row>
     <row r="265">
-      <c r="J265" s="82"/>
-      <c r="K265" s="83"/>
+      <c r="J265" s="83"/>
+      <c r="K265" s="84"/>
     </row>
     <row r="266">
-      <c r="J266" s="82"/>
-      <c r="K266" s="83"/>
+      <c r="J266" s="83"/>
+      <c r="K266" s="84"/>
     </row>
     <row r="267">
-      <c r="J267" s="82"/>
-      <c r="K267" s="83"/>
+      <c r="J267" s="83"/>
+      <c r="K267" s="84"/>
     </row>
     <row r="268">
-      <c r="J268" s="82"/>
-      <c r="K268" s="83"/>
+      <c r="J268" s="83"/>
+      <c r="K268" s="84"/>
     </row>
     <row r="269">
-      <c r="J269" s="82"/>
-      <c r="K269" s="83"/>
+      <c r="J269" s="83"/>
+      <c r="K269" s="84"/>
     </row>
     <row r="270">
-      <c r="J270" s="82"/>
-      <c r="K270" s="83"/>
+      <c r="J270" s="83"/>
+      <c r="K270" s="84"/>
     </row>
     <row r="271">
-      <c r="J271" s="82"/>
-      <c r="K271" s="83"/>
+      <c r="J271" s="83"/>
+      <c r="K271" s="84"/>
     </row>
     <row r="272">
-      <c r="J272" s="82"/>
-      <c r="K272" s="83"/>
+      <c r="J272" s="83"/>
+      <c r="K272" s="84"/>
     </row>
     <row r="273">
-      <c r="J273" s="82"/>
-      <c r="K273" s="83"/>
+      <c r="J273" s="83"/>
+      <c r="K273" s="84"/>
     </row>
     <row r="274">
-      <c r="J274" s="82"/>
-      <c r="K274" s="83"/>
+      <c r="J274" s="83"/>
+      <c r="K274" s="84"/>
     </row>
     <row r="275">
-      <c r="J275" s="82"/>
-      <c r="K275" s="83"/>
+      <c r="J275" s="83"/>
+      <c r="K275" s="84"/>
     </row>
     <row r="276">
-      <c r="J276" s="82"/>
-      <c r="K276" s="83"/>
+      <c r="J276" s="83"/>
+      <c r="K276" s="84"/>
     </row>
     <row r="277">
-      <c r="J277" s="82"/>
-      <c r="K277" s="83"/>
+      <c r="J277" s="83"/>
+      <c r="K277" s="84"/>
     </row>
     <row r="278">
-      <c r="J278" s="82"/>
-      <c r="K278" s="83"/>
+      <c r="J278" s="83"/>
+      <c r="K278" s="84"/>
     </row>
     <row r="279">
-      <c r="J279" s="82"/>
-      <c r="K279" s="83"/>
+      <c r="J279" s="83"/>
+      <c r="K279" s="84"/>
     </row>
     <row r="280">
-      <c r="J280" s="82"/>
-      <c r="K280" s="83"/>
+      <c r="J280" s="83"/>
+      <c r="K280" s="84"/>
     </row>
     <row r="281">
-      <c r="J281" s="82"/>
-      <c r="K281" s="83"/>
+      <c r="J281" s="83"/>
+      <c r="K281" s="84"/>
     </row>
     <row r="282">
-      <c r="J282" s="82"/>
-      <c r="K282" s="83"/>
+      <c r="J282" s="83"/>
+      <c r="K282" s="84"/>
     </row>
     <row r="283">
-      <c r="J283" s="82"/>
-      <c r="K283" s="83"/>
+      <c r="J283" s="83"/>
+      <c r="K283" s="84"/>
     </row>
     <row r="284">
-      <c r="J284" s="82"/>
-      <c r="K284" s="83"/>
+      <c r="J284" s="83"/>
+      <c r="K284" s="84"/>
     </row>
     <row r="285">
-      <c r="J285" s="82"/>
-      <c r="K285" s="83"/>
+      <c r="J285" s="83"/>
+      <c r="K285" s="84"/>
     </row>
     <row r="286">
-      <c r="J286" s="82"/>
-      <c r="K286" s="83"/>
+      <c r="J286" s="83"/>
+      <c r="K286" s="84"/>
     </row>
     <row r="287">
-      <c r="J287" s="82"/>
-      <c r="K287" s="83"/>
+      <c r="J287" s="83"/>
+      <c r="K287" s="84"/>
     </row>
     <row r="288">
-      <c r="J288" s="82"/>
-      <c r="K288" s="83"/>
+      <c r="J288" s="83"/>
+      <c r="K288" s="84"/>
     </row>
     <row r="289">
-      <c r="J289" s="82"/>
-      <c r="K289" s="83"/>
+      <c r="J289" s="83"/>
+      <c r="K289" s="84"/>
     </row>
     <row r="290">
-      <c r="J290" s="82"/>
-      <c r="K290" s="83"/>
+      <c r="J290" s="83"/>
+      <c r="K290" s="84"/>
     </row>
     <row r="291">
-      <c r="J291" s="82"/>
-      <c r="K291" s="83"/>
+      <c r="J291" s="83"/>
+      <c r="K291" s="84"/>
     </row>
     <row r="292">
-      <c r="J292" s="82"/>
-      <c r="K292" s="83"/>
+      <c r="J292" s="83"/>
+      <c r="K292" s="84"/>
     </row>
     <row r="293">
-      <c r="J293" s="82"/>
-      <c r="K293" s="83"/>
+      <c r="J293" s="83"/>
+      <c r="K293" s="84"/>
     </row>
     <row r="294">
-      <c r="J294" s="82"/>
-      <c r="K294" s="83"/>
+      <c r="J294" s="83"/>
+      <c r="K294" s="84"/>
     </row>
     <row r="295">
-      <c r="J295" s="82"/>
-      <c r="K295" s="83"/>
+      <c r="J295" s="83"/>
+      <c r="K295" s="84"/>
     </row>
     <row r="296">
-      <c r="J296" s="82"/>
-      <c r="K296" s="83"/>
+      <c r="J296" s="83"/>
+      <c r="K296" s="84"/>
     </row>
     <row r="297">
-      <c r="J297" s="82"/>
-      <c r="K297" s="83"/>
+      <c r="J297" s="83"/>
+      <c r="K297" s="84"/>
     </row>
     <row r="298">
-      <c r="J298" s="82"/>
-      <c r="K298" s="83"/>
+      <c r="J298" s="83"/>
+      <c r="K298" s="84"/>
     </row>
     <row r="299">
-      <c r="J299" s="82"/>
-      <c r="K299" s="83"/>
+      <c r="J299" s="83"/>
+      <c r="K299" s="84"/>
     </row>
     <row r="300">
-      <c r="J300" s="82"/>
-      <c r="K300" s="83"/>
+      <c r="J300" s="83"/>
+      <c r="K300" s="84"/>
     </row>
     <row r="301">
-      <c r="J301" s="82"/>
-      <c r="K301" s="83"/>
+      <c r="J301" s="83"/>
+      <c r="K301" s="84"/>
     </row>
     <row r="302">
-      <c r="J302" s="82"/>
-      <c r="K302" s="83"/>
+      <c r="J302" s="83"/>
+      <c r="K302" s="84"/>
     </row>
     <row r="303">
-      <c r="J303" s="82"/>
-      <c r="K303" s="83"/>
+      <c r="J303" s="83"/>
+      <c r="K303" s="84"/>
     </row>
     <row r="304">
-      <c r="J304" s="82"/>
-      <c r="K304" s="83"/>
+      <c r="J304" s="83"/>
+      <c r="K304" s="84"/>
     </row>
     <row r="305">
-      <c r="J305" s="82"/>
-      <c r="K305" s="83"/>
+      <c r="J305" s="83"/>
+      <c r="K305" s="84"/>
     </row>
     <row r="306">
-      <c r="J306" s="82"/>
-      <c r="K306" s="83"/>
+      <c r="J306" s="83"/>
+      <c r="K306" s="84"/>
     </row>
     <row r="307">
-      <c r="J307" s="82"/>
-      <c r="K307" s="83"/>
+      <c r="J307" s="83"/>
+      <c r="K307" s="84"/>
     </row>
     <row r="308">
-      <c r="J308" s="82"/>
-      <c r="K308" s="83"/>
+      <c r="J308" s="83"/>
+      <c r="K308" s="84"/>
     </row>
     <row r="309">
-      <c r="J309" s="82"/>
-      <c r="K309" s="83"/>
+      <c r="J309" s="83"/>
+      <c r="K309" s="84"/>
     </row>
     <row r="310">
-      <c r="J310" s="82"/>
-      <c r="K310" s="83"/>
+      <c r="J310" s="83"/>
+      <c r="K310" s="84"/>
     </row>
     <row r="311">
-      <c r="J311" s="82"/>
-      <c r="K311" s="83"/>
+      <c r="J311" s="83"/>
+      <c r="K311" s="84"/>
     </row>
     <row r="312">
-      <c r="J312" s="82"/>
-      <c r="K312" s="83"/>
+      <c r="J312" s="83"/>
+      <c r="K312" s="84"/>
     </row>
     <row r="313">
-      <c r="J313" s="82"/>
-      <c r="K313" s="83"/>
+      <c r="J313" s="83"/>
+      <c r="K313" s="84"/>
     </row>
     <row r="314">
-      <c r="J314" s="82"/>
-      <c r="K314" s="83"/>
+      <c r="J314" s="83"/>
+      <c r="K314" s="84"/>
     </row>
     <row r="315">
-      <c r="J315" s="82"/>
-      <c r="K315" s="83"/>
+      <c r="J315" s="83"/>
+      <c r="K315" s="84"/>
     </row>
     <row r="316">
-      <c r="J316" s="82"/>
-      <c r="K316" s="83"/>
+      <c r="J316" s="83"/>
+      <c r="K316" s="84"/>
     </row>
     <row r="317">
-      <c r="J317" s="82"/>
-      <c r="K317" s="83"/>
+      <c r="J317" s="83"/>
+      <c r="K317" s="84"/>
     </row>
     <row r="318">
-      <c r="J318" s="82"/>
-      <c r="K318" s="83"/>
+      <c r="J318" s="83"/>
+      <c r="K318" s="84"/>
     </row>
     <row r="319">
-      <c r="J319" s="82"/>
-      <c r="K319" s="83"/>
+      <c r="J319" s="83"/>
+      <c r="K319" s="84"/>
     </row>
     <row r="320">
-      <c r="J320" s="82"/>
-      <c r="K320" s="83"/>
+      <c r="J320" s="83"/>
+      <c r="K320" s="84"/>
     </row>
     <row r="321">
-      <c r="J321" s="82"/>
-      <c r="K321" s="83"/>
+      <c r="J321" s="83"/>
+      <c r="K321" s="84"/>
     </row>
     <row r="322">
-      <c r="J322" s="82"/>
-      <c r="K322" s="83"/>
+      <c r="J322" s="83"/>
+      <c r="K322" s="84"/>
     </row>
     <row r="323">
-      <c r="J323" s="82"/>
-      <c r="K323" s="83"/>
+      <c r="J323" s="83"/>
+      <c r="K323" s="84"/>
     </row>
     <row r="324">
-      <c r="J324" s="82"/>
-      <c r="K324" s="83"/>
+      <c r="J324" s="83"/>
+      <c r="K324" s="84"/>
     </row>
     <row r="325">
-      <c r="J325" s="82"/>
-      <c r="K325" s="83"/>
+      <c r="J325" s="83"/>
+      <c r="K325" s="84"/>
     </row>
     <row r="326">
-      <c r="J326" s="82"/>
-      <c r="K326" s="83"/>
+      <c r="J326" s="83"/>
+      <c r="K326" s="84"/>
     </row>
     <row r="327">
-      <c r="J327" s="82"/>
-      <c r="K327" s="83"/>
+      <c r="J327" s="83"/>
+      <c r="K327" s="84"/>
     </row>
     <row r="328">
-      <c r="J328" s="82"/>
-      <c r="K328" s="83"/>
+      <c r="J328" s="83"/>
+      <c r="K328" s="84"/>
     </row>
     <row r="329">
-      <c r="J329" s="82"/>
-      <c r="K329" s="83"/>
+      <c r="J329" s="83"/>
+      <c r="K329" s="84"/>
     </row>
     <row r="330">
-      <c r="J330" s="82"/>
-      <c r="K330" s="83"/>
+      <c r="J330" s="83"/>
+      <c r="K330" s="84"/>
     </row>
     <row r="331">
-      <c r="J331" s="82"/>
-      <c r="K331" s="83"/>
+      <c r="J331" s="83"/>
+      <c r="K331" s="84"/>
     </row>
     <row r="332">
-      <c r="J332" s="82"/>
-      <c r="K332" s="83"/>
+      <c r="J332" s="83"/>
+      <c r="K332" s="84"/>
     </row>
     <row r="333">
-      <c r="J333" s="82"/>
-      <c r="K333" s="83"/>
+      <c r="J333" s="83"/>
+      <c r="K333" s="84"/>
     </row>
     <row r="334">
-      <c r="J334" s="82"/>
-      <c r="K334" s="83"/>
+      <c r="J334" s="83"/>
+      <c r="K334" s="84"/>
     </row>
     <row r="335">
-      <c r="J335" s="82"/>
-      <c r="K335" s="83"/>
+      <c r="J335" s="83"/>
+      <c r="K335" s="84"/>
     </row>
     <row r="336">
-      <c r="J336" s="82"/>
-      <c r="K336" s="83"/>
+      <c r="J336" s="83"/>
+      <c r="K336" s="84"/>
     </row>
     <row r="337">
-      <c r="J337" s="82"/>
-      <c r="K337" s="83"/>
+      <c r="J337" s="83"/>
+      <c r="K337" s="84"/>
     </row>
     <row r="338">
-      <c r="J338" s="82"/>
-      <c r="K338" s="83"/>
+      <c r="J338" s="83"/>
+      <c r="K338" s="84"/>
     </row>
     <row r="339">
-      <c r="J339" s="82"/>
-      <c r="K339" s="83"/>
+      <c r="J339" s="83"/>
+      <c r="K339" s="84"/>
     </row>
     <row r="340">
-      <c r="J340" s="82"/>
-      <c r="K340" s="83"/>
+      <c r="J340" s="83"/>
+      <c r="K340" s="84"/>
     </row>
     <row r="341">
-      <c r="J341" s="82"/>
-      <c r="K341" s="83"/>
+      <c r="J341" s="83"/>
+      <c r="K341" s="84"/>
     </row>
     <row r="342">
-      <c r="J342" s="82"/>
-      <c r="K342" s="83"/>
+      <c r="J342" s="83"/>
+      <c r="K342" s="84"/>
     </row>
     <row r="343">
-      <c r="J343" s="82"/>
-      <c r="K343" s="83"/>
+      <c r="J343" s="83"/>
+      <c r="K343" s="84"/>
     </row>
     <row r="344">
-      <c r="J344" s="82"/>
-      <c r="K344" s="83"/>
+      <c r="J344" s="83"/>
+      <c r="K344" s="84"/>
     </row>
     <row r="345">
-      <c r="J345" s="82"/>
-      <c r="K345" s="83"/>
+      <c r="J345" s="83"/>
+      <c r="K345" s="84"/>
     </row>
     <row r="346">
-      <c r="J346" s="82"/>
-      <c r="K346" s="83"/>
+      <c r="J346" s="83"/>
+      <c r="K346" s="84"/>
     </row>
     <row r="347">
-      <c r="J347" s="82"/>
-      <c r="K347" s="83"/>
+      <c r="J347" s="83"/>
+      <c r="K347" s="84"/>
     </row>
     <row r="348">
-      <c r="J348" s="82"/>
-      <c r="K348" s="83"/>
+      <c r="J348" s="83"/>
+      <c r="K348" s="84"/>
     </row>
     <row r="349">
-      <c r="J349" s="82"/>
-      <c r="K349" s="83"/>
+      <c r="J349" s="83"/>
+      <c r="K349" s="84"/>
     </row>
     <row r="350">
-      <c r="J350" s="82"/>
-      <c r="K350" s="83"/>
+      <c r="J350" s="83"/>
+      <c r="K350" s="84"/>
     </row>
     <row r="351">
-      <c r="J351" s="82"/>
-      <c r="K351" s="83"/>
+      <c r="J351" s="83"/>
+      <c r="K351" s="84"/>
     </row>
     <row r="352">
-      <c r="J352" s="82"/>
-      <c r="K352" s="83"/>
+      <c r="J352" s="83"/>
+      <c r="K352" s="84"/>
     </row>
     <row r="353">
-      <c r="J353" s="82"/>
-      <c r="K353" s="83"/>
+      <c r="J353" s="83"/>
+      <c r="K353" s="84"/>
     </row>
     <row r="354">
-      <c r="J354" s="82"/>
-      <c r="K354" s="83"/>
+      <c r="J354" s="83"/>
+      <c r="K354" s="84"/>
     </row>
     <row r="355">
-      <c r="J355" s="82"/>
-      <c r="K355" s="83"/>
+      <c r="J355" s="83"/>
+      <c r="K355" s="84"/>
     </row>
     <row r="356">
-      <c r="J356" s="82"/>
-      <c r="K356" s="83"/>
+      <c r="J356" s="83"/>
+      <c r="K356" s="84"/>
     </row>
     <row r="357">
-      <c r="J357" s="82"/>
-      <c r="K357" s="83"/>
+      <c r="J357" s="83"/>
+      <c r="K357" s="84"/>
     </row>
     <row r="358">
-      <c r="J358" s="82"/>
-      <c r="K358" s="83"/>
+      <c r="J358" s="83"/>
+      <c r="K358" s="84"/>
     </row>
     <row r="359">
-      <c r="J359" s="82"/>
-      <c r="K359" s="83"/>
+      <c r="J359" s="83"/>
+      <c r="K359" s="84"/>
     </row>
     <row r="360">
-      <c r="J360" s="82"/>
-      <c r="K360" s="83"/>
+      <c r="J360" s="83"/>
+      <c r="K360" s="84"/>
     </row>
     <row r="361">
-      <c r="J361" s="82"/>
-      <c r="K361" s="83"/>
+      <c r="J361" s="83"/>
+      <c r="K361" s="84"/>
     </row>
     <row r="362">
-      <c r="J362" s="82"/>
-      <c r="K362" s="83"/>
+      <c r="J362" s="83"/>
+      <c r="K362" s="84"/>
     </row>
     <row r="363">
-      <c r="J363" s="82"/>
-      <c r="K363" s="83"/>
+      <c r="J363" s="83"/>
+      <c r="K363" s="84"/>
     </row>
     <row r="364">
-      <c r="J364" s="82"/>
-      <c r="K364" s="83"/>
+      <c r="J364" s="83"/>
+      <c r="K364" s="84"/>
     </row>
     <row r="365">
-      <c r="J365" s="82"/>
-      <c r="K365" s="83"/>
+      <c r="J365" s="83"/>
+      <c r="K365" s="84"/>
     </row>
     <row r="366">
-      <c r="J366" s="82"/>
-      <c r="K366" s="83"/>
+      <c r="J366" s="83"/>
+      <c r="K366" s="84"/>
     </row>
     <row r="367">
-      <c r="J367" s="82"/>
-      <c r="K367" s="83"/>
+      <c r="J367" s="83"/>
+      <c r="K367" s="84"/>
     </row>
     <row r="368">
-      <c r="J368" s="82"/>
-      <c r="K368" s="83"/>
+      <c r="J368" s="83"/>
+      <c r="K368" s="84"/>
     </row>
     <row r="369">
-      <c r="J369" s="82"/>
-      <c r="K369" s="83"/>
+      <c r="J369" s="83"/>
+      <c r="K369" s="84"/>
     </row>
     <row r="370">
-      <c r="J370" s="82"/>
-      <c r="K370" s="83"/>
+      <c r="J370" s="83"/>
+      <c r="K370" s="84"/>
     </row>
     <row r="371">
-      <c r="J371" s="82"/>
-      <c r="K371" s="83"/>
+      <c r="J371" s="83"/>
+      <c r="K371" s="84"/>
     </row>
     <row r="372">
-      <c r="J372" s="82"/>
-      <c r="K372" s="83"/>
+      <c r="J372" s="83"/>
+      <c r="K372" s="84"/>
     </row>
     <row r="373">
-      <c r="J373" s="82"/>
-      <c r="K373" s="83"/>
+      <c r="J373" s="83"/>
+      <c r="K373" s="84"/>
     </row>
     <row r="374">
-      <c r="J374" s="82"/>
-      <c r="K374" s="83"/>
+      <c r="J374" s="83"/>
+      <c r="K374" s="84"/>
     </row>
     <row r="375">
-      <c r="J375" s="82"/>
-      <c r="K375" s="83"/>
+      <c r="J375" s="83"/>
+      <c r="K375" s="84"/>
     </row>
     <row r="376">
-      <c r="J376" s="82"/>
-      <c r="K376" s="83"/>
+      <c r="J376" s="83"/>
+      <c r="K376" s="84"/>
     </row>
     <row r="377">
-      <c r="J377" s="82"/>
-      <c r="K377" s="83"/>
+      <c r="J377" s="83"/>
+      <c r="K377" s="84"/>
     </row>
     <row r="378">
-      <c r="J378" s="82"/>
-      <c r="K378" s="83"/>
+      <c r="J378" s="83"/>
+      <c r="K378" s="84"/>
     </row>
     <row r="379">
-      <c r="J379" s="82"/>
-      <c r="K379" s="83"/>
+      <c r="J379" s="83"/>
+      <c r="K379" s="84"/>
     </row>
     <row r="380">
-      <c r="J380" s="82"/>
-      <c r="K380" s="83"/>
+      <c r="J380" s="83"/>
+      <c r="K380" s="84"/>
     </row>
     <row r="381">
-      <c r="J381" s="82"/>
-      <c r="K381" s="83"/>
+      <c r="J381" s="83"/>
+      <c r="K381" s="84"/>
     </row>
     <row r="382">
-      <c r="J382" s="82"/>
-      <c r="K382" s="83"/>
+      <c r="J382" s="83"/>
+      <c r="K382" s="84"/>
     </row>
     <row r="383">
-      <c r="J383" s="82"/>
-      <c r="K383" s="83"/>
+      <c r="J383" s="83"/>
+      <c r="K383" s="84"/>
     </row>
     <row r="384">
-      <c r="J384" s="82"/>
-      <c r="K384" s="83"/>
+      <c r="J384" s="83"/>
+      <c r="K384" s="84"/>
     </row>
     <row r="385">
-      <c r="J385" s="82"/>
-      <c r="K385" s="83"/>
+      <c r="J385" s="83"/>
+      <c r="K385" s="84"/>
     </row>
     <row r="386">
-      <c r="J386" s="82"/>
-      <c r="K386" s="83"/>
+      <c r="J386" s="83"/>
+      <c r="K386" s="84"/>
     </row>
     <row r="387">
-      <c r="J387" s="82"/>
-      <c r="K387" s="83"/>
+      <c r="J387" s="83"/>
+      <c r="K387" s="84"/>
     </row>
     <row r="388">
-      <c r="J388" s="82"/>
-      <c r="K388" s="83"/>
+      <c r="J388" s="83"/>
+      <c r="K388" s="84"/>
     </row>
     <row r="389">
-      <c r="J389" s="82"/>
-      <c r="K389" s="83"/>
+      <c r="J389" s="83"/>
+      <c r="K389" s="84"/>
     </row>
     <row r="390">
-      <c r="J390" s="82"/>
-      <c r="K390" s="83"/>
+      <c r="J390" s="83"/>
+      <c r="K390" s="84"/>
     </row>
     <row r="391">
-      <c r="J391" s="82"/>
-      <c r="K391" s="83"/>
+      <c r="J391" s="83"/>
+      <c r="K391" s="84"/>
     </row>
     <row r="392">
-      <c r="J392" s="82"/>
-      <c r="K392" s="83"/>
+      <c r="J392" s="83"/>
+      <c r="K392" s="84"/>
     </row>
     <row r="393">
-      <c r="J393" s="82"/>
-      <c r="K393" s="83"/>
+      <c r="J393" s="83"/>
+      <c r="K393" s="84"/>
     </row>
     <row r="394">
-      <c r="J394" s="82"/>
-      <c r="K394" s="83"/>
+      <c r="J394" s="83"/>
+      <c r="K394" s="84"/>
     </row>
     <row r="395">
-      <c r="J395" s="82"/>
-      <c r="K395" s="83"/>
+      <c r="J395" s="83"/>
+      <c r="K395" s="84"/>
     </row>
     <row r="396">
-      <c r="J396" s="82"/>
-      <c r="K396" s="83"/>
+      <c r="J396" s="83"/>
+      <c r="K396" s="84"/>
     </row>
     <row r="397">
-      <c r="J397" s="82"/>
-      <c r="K397" s="83"/>
+      <c r="J397" s="83"/>
+      <c r="K397" s="84"/>
     </row>
     <row r="398">
-      <c r="J398" s="82"/>
-      <c r="K398" s="83"/>
+      <c r="J398" s="83"/>
+      <c r="K398" s="84"/>
     </row>
     <row r="399">
-      <c r="J399" s="82"/>
-      <c r="K399" s="83"/>
+      <c r="J399" s="83"/>
+      <c r="K399" s="84"/>
     </row>
     <row r="400">
-      <c r="J400" s="82"/>
-      <c r="K400" s="83"/>
+      <c r="J400" s="83"/>
+      <c r="K400" s="84"/>
     </row>
     <row r="401">
-      <c r="J401" s="82"/>
-      <c r="K401" s="83"/>
+      <c r="J401" s="83"/>
+      <c r="K401" s="84"/>
     </row>
     <row r="402">
-      <c r="J402" s="82"/>
-      <c r="K402" s="83"/>
+      <c r="J402" s="83"/>
+      <c r="K402" s="84"/>
     </row>
     <row r="403">
-      <c r="J403" s="82"/>
-      <c r="K403" s="83"/>
+      <c r="J403" s="83"/>
+      <c r="K403" s="84"/>
     </row>
     <row r="404">
-      <c r="J404" s="82"/>
-      <c r="K404" s="83"/>
+      <c r="J404" s="83"/>
+      <c r="K404" s="84"/>
     </row>
     <row r="405">
-      <c r="J405" s="82"/>
-      <c r="K405" s="83"/>
+      <c r="J405" s="83"/>
+      <c r="K405" s="84"/>
     </row>
     <row r="406">
-      <c r="J406" s="82"/>
-      <c r="K406" s="83"/>
+      <c r="J406" s="83"/>
+      <c r="K406" s="84"/>
     </row>
     <row r="407">
-      <c r="J407" s="82"/>
-      <c r="K407" s="83"/>
+      <c r="J407" s="83"/>
+      <c r="K407" s="84"/>
     </row>
     <row r="408">
-      <c r="J408" s="82"/>
-      <c r="K408" s="83"/>
+      <c r="J408" s="83"/>
+      <c r="K408" s="84"/>
     </row>
     <row r="409">
-      <c r="J409" s="82"/>
-      <c r="K409" s="83"/>
+      <c r="J409" s="83"/>
+      <c r="K409" s="84"/>
     </row>
     <row r="410">
-      <c r="J410" s="82"/>
-      <c r="K410" s="83"/>
+      <c r="J410" s="83"/>
+      <c r="K410" s="84"/>
     </row>
     <row r="411">
-      <c r="J411" s="82"/>
-      <c r="K411" s="83"/>
+      <c r="J411" s="83"/>
+      <c r="K411" s="84"/>
     </row>
     <row r="412">
-      <c r="J412" s="82"/>
-      <c r="K412" s="83"/>
+      <c r="J412" s="83"/>
+      <c r="K412" s="84"/>
     </row>
     <row r="413">
-      <c r="J413" s="82"/>
-      <c r="K413" s="83"/>
+      <c r="J413" s="83"/>
+      <c r="K413" s="84"/>
     </row>
     <row r="414">
-      <c r="J414" s="82"/>
-      <c r="K414" s="83"/>
+      <c r="J414" s="83"/>
+      <c r="K414" s="84"/>
     </row>
     <row r="415">
-      <c r="J415" s="82"/>
-      <c r="K415" s="83"/>
+      <c r="J415" s="83"/>
+      <c r="K415" s="84"/>
     </row>
     <row r="416">
-      <c r="J416" s="82"/>
-      <c r="K416" s="83"/>
+      <c r="J416" s="83"/>
+      <c r="K416" s="84"/>
     </row>
     <row r="417">
-      <c r="J417" s="82"/>
-      <c r="K417" s="83"/>
+      <c r="J417" s="83"/>
+      <c r="K417" s="84"/>
     </row>
     <row r="418">
-      <c r="J418" s="82"/>
-      <c r="K418" s="83"/>
+      <c r="J418" s="83"/>
+      <c r="K418" s="84"/>
     </row>
     <row r="419">
-      <c r="J419" s="82"/>
-      <c r="K419" s="83"/>
+      <c r="J419" s="83"/>
+      <c r="K419" s="84"/>
     </row>
     <row r="420">
-      <c r="J420" s="82"/>
-      <c r="K420" s="83"/>
+      <c r="J420" s="83"/>
+      <c r="K420" s="84"/>
     </row>
     <row r="421">
-      <c r="J421" s="82"/>
-      <c r="K421" s="83"/>
+      <c r="J421" s="83"/>
+      <c r="K421" s="84"/>
     </row>
     <row r="422">
-      <c r="J422" s="82"/>
-      <c r="K422" s="83"/>
+      <c r="J422" s="83"/>
+      <c r="K422" s="84"/>
     </row>
     <row r="423">
-      <c r="J423" s="82"/>
-      <c r="K423" s="83"/>
+      <c r="J423" s="83"/>
+      <c r="K423" s="84"/>
     </row>
     <row r="424">
-      <c r="J424" s="82"/>
-      <c r="K424" s="83"/>
+      <c r="J424" s="83"/>
+      <c r="K424" s="84"/>
     </row>
     <row r="425">
-      <c r="J425" s="82"/>
-      <c r="K425" s="83"/>
+      <c r="J425" s="83"/>
+      <c r="K425" s="84"/>
     </row>
     <row r="426">
-      <c r="J426" s="82"/>
-      <c r="K426" s="83"/>
+      <c r="J426" s="83"/>
+      <c r="K426" s="84"/>
     </row>
     <row r="427">
-      <c r="J427" s="82"/>
-      <c r="K427" s="83"/>
+      <c r="J427" s="83"/>
+      <c r="K427" s="84"/>
     </row>
     <row r="428">
-      <c r="J428" s="82"/>
-      <c r="K428" s="83"/>
+      <c r="J428" s="83"/>
+      <c r="K428" s="84"/>
     </row>
     <row r="429">
-      <c r="J429" s="82"/>
-      <c r="K429" s="83"/>
+      <c r="J429" s="83"/>
+      <c r="K429" s="84"/>
     </row>
     <row r="430">
-      <c r="J430" s="82"/>
-      <c r="K430" s="83"/>
+      <c r="J430" s="83"/>
+      <c r="K430" s="84"/>
     </row>
     <row r="431">
-      <c r="J431" s="82"/>
-      <c r="K431" s="83"/>
+      <c r="J431" s="83"/>
+      <c r="K431" s="84"/>
     </row>
     <row r="432">
-      <c r="J432" s="82"/>
-      <c r="K432" s="83"/>
+      <c r="J432" s="83"/>
+      <c r="K432" s="84"/>
     </row>
     <row r="433">
-      <c r="J433" s="82"/>
-      <c r="K433" s="83"/>
+      <c r="J433" s="83"/>
+      <c r="K433" s="84"/>
     </row>
     <row r="434">
-      <c r="J434" s="82"/>
-      <c r="K434" s="83"/>
+      <c r="J434" s="83"/>
+      <c r="K434" s="84"/>
     </row>
     <row r="435">
-      <c r="J435" s="82"/>
-      <c r="K435" s="83"/>
+      <c r="J435" s="83"/>
+      <c r="K435" s="84"/>
     </row>
     <row r="436">
-      <c r="J436" s="82"/>
-      <c r="K436" s="83"/>
+      <c r="J436" s="83"/>
+      <c r="K436" s="84"/>
     </row>
     <row r="437">
-      <c r="J437" s="82"/>
-      <c r="K437" s="83"/>
+      <c r="J437" s="83"/>
+      <c r="K437" s="84"/>
     </row>
     <row r="438">
-      <c r="J438" s="82"/>
-      <c r="K438" s="83"/>
+      <c r="J438" s="83"/>
+      <c r="K438" s="84"/>
     </row>
     <row r="439">
-      <c r="J439" s="82"/>
-      <c r="K439" s="83"/>
+      <c r="J439" s="83"/>
+      <c r="K439" s="84"/>
     </row>
     <row r="440">
-      <c r="J440" s="82"/>
-      <c r="K440" s="83"/>
+      <c r="J440" s="83"/>
+      <c r="K440" s="84"/>
     </row>
     <row r="441">
-      <c r="J441" s="82"/>
-      <c r="K441" s="83"/>
+      <c r="J441" s="83"/>
+      <c r="K441" s="84"/>
     </row>
     <row r="442">
-      <c r="J442" s="82"/>
-      <c r="K442" s="83"/>
+      <c r="J442" s="83"/>
+      <c r="K442" s="84"/>
     </row>
     <row r="443">
-      <c r="J443" s="82"/>
-      <c r="K443" s="83"/>
+      <c r="J443" s="83"/>
+      <c r="K443" s="84"/>
     </row>
     <row r="444">
-      <c r="J444" s="82"/>
-      <c r="K444" s="83"/>
+      <c r="J444" s="83"/>
+      <c r="K444" s="84"/>
     </row>
     <row r="445">
-      <c r="J445" s="82"/>
-      <c r="K445" s="83"/>
+      <c r="J445" s="83"/>
+      <c r="K445" s="84"/>
     </row>
     <row r="446">
-      <c r="J446" s="82"/>
-      <c r="K446" s="83"/>
+      <c r="J446" s="83"/>
+      <c r="K446" s="84"/>
     </row>
     <row r="447">
-      <c r="J447" s="82"/>
-      <c r="K447" s="83"/>
+      <c r="J447" s="83"/>
+      <c r="K447" s="84"/>
     </row>
     <row r="448">
-      <c r="J448" s="82"/>
-      <c r="K448" s="83"/>
+      <c r="J448" s="83"/>
+      <c r="K448" s="84"/>
     </row>
     <row r="449">
-      <c r="J449" s="82"/>
-      <c r="K449" s="83"/>
+      <c r="J449" s="83"/>
+      <c r="K449" s="84"/>
     </row>
     <row r="450">
-      <c r="J450" s="82"/>
-      <c r="K450" s="83"/>
+      <c r="J450" s="83"/>
+      <c r="K450" s="84"/>
     </row>
     <row r="451">
-      <c r="J451" s="82"/>
-      <c r="K451" s="83"/>
+      <c r="J451" s="83"/>
+      <c r="K451" s="84"/>
     </row>
     <row r="452">
-      <c r="J452" s="82"/>
-      <c r="K452" s="83"/>
+      <c r="J452" s="83"/>
+      <c r="K452" s="84"/>
     </row>
     <row r="453">
-      <c r="J453" s="82"/>
-      <c r="K453" s="83"/>
+      <c r="J453" s="83"/>
+      <c r="K453" s="84"/>
     </row>
     <row r="454">
-      <c r="J454" s="82"/>
-      <c r="K454" s="83"/>
+      <c r="J454" s="83"/>
+      <c r="K454" s="84"/>
     </row>
     <row r="455">
-      <c r="J455" s="82"/>
-      <c r="K455" s="83"/>
+      <c r="J455" s="83"/>
+      <c r="K455" s="84"/>
     </row>
     <row r="456">
-      <c r="J456" s="82"/>
-      <c r="K456" s="83"/>
+      <c r="J456" s="83"/>
+      <c r="K456" s="84"/>
     </row>
     <row r="457">
-      <c r="J457" s="82"/>
-      <c r="K457" s="83"/>
+      <c r="J457" s="83"/>
+      <c r="K457" s="84"/>
     </row>
     <row r="458">
-      <c r="J458" s="82"/>
-      <c r="K458" s="83"/>
+      <c r="J458" s="83"/>
+      <c r="K458" s="84"/>
     </row>
     <row r="459">
-      <c r="J459" s="82"/>
-      <c r="K459" s="83"/>
+      <c r="J459" s="83"/>
+      <c r="K459" s="84"/>
     </row>
     <row r="460">
-      <c r="J460" s="82"/>
-      <c r="K460" s="83"/>
+      <c r="J460" s="83"/>
+      <c r="K460" s="84"/>
     </row>
     <row r="461">
-      <c r="J461" s="82"/>
-      <c r="K461" s="83"/>
+      <c r="J461" s="83"/>
+      <c r="K461" s="84"/>
     </row>
     <row r="462">
-      <c r="J462" s="82"/>
-      <c r="K462" s="83"/>
+      <c r="J462" s="83"/>
+      <c r="K462" s="84"/>
     </row>
     <row r="463">
-      <c r="J463" s="82"/>
-      <c r="K463" s="83"/>
+      <c r="J463" s="83"/>
+      <c r="K463" s="84"/>
     </row>
     <row r="464">
-      <c r="J464" s="82"/>
-      <c r="K464" s="83"/>
+      <c r="J464" s="83"/>
+      <c r="K464" s="84"/>
     </row>
     <row r="465">
-      <c r="J465" s="82"/>
-      <c r="K465" s="83"/>
+      <c r="J465" s="83"/>
+      <c r="K465" s="84"/>
     </row>
     <row r="466">
-      <c r="J466" s="82"/>
-      <c r="K466" s="83"/>
+      <c r="J466" s="83"/>
+      <c r="K466" s="84"/>
     </row>
     <row r="467">
-      <c r="J467" s="82"/>
-      <c r="K467" s="83"/>
+      <c r="J467" s="83"/>
+      <c r="K467" s="84"/>
     </row>
     <row r="468">
-      <c r="J468" s="82"/>
-      <c r="K468" s="83"/>
+      <c r="J468" s="83"/>
+      <c r="K468" s="84"/>
     </row>
     <row r="469">
-      <c r="J469" s="82"/>
-      <c r="K469" s="83"/>
+      <c r="J469" s="83"/>
+      <c r="K469" s="84"/>
     </row>
     <row r="470">
-      <c r="J470" s="82"/>
-      <c r="K470" s="83"/>
+      <c r="J470" s="83"/>
+      <c r="K470" s="84"/>
     </row>
     <row r="471">
-      <c r="J471" s="82"/>
-      <c r="K471" s="83"/>
+      <c r="J471" s="83"/>
+      <c r="K471" s="84"/>
     </row>
     <row r="472">
-      <c r="J472" s="82"/>
-      <c r="K472" s="83"/>
+      <c r="J472" s="83"/>
+      <c r="K472" s="84"/>
     </row>
     <row r="473">
-      <c r="J473" s="82"/>
-      <c r="K473" s="83"/>
+      <c r="J473" s="83"/>
+      <c r="K473" s="84"/>
     </row>
     <row r="474">
-      <c r="J474" s="82"/>
-      <c r="K474" s="83"/>
+      <c r="J474" s="83"/>
+      <c r="K474" s="84"/>
     </row>
     <row r="475">
-      <c r="J475" s="82"/>
-      <c r="K475" s="83"/>
+      <c r="J475" s="83"/>
+      <c r="K475" s="84"/>
     </row>
     <row r="476">
-      <c r="J476" s="82"/>
-      <c r="K476" s="83"/>
+      <c r="J476" s="83"/>
+      <c r="K476" s="84"/>
     </row>
     <row r="477">
-      <c r="J477" s="82"/>
-      <c r="K477" s="83"/>
+      <c r="J477" s="83"/>
+      <c r="K477" s="84"/>
     </row>
     <row r="478">
-      <c r="J478" s="82"/>
-      <c r="K478" s="83"/>
+      <c r="J478" s="83"/>
+      <c r="K478" s="84"/>
     </row>
     <row r="479">
-      <c r="J479" s="82"/>
-      <c r="K479" s="83"/>
+      <c r="J479" s="83"/>
+      <c r="K479" s="84"/>
     </row>
     <row r="480">
-      <c r="J480" s="82"/>
-      <c r="K480" s="83"/>
+      <c r="J480" s="83"/>
+      <c r="K480" s="84"/>
     </row>
     <row r="481">
-      <c r="J481" s="82"/>
-      <c r="K481" s="83"/>
+      <c r="J481" s="83"/>
+      <c r="K481" s="84"/>
     </row>
     <row r="482">
-      <c r="J482" s="82"/>
-      <c r="K482" s="83"/>
+      <c r="J482" s="83"/>
+      <c r="K482" s="84"/>
     </row>
     <row r="483">
-      <c r="J483" s="82"/>
-      <c r="K483" s="83"/>
+      <c r="J483" s="83"/>
+      <c r="K483" s="84"/>
     </row>
     <row r="484">
-      <c r="J484" s="82"/>
-      <c r="K484" s="83"/>
+      <c r="J484" s="83"/>
+      <c r="K484" s="84"/>
     </row>
     <row r="485">
-      <c r="J485" s="82"/>
-      <c r="K485" s="83"/>
+      <c r="J485" s="83"/>
+      <c r="K485" s="84"/>
     </row>
     <row r="486">
-      <c r="J486" s="82"/>
-      <c r="K486" s="83"/>
+      <c r="J486" s="83"/>
+      <c r="K486" s="84"/>
     </row>
     <row r="487">
-      <c r="J487" s="82"/>
-      <c r="K487" s="83"/>
+      <c r="J487" s="83"/>
+      <c r="K487" s="84"/>
     </row>
     <row r="488">
-      <c r="J488" s="82"/>
-      <c r="K488" s="83"/>
+      <c r="J488" s="83"/>
+      <c r="K488" s="84"/>
     </row>
     <row r="489">
-      <c r="J489" s="82"/>
-      <c r="K489" s="83"/>
+      <c r="J489" s="83"/>
+      <c r="K489" s="84"/>
     </row>
     <row r="490">
-      <c r="J490" s="82"/>
-      <c r="K490" s="83"/>
+      <c r="J490" s="83"/>
+      <c r="K490" s="84"/>
     </row>
     <row r="491">
-      <c r="J491" s="82"/>
-      <c r="K491" s="83"/>
+      <c r="J491" s="83"/>
+      <c r="K491" s="84"/>
     </row>
     <row r="492">
-      <c r="J492" s="82"/>
-      <c r="K492" s="83"/>
+      <c r="J492" s="83"/>
+      <c r="K492" s="84"/>
     </row>
     <row r="493">
-      <c r="J493" s="82"/>
-      <c r="K493" s="83"/>
+      <c r="J493" s="83"/>
+      <c r="K493" s="84"/>
     </row>
     <row r="494">
-      <c r="J494" s="82"/>
-      <c r="K494" s="83"/>
+      <c r="J494" s="83"/>
+      <c r="K494" s="84"/>
     </row>
     <row r="495">
-      <c r="J495" s="82"/>
-      <c r="K495" s="83"/>
+      <c r="J495" s="83"/>
+      <c r="K495" s="84"/>
     </row>
     <row r="496">
-      <c r="J496" s="82"/>
-      <c r="K496" s="83"/>
+      <c r="J496" s="83"/>
+      <c r="K496" s="84"/>
     </row>
     <row r="497">
-      <c r="J497" s="82"/>
-      <c r="K497" s="83"/>
+      <c r="J497" s="83"/>
+      <c r="K497" s="84"/>
     </row>
     <row r="498">
-      <c r="J498" s="82"/>
-      <c r="K498" s="83"/>
+      <c r="J498" s="83"/>
+      <c r="K498" s="84"/>
     </row>
     <row r="499">
-      <c r="J499" s="82"/>
-      <c r="K499" s="83"/>
+      <c r="J499" s="83"/>
+      <c r="K499" s="84"/>
     </row>
     <row r="500">
-      <c r="J500" s="82"/>
-      <c r="K500" s="83"/>
+      <c r="J500" s="83"/>
+      <c r="K500" s="84"/>
     </row>
     <row r="501">
-      <c r="J501" s="82"/>
-      <c r="K501" s="83"/>
+      <c r="J501" s="83"/>
+      <c r="K501" s="84"/>
     </row>
     <row r="502">
-      <c r="J502" s="82"/>
-      <c r="K502" s="83"/>
+      <c r="J502" s="83"/>
+      <c r="K502" s="84"/>
     </row>
     <row r="503">
-      <c r="J503" s="82"/>
-      <c r="K503" s="83"/>
+      <c r="J503" s="83"/>
+      <c r="K503" s="84"/>
     </row>
     <row r="504">
-      <c r="J504" s="82"/>
-      <c r="K504" s="83"/>
+      <c r="J504" s="83"/>
+      <c r="K504" s="84"/>
     </row>
     <row r="505">
-      <c r="J505" s="82"/>
-      <c r="K505" s="83"/>
+      <c r="J505" s="83"/>
+      <c r="K505" s="84"/>
     </row>
     <row r="506">
-      <c r="J506" s="82"/>
-      <c r="K506" s="83"/>
+      <c r="J506" s="83"/>
+      <c r="K506" s="84"/>
     </row>
     <row r="507">
-      <c r="J507" s="82"/>
-      <c r="K507" s="83"/>
+      <c r="J507" s="83"/>
+      <c r="K507" s="84"/>
     </row>
     <row r="508">
-      <c r="J508" s="82"/>
-      <c r="K508" s="83"/>
+      <c r="J508" s="83"/>
+      <c r="K508" s="84"/>
     </row>
     <row r="509">
-      <c r="J509" s="82"/>
-      <c r="K509" s="83"/>
+      <c r="J509" s="83"/>
+      <c r="K509" s="84"/>
     </row>
     <row r="510">
-      <c r="J510" s="82"/>
-      <c r="K510" s="83"/>
+      <c r="J510" s="83"/>
+      <c r="K510" s="84"/>
     </row>
     <row r="511">
-      <c r="J511" s="82"/>
-      <c r="K511" s="83"/>
+      <c r="J511" s="83"/>
+      <c r="K511" s="84"/>
     </row>
     <row r="512">
-      <c r="J512" s="82"/>
-      <c r="K512" s="83"/>
+      <c r="J512" s="83"/>
+      <c r="K512" s="84"/>
     </row>
     <row r="513">
-      <c r="J513" s="82"/>
-      <c r="K513" s="83"/>
+      <c r="J513" s="83"/>
+      <c r="K513" s="84"/>
     </row>
     <row r="514">
-      <c r="J514" s="82"/>
-      <c r="K514" s="83"/>
+      <c r="J514" s="83"/>
+      <c r="K514" s="84"/>
     </row>
     <row r="515">
-      <c r="J515" s="82"/>
-      <c r="K515" s="83"/>
+      <c r="J515" s="83"/>
+      <c r="K515" s="84"/>
     </row>
     <row r="516">
-      <c r="J516" s="82"/>
-      <c r="K516" s="83"/>
+      <c r="J516" s="83"/>
+      <c r="K516" s="84"/>
     </row>
     <row r="517">
-      <c r="J517" s="82"/>
-      <c r="K517" s="83"/>
+      <c r="J517" s="83"/>
+      <c r="K517" s="84"/>
     </row>
     <row r="518">
-      <c r="J518" s="82"/>
-      <c r="K518" s="83"/>
+      <c r="J518" s="83"/>
+      <c r="K518" s="84"/>
     </row>
     <row r="519">
-      <c r="J519" s="82"/>
-      <c r="K519" s="83"/>
+      <c r="J519" s="83"/>
+      <c r="K519" s="84"/>
     </row>
     <row r="520">
-      <c r="J520" s="82"/>
-      <c r="K520" s="83"/>
+      <c r="J520" s="83"/>
+      <c r="K520" s="84"/>
     </row>
     <row r="521">
-      <c r="J521" s="82"/>
-      <c r="K521" s="83"/>
+      <c r="J521" s="83"/>
+      <c r="K521" s="84"/>
     </row>
     <row r="522">
-      <c r="J522" s="82"/>
-      <c r="K522" s="83"/>
+      <c r="J522" s="83"/>
+      <c r="K522" s="84"/>
     </row>
     <row r="523">
-      <c r="J523" s="82"/>
-      <c r="K523" s="83"/>
+      <c r="J523" s="83"/>
+      <c r="K523" s="84"/>
     </row>
     <row r="524">
-      <c r="J524" s="82"/>
-      <c r="K524" s="83"/>
+      <c r="J524" s="83"/>
+      <c r="K524" s="84"/>
     </row>
     <row r="525">
-      <c r="J525" s="82"/>
-      <c r="K525" s="83"/>
+      <c r="J525" s="83"/>
+      <c r="K525" s="84"/>
     </row>
     <row r="526">
-      <c r="J526" s="82"/>
-      <c r="K526" s="83"/>
+      <c r="J526" s="83"/>
+      <c r="K526" s="84"/>
     </row>
     <row r="527">
-      <c r="J527" s="82"/>
-      <c r="K527" s="83"/>
+      <c r="J527" s="83"/>
+      <c r="K527" s="84"/>
     </row>
     <row r="528">
-      <c r="J528" s="82"/>
-      <c r="K528" s="83"/>
+      <c r="J528" s="83"/>
+      <c r="K528" s="84"/>
     </row>
     <row r="529">
-      <c r="J529" s="82"/>
-      <c r="K529" s="83"/>
+      <c r="J529" s="83"/>
+      <c r="K529" s="84"/>
     </row>
     <row r="530">
-      <c r="J530" s="82"/>
-      <c r="K530" s="83"/>
+      <c r="J530" s="83"/>
+      <c r="K530" s="84"/>
     </row>
     <row r="531">
-      <c r="J531" s="82"/>
-      <c r="K531" s="83"/>
+      <c r="J531" s="83"/>
+      <c r="K531" s="84"/>
     </row>
     <row r="532">
-      <c r="J532" s="82"/>
-      <c r="K532" s="83"/>
+      <c r="J532" s="83"/>
+      <c r="K532" s="84"/>
     </row>
     <row r="533">
-      <c r="J533" s="82"/>
-      <c r="K533" s="83"/>
+      <c r="J533" s="83"/>
+      <c r="K533" s="84"/>
     </row>
     <row r="534">
-      <c r="J534" s="82"/>
-      <c r="K534" s="83"/>
+      <c r="J534" s="83"/>
+      <c r="K534" s="84"/>
     </row>
     <row r="535">
-      <c r="J535" s="82"/>
-      <c r="K535" s="83"/>
+      <c r="J535" s="83"/>
+      <c r="K535" s="84"/>
     </row>
     <row r="536">
-      <c r="J536" s="82"/>
-      <c r="K536" s="83"/>
+      <c r="J536" s="83"/>
+      <c r="K536" s="84"/>
     </row>
     <row r="537">
-      <c r="J537" s="82"/>
-      <c r="K537" s="83"/>
+      <c r="J537" s="83"/>
+      <c r="K537" s="84"/>
     </row>
     <row r="538">
-      <c r="J538" s="82"/>
-      <c r="K538" s="83"/>
+      <c r="J538" s="83"/>
+      <c r="K538" s="84"/>
     </row>
     <row r="539">
-      <c r="J539" s="82"/>
-      <c r="K539" s="83"/>
+      <c r="J539" s="83"/>
+      <c r="K539" s="84"/>
     </row>
     <row r="540">
-      <c r="J540" s="82"/>
-      <c r="K540" s="83"/>
+      <c r="J540" s="83"/>
+      <c r="K540" s="84"/>
     </row>
     <row r="541">
-      <c r="J541" s="82"/>
-      <c r="K541" s="83"/>
+      <c r="J541" s="83"/>
+      <c r="K541" s="84"/>
     </row>
     <row r="542">
-      <c r="J542" s="82"/>
-      <c r="K542" s="83"/>
+      <c r="J542" s="83"/>
+      <c r="K542" s="84"/>
     </row>
     <row r="543">
-      <c r="J543" s="82"/>
-      <c r="K543" s="83"/>
+      <c r="J543" s="83"/>
+      <c r="K543" s="84"/>
     </row>
     <row r="544">
-      <c r="J544" s="82"/>
-      <c r="K544" s="83"/>
+      <c r="J544" s="83"/>
+      <c r="K544" s="84"/>
     </row>
     <row r="545">
-      <c r="J545" s="82"/>
-      <c r="K545" s="83"/>
+      <c r="J545" s="83"/>
+      <c r="K545" s="84"/>
     </row>
     <row r="546">
-      <c r="J546" s="82"/>
-      <c r="K546" s="83"/>
+      <c r="J546" s="83"/>
+      <c r="K546" s="84"/>
     </row>
     <row r="547">
-      <c r="J547" s="82"/>
-      <c r="K547" s="83"/>
+      <c r="J547" s="83"/>
+      <c r="K547" s="84"/>
     </row>
     <row r="548">
-      <c r="J548" s="82"/>
-      <c r="K548" s="83"/>
+      <c r="J548" s="83"/>
+      <c r="K548" s="84"/>
     </row>
     <row r="549">
-      <c r="J549" s="82"/>
-      <c r="K549" s="83"/>
+      <c r="J549" s="83"/>
+      <c r="K549" s="84"/>
     </row>
     <row r="550">
-      <c r="J550" s="82"/>
-      <c r="K550" s="83"/>
+      <c r="J550" s="83"/>
+      <c r="K550" s="84"/>
     </row>
     <row r="551">
-      <c r="J551" s="82"/>
-      <c r="K551" s="83"/>
+      <c r="J551" s="83"/>
+      <c r="K551" s="84"/>
     </row>
     <row r="552">
-      <c r="J552" s="82"/>
-      <c r="K552" s="83"/>
+      <c r="J552" s="83"/>
+      <c r="K552" s="84"/>
     </row>
     <row r="553">
-      <c r="J553" s="82"/>
-      <c r="K553" s="83"/>
+      <c r="J553" s="83"/>
+      <c r="K553" s="84"/>
     </row>
     <row r="554">
-      <c r="J554" s="82"/>
-      <c r="K554" s="83"/>
+      <c r="J554" s="83"/>
+      <c r="K554" s="84"/>
     </row>
     <row r="555">
-      <c r="J555" s="82"/>
-      <c r="K555" s="83"/>
+      <c r="J555" s="83"/>
+      <c r="K555" s="84"/>
     </row>
     <row r="556">
-      <c r="J556" s="82"/>
-      <c r="K556" s="83"/>
+      <c r="J556" s="83"/>
+      <c r="K556" s="84"/>
     </row>
     <row r="557">
-      <c r="J557" s="82"/>
-      <c r="K557" s="83"/>
+      <c r="J557" s="83"/>
+      <c r="K557" s="84"/>
     </row>
     <row r="558">
-      <c r="J558" s="82"/>
-      <c r="K558" s="83"/>
+      <c r="J558" s="83"/>
+      <c r="K558" s="84"/>
     </row>
     <row r="559">
-      <c r="J559" s="82"/>
-      <c r="K559" s="83"/>
+      <c r="J559" s="83"/>
+      <c r="K559" s="84"/>
     </row>
     <row r="560">
-      <c r="J560" s="82"/>
-      <c r="K560" s="83"/>
+      <c r="J560" s="83"/>
+      <c r="K560" s="84"/>
     </row>
     <row r="561">
-      <c r="J561" s="82"/>
-      <c r="K561" s="83"/>
+      <c r="J561" s="83"/>
+      <c r="K561" s="84"/>
     </row>
     <row r="562">
-      <c r="J562" s="82"/>
-      <c r="K562" s="83"/>
+      <c r="J562" s="83"/>
+      <c r="K562" s="84"/>
     </row>
     <row r="563">
-      <c r="J563" s="82"/>
-      <c r="K563" s="83"/>
+      <c r="J563" s="83"/>
+      <c r="K563" s="84"/>
     </row>
     <row r="564">
-      <c r="J564" s="82"/>
-      <c r="K564" s="83"/>
+      <c r="J564" s="83"/>
+      <c r="K564" s="84"/>
     </row>
     <row r="565">
-      <c r="J565" s="82"/>
-      <c r="K565" s="83"/>
+      <c r="J565" s="83"/>
+      <c r="K565" s="84"/>
     </row>
     <row r="566">
-      <c r="J566" s="82"/>
-      <c r="K566" s="83"/>
+      <c r="J566" s="83"/>
+      <c r="K566" s="84"/>
     </row>
     <row r="567">
-      <c r="J567" s="82"/>
-      <c r="K567" s="83"/>
+      <c r="J567" s="83"/>
+      <c r="K567" s="84"/>
     </row>
     <row r="568">
-      <c r="J568" s="82"/>
-      <c r="K568" s="83"/>
+      <c r="J568" s="83"/>
+      <c r="K568" s="84"/>
     </row>
     <row r="569">
-      <c r="J569" s="82"/>
-      <c r="K569" s="83"/>
+      <c r="J569" s="83"/>
+      <c r="K569" s="84"/>
     </row>
     <row r="570">
-      <c r="J570" s="82"/>
-      <c r="K570" s="83"/>
+      <c r="J570" s="83"/>
+      <c r="K570" s="84"/>
     </row>
     <row r="571">
-      <c r="J571" s="82"/>
-      <c r="K571" s="83"/>
+      <c r="J571" s="83"/>
+      <c r="K571" s="84"/>
     </row>
     <row r="572">
-      <c r="J572" s="82"/>
-      <c r="K572" s="83"/>
+      <c r="J572" s="83"/>
+      <c r="K572" s="84"/>
     </row>
     <row r="573">
-      <c r="J573" s="82"/>
-      <c r="K573" s="83"/>
+      <c r="J573" s="83"/>
+      <c r="K573" s="84"/>
     </row>
     <row r="574">
-      <c r="J574" s="82"/>
-      <c r="K574" s="83"/>
+      <c r="J574" s="83"/>
+      <c r="K574" s="84"/>
     </row>
     <row r="575">
-      <c r="J575" s="82"/>
-      <c r="K575" s="83"/>
+      <c r="J575" s="83"/>
+      <c r="K575" s="84"/>
     </row>
     <row r="576">
-      <c r="J576" s="82"/>
-      <c r="K576" s="83"/>
+      <c r="J576" s="83"/>
+      <c r="K576" s="84"/>
     </row>
     <row r="577">
-      <c r="J577" s="82"/>
-      <c r="K577" s="83"/>
+      <c r="J577" s="83"/>
+      <c r="K577" s="84"/>
     </row>
     <row r="578">
-      <c r="J578" s="82"/>
-      <c r="K578" s="83"/>
+      <c r="J578" s="83"/>
+      <c r="K578" s="84"/>
     </row>
     <row r="579">
-      <c r="J579" s="82"/>
-      <c r="K579" s="83"/>
+      <c r="J579" s="83"/>
+      <c r="K579" s="84"/>
     </row>
     <row r="580">
-      <c r="J580" s="82"/>
-      <c r="K580" s="83"/>
+      <c r="J580" s="83"/>
+      <c r="K580" s="84"/>
     </row>
     <row r="581">
-      <c r="J581" s="82"/>
-      <c r="K581" s="83"/>
+      <c r="J581" s="83"/>
+      <c r="K581" s="84"/>
     </row>
     <row r="582">
-      <c r="J582" s="82"/>
-      <c r="K582" s="83"/>
+      <c r="J582" s="83"/>
+      <c r="K582" s="84"/>
     </row>
     <row r="583">
-      <c r="J583" s="82"/>
-      <c r="K583" s="83"/>
+      <c r="J583" s="83"/>
+      <c r="K583" s="84"/>
     </row>
     <row r="584">
-      <c r="J584" s="82"/>
-      <c r="K584" s="83"/>
+      <c r="J584" s="83"/>
+      <c r="K584" s="84"/>
     </row>
     <row r="585">
-      <c r="J585" s="82"/>
-      <c r="K585" s="83"/>
+      <c r="J585" s="83"/>
+      <c r="K585" s="84"/>
     </row>
     <row r="586">
-      <c r="J586" s="82"/>
-      <c r="K586" s="83"/>
+      <c r="J586" s="83"/>
+      <c r="K586" s="84"/>
     </row>
     <row r="587">
-      <c r="J587" s="82"/>
-      <c r="K587" s="83"/>
+      <c r="J587" s="83"/>
+      <c r="K587" s="84"/>
     </row>
     <row r="588">
-      <c r="J588" s="82"/>
-      <c r="K588" s="83"/>
+      <c r="J588" s="83"/>
+      <c r="K588" s="84"/>
     </row>
     <row r="589">
-      <c r="J589" s="82"/>
-      <c r="K589" s="83"/>
+      <c r="J589" s="83"/>
+      <c r="K589" s="84"/>
     </row>
     <row r="590">
-      <c r="J590" s="82"/>
-      <c r="K590" s="83"/>
+      <c r="J590" s="83"/>
+      <c r="K590" s="84"/>
     </row>
     <row r="591">
-      <c r="J591" s="82"/>
-      <c r="K591" s="83"/>
+      <c r="J591" s="83"/>
+      <c r="K591" s="84"/>
     </row>
     <row r="592">
-      <c r="J592" s="82"/>
-      <c r="K592" s="83"/>
+      <c r="J592" s="83"/>
+      <c r="K592" s="84"/>
     </row>
     <row r="593">
-      <c r="J593" s="82"/>
-      <c r="K593" s="83"/>
+      <c r="J593" s="83"/>
+      <c r="K593" s="84"/>
     </row>
     <row r="594">
-      <c r="J594" s="82"/>
-      <c r="K594" s="83"/>
+      <c r="J594" s="83"/>
+      <c r="K594" s="84"/>
     </row>
     <row r="595">
-      <c r="J595" s="82"/>
-      <c r="K595" s="83"/>
+      <c r="J595" s="83"/>
+      <c r="K595" s="84"/>
     </row>
     <row r="596">
-      <c r="J596" s="82"/>
-      <c r="K596" s="83"/>
+      <c r="J596" s="83"/>
+      <c r="K596" s="84"/>
     </row>
     <row r="597">
-      <c r="J597" s="82"/>
-      <c r="K597" s="83"/>
+      <c r="J597" s="83"/>
+      <c r="K597" s="84"/>
     </row>
     <row r="598">
-      <c r="J598" s="82"/>
-      <c r="K598" s="83"/>
+      <c r="J598" s="83"/>
+      <c r="K598" s="84"/>
     </row>
     <row r="599">
-      <c r="J599" s="82"/>
-      <c r="K599" s="83"/>
+      <c r="J599" s="83"/>
+      <c r="K599" s="84"/>
     </row>
     <row r="600">
-      <c r="J600" s="82"/>
-      <c r="K600" s="83"/>
+      <c r="J600" s="83"/>
+      <c r="K600" s="84"/>
     </row>
     <row r="601">
-      <c r="J601" s="82"/>
-      <c r="K601" s="83"/>
+      <c r="J601" s="83"/>
+      <c r="K601" s="84"/>
     </row>
     <row r="602">
-      <c r="J602" s="82"/>
-      <c r="K602" s="83"/>
+      <c r="J602" s="83"/>
+      <c r="K602" s="84"/>
     </row>
     <row r="603">
-      <c r="J603" s="82"/>
-      <c r="K603" s="83"/>
+      <c r="J603" s="83"/>
+      <c r="K603" s="84"/>
     </row>
     <row r="604">
-      <c r="J604" s="82"/>
-      <c r="K604" s="83"/>
+      <c r="J604" s="83"/>
+      <c r="K604" s="84"/>
     </row>
     <row r="605">
-      <c r="J605" s="82"/>
-      <c r="K605" s="83"/>
+      <c r="J605" s="83"/>
+      <c r="K605" s="84"/>
     </row>
     <row r="606">
-      <c r="J606" s="82"/>
-      <c r="K606" s="83"/>
+      <c r="J606" s="83"/>
+      <c r="K606" s="84"/>
     </row>
     <row r="607">
-      <c r="J607" s="82"/>
-      <c r="K607" s="83"/>
+      <c r="J607" s="83"/>
+      <c r="K607" s="84"/>
     </row>
     <row r="608">
-      <c r="J608" s="82"/>
-      <c r="K608" s="83"/>
+      <c r="J608" s="83"/>
+      <c r="K608" s="84"/>
     </row>
     <row r="609">
-      <c r="J609" s="82"/>
-      <c r="K609" s="83"/>
+      <c r="J609" s="83"/>
+      <c r="K609" s="84"/>
     </row>
     <row r="610">
-      <c r="J610" s="82"/>
-      <c r="K610" s="83"/>
+      <c r="J610" s="83"/>
+      <c r="K610" s="84"/>
     </row>
     <row r="611">
-      <c r="J611" s="82"/>
-      <c r="K611" s="83"/>
+      <c r="J611" s="83"/>
+      <c r="K611" s="84"/>
     </row>
     <row r="612">
-      <c r="J612" s="82"/>
-      <c r="K612" s="83"/>
+      <c r="J612" s="83"/>
+      <c r="K612" s="84"/>
     </row>
     <row r="613">
-      <c r="J613" s="82"/>
-      <c r="K613" s="83"/>
+      <c r="J613" s="83"/>
+      <c r="K613" s="84"/>
     </row>
     <row r="614">
-      <c r="J614" s="82"/>
-      <c r="K614" s="83"/>
+      <c r="J614" s="83"/>
+      <c r="K614" s="84"/>
     </row>
     <row r="615">
-      <c r="J615" s="82"/>
-      <c r="K615" s="83"/>
+      <c r="J615" s="83"/>
+      <c r="K615" s="84"/>
     </row>
     <row r="616">
-      <c r="J616" s="82"/>
-      <c r="K616" s="83"/>
+      <c r="J616" s="83"/>
+      <c r="K616" s="84"/>
     </row>
     <row r="617">
-      <c r="J617" s="82"/>
-      <c r="K617" s="83"/>
+      <c r="J617" s="83"/>
+      <c r="K617" s="84"/>
     </row>
     <row r="618">
-      <c r="J618" s="82"/>
-      <c r="K618" s="83"/>
+      <c r="J618" s="83"/>
+      <c r="K618" s="84"/>
     </row>
     <row r="619">
-      <c r="J619" s="82"/>
-      <c r="K619" s="83"/>
+      <c r="J619" s="83"/>
+      <c r="K619" s="84"/>
     </row>
     <row r="620">
-      <c r="J620" s="82"/>
-      <c r="K620" s="83"/>
+      <c r="J620" s="83"/>
+      <c r="K620" s="84"/>
     </row>
     <row r="621">
-      <c r="J621" s="82"/>
-      <c r="K621" s="83"/>
+      <c r="J621" s="83"/>
+      <c r="K621" s="84"/>
     </row>
     <row r="622">
-      <c r="J622" s="82"/>
-      <c r="K622" s="83"/>
+      <c r="J622" s="83"/>
+      <c r="K622" s="84"/>
     </row>
     <row r="623">
-      <c r="J623" s="82"/>
-      <c r="K623" s="83"/>
+      <c r="J623" s="83"/>
+      <c r="K623" s="84"/>
     </row>
     <row r="624">
-      <c r="J624" s="82"/>
-      <c r="K624" s="83"/>
+      <c r="J624" s="83"/>
+      <c r="K624" s="84"/>
     </row>
     <row r="625">
-      <c r="J625" s="82"/>
-      <c r="K625" s="83"/>
+      <c r="J625" s="83"/>
+      <c r="K625" s="84"/>
     </row>
     <row r="626">
-      <c r="J626" s="82"/>
-      <c r="K626" s="83"/>
+      <c r="J626" s="83"/>
+      <c r="K626" s="84"/>
     </row>
     <row r="627">
-      <c r="J627" s="82"/>
-      <c r="K627" s="83"/>
+      <c r="J627" s="83"/>
+      <c r="K627" s="84"/>
     </row>
     <row r="628">
-      <c r="J628" s="82"/>
-      <c r="K628" s="83"/>
+      <c r="J628" s="83"/>
+      <c r="K628" s="84"/>
     </row>
     <row r="629">
-      <c r="J629" s="82"/>
-      <c r="K629" s="83"/>
+      <c r="J629" s="83"/>
+      <c r="K629" s="84"/>
     </row>
     <row r="630">
-      <c r="J630" s="82"/>
-      <c r="K630" s="83"/>
+      <c r="J630" s="83"/>
+      <c r="K630" s="84"/>
     </row>
     <row r="631">
-      <c r="J631" s="82"/>
-      <c r="K631" s="83"/>
+      <c r="J631" s="83"/>
+      <c r="K631" s="84"/>
     </row>
     <row r="632">
-      <c r="J632" s="82"/>
-      <c r="K632" s="83"/>
+      <c r="J632" s="83"/>
+      <c r="K632" s="84"/>
     </row>
     <row r="633">
-      <c r="J633" s="82"/>
-      <c r="K633" s="83"/>
+      <c r="J633" s="83"/>
+      <c r="K633" s="84"/>
     </row>
     <row r="634">
-      <c r="J634" s="82"/>
-      <c r="K634" s="83"/>
+      <c r="J634" s="83"/>
+      <c r="K634" s="84"/>
     </row>
     <row r="635">
-      <c r="J635" s="82"/>
-      <c r="K635" s="83"/>
+      <c r="J635" s="83"/>
+      <c r="K635" s="84"/>
     </row>
     <row r="636">
-      <c r="J636" s="82"/>
-      <c r="K636" s="83"/>
+      <c r="J636" s="83"/>
+      <c r="K636" s="84"/>
     </row>
     <row r="637">
-      <c r="J637" s="82"/>
-      <c r="K637" s="83"/>
+      <c r="J637" s="83"/>
+      <c r="K637" s="84"/>
     </row>
     <row r="638">
-      <c r="J638" s="82"/>
-      <c r="K638" s="83"/>
+      <c r="J638" s="83"/>
+      <c r="K638" s="84"/>
     </row>
     <row r="639">
-      <c r="J639" s="82"/>
-      <c r="K639" s="83"/>
+      <c r="J639" s="83"/>
+      <c r="K639" s="84"/>
     </row>
     <row r="640">
-      <c r="J640" s="82"/>
-      <c r="K640" s="83"/>
+      <c r="J640" s="83"/>
+      <c r="K640" s="84"/>
     </row>
     <row r="641">
-      <c r="J641" s="82"/>
-      <c r="K641" s="83"/>
+      <c r="J641" s="83"/>
+      <c r="K641" s="84"/>
     </row>
     <row r="642">
-      <c r="J642" s="82"/>
-      <c r="K642" s="83"/>
+      <c r="J642" s="83"/>
+      <c r="K642" s="84"/>
     </row>
     <row r="643">
-      <c r="J643" s="82"/>
-      <c r="K643" s="83"/>
+      <c r="J643" s="83"/>
+      <c r="K643" s="84"/>
     </row>
     <row r="644">
-      <c r="J644" s="82"/>
-      <c r="K644" s="83"/>
+      <c r="J644" s="83"/>
+      <c r="K644" s="84"/>
     </row>
     <row r="645">
-      <c r="J645" s="82"/>
-      <c r="K645" s="83"/>
+      <c r="J645" s="83"/>
+      <c r="K645" s="84"/>
     </row>
     <row r="646">
-      <c r="J646" s="82"/>
-      <c r="K646" s="83"/>
+      <c r="J646" s="83"/>
+      <c r="K646" s="84"/>
     </row>
     <row r="647">
-      <c r="J647" s="82"/>
-      <c r="K647" s="83"/>
+      <c r="J647" s="83"/>
+      <c r="K647" s="84"/>
     </row>
     <row r="648">
-      <c r="J648" s="82"/>
-      <c r="K648" s="83"/>
+      <c r="J648" s="83"/>
+      <c r="K648" s="84"/>
     </row>
     <row r="649">
-      <c r="J649" s="82"/>
-      <c r="K649" s="83"/>
+      <c r="J649" s="83"/>
+      <c r="K649" s="84"/>
     </row>
     <row r="650">
-      <c r="J650" s="82"/>
-      <c r="K650" s="83"/>
+      <c r="J650" s="83"/>
+      <c r="K650" s="84"/>
     </row>
     <row r="651">
-      <c r="J651" s="82"/>
-      <c r="K651" s="83"/>
+      <c r="J651" s="83"/>
+      <c r="K651" s="84"/>
     </row>
     <row r="652">
-      <c r="J652" s="82"/>
-      <c r="K652" s="83"/>
+      <c r="J652" s="83"/>
+      <c r="K652" s="84"/>
     </row>
     <row r="653">
-      <c r="J653" s="82"/>
-      <c r="K653" s="83"/>
+      <c r="J653" s="83"/>
+      <c r="K653" s="84"/>
     </row>
     <row r="654">
-      <c r="J654" s="82"/>
-      <c r="K654" s="83"/>
+      <c r="J654" s="83"/>
+      <c r="K654" s="84"/>
     </row>
     <row r="655">
-      <c r="J655" s="82"/>
-      <c r="K655" s="83"/>
+      <c r="J655" s="83"/>
+      <c r="K655" s="84"/>
     </row>
     <row r="656">
-      <c r="J656" s="82"/>
-      <c r="K656" s="83"/>
+      <c r="J656" s="83"/>
+      <c r="K656" s="84"/>
     </row>
     <row r="657">
-      <c r="J657" s="82"/>
-      <c r="K657" s="83"/>
+      <c r="J657" s="83"/>
+      <c r="K657" s="84"/>
     </row>
     <row r="658">
-      <c r="J658" s="82"/>
-      <c r="K658" s="83"/>
+      <c r="J658" s="83"/>
+      <c r="K658" s="84"/>
     </row>
     <row r="659">
-      <c r="J659" s="82"/>
-      <c r="K659" s="83"/>
+      <c r="J659" s="83"/>
+      <c r="K659" s="84"/>
     </row>
     <row r="660">
-      <c r="J660" s="82"/>
-      <c r="K660" s="83"/>
+      <c r="J660" s="83"/>
+      <c r="K660" s="84"/>
     </row>
     <row r="661">
-      <c r="J661" s="82"/>
-      <c r="K661" s="83"/>
+      <c r="J661" s="83"/>
+      <c r="K661" s="84"/>
     </row>
     <row r="662">
-      <c r="J662" s="82"/>
-      <c r="K662" s="83"/>
+      <c r="J662" s="83"/>
+      <c r="K662" s="84"/>
     </row>
     <row r="663">
-      <c r="J663" s="82"/>
-      <c r="K663" s="83"/>
+      <c r="J663" s="83"/>
+      <c r="K663" s="84"/>
     </row>
     <row r="664">
-      <c r="J664" s="82"/>
-      <c r="K664" s="83"/>
+      <c r="J664" s="83"/>
+      <c r="K664" s="84"/>
     </row>
     <row r="665">
-      <c r="J665" s="82"/>
-      <c r="K665" s="83"/>
+      <c r="J665" s="83"/>
+      <c r="K665" s="84"/>
     </row>
     <row r="666">
-      <c r="J666" s="82"/>
-      <c r="K666" s="83"/>
+      <c r="J666" s="83"/>
+      <c r="K666" s="84"/>
     </row>
     <row r="667">
-      <c r="J667" s="82"/>
-      <c r="K667" s="83"/>
+      <c r="J667" s="83"/>
+      <c r="K667" s="84"/>
     </row>
     <row r="668">
-      <c r="J668" s="82"/>
-      <c r="K668" s="83"/>
+      <c r="J668" s="83"/>
+      <c r="K668" s="84"/>
     </row>
     <row r="669">
-      <c r="J669" s="82"/>
-      <c r="K669" s="83"/>
+      <c r="J669" s="83"/>
+      <c r="K669" s="84"/>
     </row>
     <row r="670">
-      <c r="J670" s="82"/>
-      <c r="K670" s="83"/>
+      <c r="J670" s="83"/>
+      <c r="K670" s="84"/>
     </row>
     <row r="671">
-      <c r="J671" s="82"/>
-      <c r="K671" s="83"/>
+      <c r="J671" s="83"/>
+      <c r="K671" s="84"/>
     </row>
     <row r="672">
-      <c r="J672" s="82"/>
-      <c r="K672" s="83"/>
+      <c r="J672" s="83"/>
+      <c r="K672" s="84"/>
     </row>
     <row r="673">
-      <c r="J673" s="82"/>
-      <c r="K673" s="83"/>
+      <c r="J673" s="83"/>
+      <c r="K673" s="84"/>
     </row>
     <row r="674">
-      <c r="J674" s="82"/>
-      <c r="K674" s="83"/>
+      <c r="J674" s="83"/>
+      <c r="K674" s="84"/>
     </row>
     <row r="675">
-      <c r="J675" s="82"/>
-      <c r="K675" s="83"/>
+      <c r="J675" s="83"/>
+      <c r="K675" s="84"/>
     </row>
     <row r="676">
-      <c r="J676" s="82"/>
-      <c r="K676" s="83"/>
+      <c r="J676" s="83"/>
+      <c r="K676" s="84"/>
     </row>
     <row r="677">
-      <c r="J677" s="82"/>
-      <c r="K677" s="83"/>
+      <c r="J677" s="83"/>
+      <c r="K677" s="84"/>
     </row>
     <row r="678">
-      <c r="J678" s="82"/>
-      <c r="K678" s="83"/>
+      <c r="J678" s="83"/>
+      <c r="K678" s="84"/>
     </row>
     <row r="679">
-      <c r="J679" s="82"/>
-      <c r="K679" s="83"/>
+      <c r="J679" s="83"/>
+      <c r="K679" s="84"/>
     </row>
     <row r="680">
-      <c r="J680" s="82"/>
-      <c r="K680" s="83"/>
+      <c r="J680" s="83"/>
+      <c r="K680" s="84"/>
     </row>
     <row r="681">
-      <c r="J681" s="82"/>
-      <c r="K681" s="83"/>
+      <c r="J681" s="83"/>
+      <c r="K681" s="84"/>
     </row>
     <row r="682">
-      <c r="J682" s="82"/>
-      <c r="K682" s="83"/>
+      <c r="J682" s="83"/>
+      <c r="K682" s="84"/>
     </row>
     <row r="683">
-      <c r="J683" s="82"/>
-      <c r="K683" s="83"/>
+      <c r="J683" s="83"/>
+      <c r="K683" s="84"/>
     </row>
     <row r="684">
-      <c r="J684" s="82"/>
-      <c r="K684" s="83"/>
+      <c r="J684" s="83"/>
+      <c r="K684" s="84"/>
     </row>
     <row r="685">
-      <c r="J685" s="82"/>
-      <c r="K685" s="83"/>
+      <c r="J685" s="83"/>
+      <c r="K685" s="84"/>
     </row>
     <row r="686">
-      <c r="J686" s="82"/>
-      <c r="K686" s="83"/>
+      <c r="J686" s="83"/>
+      <c r="K686" s="84"/>
     </row>
     <row r="687">
-      <c r="J687" s="82"/>
-      <c r="K687" s="83"/>
+      <c r="J687" s="83"/>
+      <c r="K687" s="84"/>
     </row>
     <row r="688">
-      <c r="J688" s="82"/>
-      <c r="K688" s="83"/>
+      <c r="J688" s="83"/>
+      <c r="K688" s="84"/>
     </row>
     <row r="689">
-      <c r="J689" s="82"/>
-      <c r="K689" s="83"/>
+      <c r="J689" s="83"/>
+      <c r="K689" s="84"/>
     </row>
     <row r="690">
-      <c r="J690" s="82"/>
-      <c r="K690" s="83"/>
+      <c r="J690" s="83"/>
+      <c r="K690" s="84"/>
     </row>
     <row r="691">
-      <c r="J691" s="82"/>
-      <c r="K691" s="83"/>
+      <c r="J691" s="83"/>
+      <c r="K691" s="84"/>
     </row>
     <row r="692">
-      <c r="J692" s="82"/>
-      <c r="K692" s="83"/>
+      <c r="J692" s="83"/>
+      <c r="K692" s="84"/>
     </row>
     <row r="693">
-      <c r="J693" s="82"/>
-      <c r="K693" s="83"/>
+      <c r="J693" s="83"/>
+      <c r="K693" s="84"/>
     </row>
     <row r="694">
-      <c r="J694" s="82"/>
-      <c r="K694" s="83"/>
+      <c r="J694" s="83"/>
+      <c r="K694" s="84"/>
     </row>
     <row r="695">
-      <c r="J695" s="82"/>
-      <c r="K695" s="83"/>
+      <c r="J695" s="83"/>
+      <c r="K695" s="84"/>
     </row>
     <row r="696">
-      <c r="J696" s="82"/>
-      <c r="K696" s="83"/>
+      <c r="J696" s="83"/>
+      <c r="K696" s="84"/>
     </row>
     <row r="697">
-      <c r="J697" s="82"/>
-      <c r="K697" s="83"/>
+      <c r="J697" s="83"/>
+      <c r="K697" s="84"/>
     </row>
     <row r="698">
-      <c r="J698" s="82"/>
-      <c r="K698" s="83"/>
+      <c r="J698" s="83"/>
+      <c r="K698" s="84"/>
     </row>
     <row r="699">
-      <c r="J699" s="82"/>
-      <c r="K699" s="83"/>
+      <c r="J699" s="83"/>
+      <c r="K699" s="84"/>
     </row>
     <row r="700">
-      <c r="J700" s="82"/>
-      <c r="K700" s="83"/>
+      <c r="J700" s="83"/>
+      <c r="K700" s="84"/>
     </row>
     <row r="701">
-      <c r="J701" s="82"/>
-      <c r="K701" s="83"/>
+      <c r="J701" s="83"/>
+      <c r="K701" s="84"/>
     </row>
     <row r="702">
-      <c r="J702" s="82"/>
-      <c r="K702" s="83"/>
+      <c r="J702" s="83"/>
+      <c r="K702" s="84"/>
     </row>
     <row r="703">
-      <c r="J703" s="82"/>
-      <c r="K703" s="83"/>
+      <c r="J703" s="83"/>
+      <c r="K703" s="84"/>
     </row>
     <row r="704">
-      <c r="J704" s="82"/>
-      <c r="K704" s="83"/>
+      <c r="J704" s="83"/>
+      <c r="K704" s="84"/>
     </row>
     <row r="705">
-      <c r="J705" s="82"/>
-      <c r="K705" s="83"/>
+      <c r="J705" s="83"/>
+      <c r="K705" s="84"/>
     </row>
     <row r="706">
-      <c r="J706" s="82"/>
-      <c r="K706" s="83"/>
+      <c r="J706" s="83"/>
+      <c r="K706" s="84"/>
     </row>
     <row r="707">
-      <c r="J707" s="82"/>
-      <c r="K707" s="83"/>
+      <c r="J707" s="83"/>
+      <c r="K707" s="84"/>
     </row>
     <row r="708">
-      <c r="J708" s="82"/>
-      <c r="K708" s="83"/>
+      <c r="J708" s="83"/>
+      <c r="K708" s="84"/>
     </row>
     <row r="709">
-      <c r="J709" s="82"/>
-      <c r="K709" s="83"/>
+      <c r="J709" s="83"/>
+      <c r="K709" s="84"/>
     </row>
     <row r="710">
-      <c r="J710" s="82"/>
-      <c r="K710" s="83"/>
+      <c r="J710" s="83"/>
+      <c r="K710" s="84"/>
     </row>
     <row r="711">
-      <c r="J711" s="82"/>
-      <c r="K711" s="83"/>
+      <c r="J711" s="83"/>
+      <c r="K711" s="84"/>
     </row>
     <row r="712">
-      <c r="J712" s="82"/>
-      <c r="K712" s="83"/>
+      <c r="J712" s="83"/>
+      <c r="K712" s="84"/>
     </row>
     <row r="713">
-      <c r="J713" s="82"/>
-      <c r="K713" s="83"/>
+      <c r="J713" s="83"/>
+      <c r="K713" s="84"/>
     </row>
     <row r="714">
-      <c r="J714" s="82"/>
-      <c r="K714" s="83"/>
+      <c r="J714" s="83"/>
+      <c r="K714" s="84"/>
     </row>
     <row r="715">
-      <c r="J715" s="82"/>
-      <c r="K715" s="83"/>
+      <c r="J715" s="83"/>
+      <c r="K715" s="84"/>
     </row>
     <row r="716">
-      <c r="J716" s="82"/>
-      <c r="K716" s="83"/>
+      <c r="J716" s="83"/>
+      <c r="K716" s="84"/>
     </row>
     <row r="717">
-      <c r="J717" s="82"/>
-      <c r="K717" s="83"/>
+      <c r="J717" s="83"/>
+      <c r="K717" s="84"/>
     </row>
     <row r="718">
-      <c r="J718" s="82"/>
-      <c r="K718" s="83"/>
+      <c r="J718" s="83"/>
+      <c r="K718" s="84"/>
     </row>
     <row r="719">
-      <c r="J719" s="82"/>
-      <c r="K719" s="83"/>
+      <c r="J719" s="83"/>
+      <c r="K719" s="84"/>
     </row>
     <row r="720">
-      <c r="J720" s="82"/>
-      <c r="K720" s="83"/>
+      <c r="J720" s="83"/>
+      <c r="K720" s="84"/>
     </row>
     <row r="721">
-      <c r="J721" s="82"/>
-      <c r="K721" s="83"/>
+      <c r="J721" s="83"/>
+      <c r="K721" s="84"/>
     </row>
     <row r="722">
-      <c r="J722" s="82"/>
-      <c r="K722" s="83"/>
+      <c r="J722" s="83"/>
+      <c r="K722" s="84"/>
     </row>
     <row r="723">
-      <c r="J723" s="82"/>
-      <c r="K723" s="83"/>
+      <c r="J723" s="83"/>
+      <c r="K723" s="84"/>
     </row>
     <row r="724">
-      <c r="J724" s="82"/>
-      <c r="K724" s="83"/>
+      <c r="J724" s="83"/>
+      <c r="K724" s="84"/>
     </row>
     <row r="725">
-      <c r="J725" s="82"/>
-      <c r="K725" s="83"/>
+      <c r="J725" s="83"/>
+      <c r="K725" s="84"/>
     </row>
     <row r="726">
-      <c r="J726" s="82"/>
-      <c r="K726" s="83"/>
+      <c r="J726" s="83"/>
+      <c r="K726" s="84"/>
     </row>
     <row r="727">
-      <c r="J727" s="82"/>
-      <c r="K727" s="83"/>
+      <c r="J727" s="83"/>
+      <c r="K727" s="84"/>
     </row>
     <row r="728">
-      <c r="J728" s="82"/>
-      <c r="K728" s="83"/>
+      <c r="J728" s="83"/>
+      <c r="K728" s="84"/>
     </row>
     <row r="729">
-      <c r="J729" s="82"/>
-      <c r="K729" s="83"/>
+      <c r="J729" s="83"/>
+      <c r="K729" s="84"/>
     </row>
     <row r="730">
-      <c r="J730" s="82"/>
-      <c r="K730" s="83"/>
+      <c r="J730" s="83"/>
+      <c r="K730" s="84"/>
     </row>
     <row r="731">
-      <c r="J731" s="82"/>
-      <c r="K731" s="83"/>
+      <c r="J731" s="83"/>
+      <c r="K731" s="84"/>
     </row>
     <row r="732">
-      <c r="J732" s="82"/>
-      <c r="K732" s="83"/>
+      <c r="J732" s="83"/>
+      <c r="K732" s="84"/>
     </row>
     <row r="733">
-      <c r="J733" s="82"/>
-      <c r="K733" s="83"/>
+      <c r="J733" s="83"/>
+      <c r="K733" s="84"/>
     </row>
     <row r="734">
-      <c r="J734" s="82"/>
-      <c r="K734" s="83"/>
+      <c r="J734" s="83"/>
+      <c r="K734" s="84"/>
     </row>
     <row r="735">
-      <c r="J735" s="82"/>
-      <c r="K735" s="83"/>
+      <c r="J735" s="83"/>
+      <c r="K735" s="84"/>
     </row>
     <row r="736">
-      <c r="J736" s="82"/>
-      <c r="K736" s="83"/>
+      <c r="J736" s="83"/>
+      <c r="K736" s="84"/>
     </row>
     <row r="737">
-      <c r="J737" s="82"/>
-      <c r="K737" s="83"/>
+      <c r="J737" s="83"/>
+      <c r="K737" s="84"/>
     </row>
     <row r="738">
-      <c r="J738" s="82"/>
-      <c r="K738" s="83"/>
+      <c r="J738" s="83"/>
+      <c r="K738" s="84"/>
     </row>
     <row r="739">
-      <c r="J739" s="82"/>
-      <c r="K739" s="83"/>
+      <c r="J739" s="83"/>
+      <c r="K739" s="84"/>
     </row>
     <row r="740">
-      <c r="J740" s="82"/>
-      <c r="K740" s="83"/>
+      <c r="J740" s="83"/>
+      <c r="K740" s="84"/>
     </row>
     <row r="741">
-      <c r="J741" s="82"/>
-      <c r="K741" s="83"/>
+      <c r="J741" s="83"/>
+      <c r="K741" s="84"/>
     </row>
     <row r="742">
-      <c r="J742" s="82"/>
-      <c r="K742" s="83"/>
+      <c r="J742" s="83"/>
+      <c r="K742" s="84"/>
     </row>
     <row r="743">
-      <c r="J743" s="82"/>
-      <c r="K743" s="83"/>
+      <c r="J743" s="83"/>
+      <c r="K743" s="84"/>
     </row>
     <row r="744">
-      <c r="J744" s="82"/>
-      <c r="K744" s="83"/>
+      <c r="J744" s="83"/>
+      <c r="K744" s="84"/>
     </row>
     <row r="745">
-      <c r="J745" s="82"/>
-      <c r="K745" s="83"/>
+      <c r="J745" s="83"/>
+      <c r="K745" s="84"/>
     </row>
     <row r="746">
-      <c r="J746" s="82"/>
-      <c r="K746" s="83"/>
+      <c r="J746" s="83"/>
+      <c r="K746" s="84"/>
     </row>
     <row r="747">
-      <c r="J747" s="82"/>
-      <c r="K747" s="83"/>
+      <c r="J747" s="83"/>
+      <c r="K747" s="84"/>
     </row>
     <row r="748">
-      <c r="J748" s="82"/>
-      <c r="K748" s="83"/>
+      <c r="J748" s="83"/>
+      <c r="K748" s="84"/>
     </row>
     <row r="749">
-      <c r="J749" s="82"/>
-      <c r="K749" s="83"/>
+      <c r="J749" s="83"/>
+      <c r="K749" s="84"/>
     </row>
     <row r="750">
-      <c r="J750" s="82"/>
-      <c r="K750" s="83"/>
+      <c r="J750" s="83"/>
+      <c r="K750" s="84"/>
     </row>
     <row r="751">
-      <c r="J751" s="82"/>
-      <c r="K751" s="83"/>
+      <c r="J751" s="83"/>
+      <c r="K751" s="84"/>
     </row>
     <row r="752">
-      <c r="J752" s="82"/>
-      <c r="K752" s="83"/>
+      <c r="J752" s="83"/>
+      <c r="K752" s="84"/>
     </row>
     <row r="753">
-      <c r="J753" s="82"/>
-      <c r="K753" s="83"/>
+      <c r="J753" s="83"/>
+      <c r="K753" s="84"/>
     </row>
     <row r="754">
-      <c r="J754" s="82"/>
-      <c r="K754" s="83"/>
+      <c r="J754" s="83"/>
+      <c r="K754" s="84"/>
     </row>
     <row r="755">
-      <c r="J755" s="82"/>
-      <c r="K755" s="83"/>
+      <c r="J755" s="83"/>
+      <c r="K755" s="84"/>
     </row>
     <row r="756">
-      <c r="J756" s="82"/>
-      <c r="K756" s="83"/>
+      <c r="J756" s="83"/>
+      <c r="K756" s="84"/>
     </row>
     <row r="757">
-      <c r="J757" s="82"/>
-      <c r="K757" s="83"/>
+      <c r="J757" s="83"/>
+      <c r="K757" s="84"/>
     </row>
     <row r="758">
-      <c r="J758" s="82"/>
-      <c r="K758" s="83"/>
+      <c r="J758" s="83"/>
+      <c r="K758" s="84"/>
     </row>
     <row r="759">
-      <c r="J759" s="82"/>
-      <c r="K759" s="83"/>
+      <c r="J759" s="83"/>
+      <c r="K759" s="84"/>
     </row>
     <row r="760">
-      <c r="J760" s="82"/>
-      <c r="K760" s="83"/>
+      <c r="J760" s="83"/>
+      <c r="K760" s="84"/>
     </row>
     <row r="761">
-      <c r="J761" s="82"/>
-      <c r="K761" s="83"/>
+      <c r="J761" s="83"/>
+      <c r="K761" s="84"/>
     </row>
     <row r="762">
-      <c r="J762" s="82"/>
-      <c r="K762" s="83"/>
+      <c r="J762" s="83"/>
+      <c r="K762" s="84"/>
     </row>
     <row r="763">
-      <c r="J763" s="82"/>
-      <c r="K763" s="83"/>
+      <c r="J763" s="83"/>
+      <c r="K763" s="84"/>
     </row>
     <row r="764">
-      <c r="J764" s="82"/>
-      <c r="K764" s="83"/>
+      <c r="J764" s="83"/>
+      <c r="K764" s="84"/>
     </row>
     <row r="765">
-      <c r="J765" s="82"/>
-      <c r="K765" s="83"/>
+      <c r="J765" s="83"/>
+      <c r="K765" s="84"/>
     </row>
     <row r="766">
-      <c r="J766" s="82"/>
-      <c r="K766" s="83"/>
+      <c r="J766" s="83"/>
+      <c r="K766" s="84"/>
     </row>
     <row r="767">
-      <c r="J767" s="82"/>
-      <c r="K767" s="83"/>
+      <c r="J767" s="83"/>
+      <c r="K767" s="84"/>
     </row>
     <row r="768">
-      <c r="J768" s="82"/>
-      <c r="K768" s="83"/>
+      <c r="J768" s="83"/>
+      <c r="K768" s="84"/>
     </row>
     <row r="769">
-      <c r="J769" s="82"/>
-      <c r="K769" s="83"/>
+      <c r="J769" s="83"/>
+      <c r="K769" s="84"/>
     </row>
     <row r="770">
-      <c r="J770" s="82"/>
-      <c r="K770" s="83"/>
+      <c r="J770" s="83"/>
+      <c r="K770" s="84"/>
     </row>
     <row r="771">
-      <c r="J771" s="82"/>
-      <c r="K771" s="83"/>
+      <c r="J771" s="83"/>
+      <c r="K771" s="84"/>
     </row>
     <row r="772">
-      <c r="J772" s="82"/>
-      <c r="K772" s="83"/>
+      <c r="J772" s="83"/>
+      <c r="K772" s="84"/>
     </row>
     <row r="773">
-      <c r="J773" s="82"/>
-      <c r="K773" s="83"/>
+      <c r="J773" s="83"/>
+      <c r="K773" s="84"/>
     </row>
     <row r="774">
-      <c r="J774" s="82"/>
-      <c r="K774" s="83"/>
+      <c r="J774" s="83"/>
+      <c r="K774" s="84"/>
     </row>
     <row r="775">
-      <c r="J775" s="82"/>
-      <c r="K775" s="83"/>
+      <c r="J775" s="83"/>
+      <c r="K775" s="84"/>
     </row>
     <row r="776">
-      <c r="J776" s="82"/>
-      <c r="K776" s="83"/>
+      <c r="J776" s="83"/>
+      <c r="K776" s="84"/>
     </row>
     <row r="777">
-      <c r="J777" s="82"/>
-      <c r="K777" s="83"/>
+      <c r="J777" s="83"/>
+      <c r="K777" s="84"/>
     </row>
     <row r="778">
-      <c r="J778" s="82"/>
-      <c r="K778" s="83"/>
+      <c r="J778" s="83"/>
+      <c r="K778" s="84"/>
     </row>
     <row r="779">
-      <c r="J779" s="82"/>
-      <c r="K779" s="83"/>
+      <c r="J779" s="83"/>
+      <c r="K779" s="84"/>
     </row>
     <row r="780">
-      <c r="J780" s="82"/>
-      <c r="K780" s="83"/>
+      <c r="J780" s="83"/>
+      <c r="K780" s="84"/>
     </row>
     <row r="781">
-      <c r="J781" s="82"/>
-      <c r="K781" s="83"/>
+      <c r="J781" s="83"/>
+      <c r="K781" s="84"/>
     </row>
     <row r="782">
-      <c r="J782" s="82"/>
-      <c r="K782" s="83"/>
+      <c r="J782" s="83"/>
+      <c r="K782" s="84"/>
     </row>
     <row r="783">
-      <c r="J783" s="82"/>
-      <c r="K783" s="83"/>
+      <c r="J783" s="83"/>
+      <c r="K783" s="84"/>
     </row>
     <row r="784">
-      <c r="J784" s="82"/>
-      <c r="K784" s="83"/>
+      <c r="J784" s="83"/>
+      <c r="K784" s="84"/>
     </row>
     <row r="785">
-      <c r="J785" s="82"/>
-      <c r="K785" s="83"/>
+      <c r="J785" s="83"/>
+      <c r="K785" s="84"/>
     </row>
     <row r="786">
-      <c r="J786" s="82"/>
-      <c r="K786" s="83"/>
+      <c r="J786" s="83"/>
+      <c r="K786" s="84"/>
     </row>
     <row r="787">
-      <c r="J787" s="82"/>
-      <c r="K787" s="83"/>
+      <c r="J787" s="83"/>
+      <c r="K787" s="84"/>
     </row>
     <row r="788">
-      <c r="J788" s="82"/>
-      <c r="K788" s="83"/>
+      <c r="J788" s="83"/>
+      <c r="K788" s="84"/>
     </row>
     <row r="789">
-      <c r="J789" s="82"/>
-      <c r="K789" s="83"/>
+      <c r="J789" s="83"/>
+      <c r="K789" s="84"/>
     </row>
     <row r="790">
-      <c r="J790" s="82"/>
-      <c r="K790" s="83"/>
+      <c r="J790" s="83"/>
+      <c r="K790" s="84"/>
     </row>
     <row r="791">
-      <c r="J791" s="82"/>
-      <c r="K791" s="83"/>
+      <c r="J791" s="83"/>
+      <c r="K791" s="84"/>
     </row>
     <row r="792">
-      <c r="J792" s="82"/>
-      <c r="K792" s="83"/>
+      <c r="J792" s="83"/>
+      <c r="K792" s="84"/>
     </row>
     <row r="793">
-      <c r="J793" s="82"/>
-      <c r="K793" s="83"/>
+      <c r="J793" s="83"/>
+      <c r="K793" s="84"/>
     </row>
     <row r="794">
-      <c r="J794" s="82"/>
-      <c r="K794" s="83"/>
+      <c r="J794" s="83"/>
+      <c r="K794" s="84"/>
     </row>
     <row r="795">
-      <c r="J795" s="82"/>
-      <c r="K795" s="83"/>
+      <c r="J795" s="83"/>
+      <c r="K795" s="84"/>
     </row>
     <row r="796">
-      <c r="J796" s="82"/>
-      <c r="K796" s="83"/>
+      <c r="J796" s="83"/>
+      <c r="K796" s="84"/>
     </row>
     <row r="797">
-      <c r="J797" s="82"/>
-      <c r="K797" s="83"/>
+      <c r="J797" s="83"/>
+      <c r="K797" s="84"/>
     </row>
     <row r="798">
-      <c r="J798" s="82"/>
-      <c r="K798" s="83"/>
+      <c r="J798" s="83"/>
+      <c r="K798" s="84"/>
     </row>
     <row r="799">
-      <c r="J799" s="82"/>
-      <c r="K799" s="83"/>
+      <c r="J799" s="83"/>
+      <c r="K799" s="84"/>
     </row>
     <row r="800">
-      <c r="J800" s="82"/>
-      <c r="K800" s="83"/>
+      <c r="J800" s="83"/>
+      <c r="K800" s="84"/>
     </row>
     <row r="801">
-      <c r="J801" s="82"/>
-      <c r="K801" s="83"/>
+      <c r="J801" s="83"/>
+      <c r="K801" s="84"/>
     </row>
     <row r="802">
-      <c r="J802" s="82"/>
-      <c r="K802" s="83"/>
+      <c r="J802" s="83"/>
+      <c r="K802" s="84"/>
     </row>
     <row r="803">
-      <c r="J803" s="82"/>
-      <c r="K803" s="83"/>
+      <c r="J803" s="83"/>
+      <c r="K803" s="84"/>
     </row>
     <row r="804">
-      <c r="J804" s="82"/>
-      <c r="K804" s="83"/>
+      <c r="J804" s="83"/>
+      <c r="K804" s="84"/>
     </row>
     <row r="805">
-      <c r="J805" s="82"/>
-      <c r="K805" s="83"/>
+      <c r="J805" s="83"/>
+      <c r="K805" s="84"/>
     </row>
     <row r="806">
-      <c r="J806" s="82"/>
-      <c r="K806" s="83"/>
+      <c r="J806" s="83"/>
+      <c r="K806" s="84"/>
     </row>
     <row r="807">
-      <c r="J807" s="82"/>
-      <c r="K807" s="83"/>
+      <c r="J807" s="83"/>
+      <c r="K807" s="84"/>
     </row>
     <row r="808">
-      <c r="J808" s="82"/>
-      <c r="K808" s="83"/>
+      <c r="J808" s="83"/>
+      <c r="K808" s="84"/>
     </row>
     <row r="809">
-      <c r="J809" s="82"/>
-      <c r="K809" s="83"/>
+      <c r="J809" s="83"/>
+      <c r="K809" s="84"/>
     </row>
     <row r="810">
-      <c r="J810" s="82"/>
-      <c r="K810" s="83"/>
+      <c r="J810" s="83"/>
+      <c r="K810" s="84"/>
     </row>
     <row r="811">
-      <c r="J811" s="82"/>
-      <c r="K811" s="83"/>
+      <c r="J811" s="83"/>
+      <c r="K811" s="84"/>
     </row>
     <row r="812">
-      <c r="J812" s="82"/>
-      <c r="K812" s="83"/>
+      <c r="J812" s="83"/>
+      <c r="K812" s="84"/>
     </row>
     <row r="813">
-      <c r="J813" s="82"/>
-      <c r="K813" s="83"/>
+      <c r="J813" s="83"/>
+      <c r="K813" s="84"/>
     </row>
     <row r="814">
-      <c r="J814" s="82"/>
-      <c r="K814" s="83"/>
+      <c r="J814" s="83"/>
+      <c r="K814" s="84"/>
     </row>
     <row r="815">
-      <c r="J815" s="82"/>
-      <c r="K815" s="83"/>
+      <c r="J815" s="83"/>
+      <c r="K815" s="84"/>
     </row>
     <row r="816">
-      <c r="J816" s="82"/>
-      <c r="K816" s="83"/>
+      <c r="J816" s="83"/>
+      <c r="K816" s="84"/>
     </row>
     <row r="817">
-      <c r="J817" s="82"/>
-      <c r="K817" s="83"/>
+      <c r="J817" s="83"/>
+      <c r="K817" s="84"/>
     </row>
     <row r="818">
-      <c r="J818" s="82"/>
-      <c r="K818" s="83"/>
+      <c r="J818" s="83"/>
+      <c r="K818" s="84"/>
     </row>
     <row r="819">
-      <c r="J819" s="82"/>
-      <c r="K819" s="83"/>
+      <c r="J819" s="83"/>
+      <c r="K819" s="84"/>
     </row>
     <row r="820">
-      <c r="J820" s="82"/>
-      <c r="K820" s="83"/>
+      <c r="J820" s="83"/>
+      <c r="K820" s="84"/>
     </row>
     <row r="821">
-      <c r="J821" s="82"/>
-      <c r="K821" s="83"/>
+      <c r="J821" s="83"/>
+      <c r="K821" s="84"/>
     </row>
     <row r="822">
-      <c r="J822" s="82"/>
-      <c r="K822" s="83"/>
+      <c r="J822" s="83"/>
+      <c r="K822" s="84"/>
     </row>
     <row r="823">
-      <c r="J823" s="82"/>
-      <c r="K823" s="83"/>
+      <c r="J823" s="83"/>
+      <c r="K823" s="84"/>
     </row>
     <row r="824">
-      <c r="J824" s="82"/>
-      <c r="K824" s="83"/>
+      <c r="J824" s="83"/>
+      <c r="K824" s="84"/>
     </row>
     <row r="825">
-      <c r="J825" s="82"/>
-      <c r="K825" s="83"/>
+      <c r="J825" s="83"/>
+      <c r="K825" s="84"/>
     </row>
     <row r="826">
-      <c r="J826" s="82"/>
-      <c r="K826" s="83"/>
+      <c r="J826" s="83"/>
+      <c r="K826" s="84"/>
     </row>
     <row r="827">
-      <c r="J827" s="82"/>
-      <c r="K827" s="83"/>
+      <c r="J827" s="83"/>
+      <c r="K827" s="84"/>
     </row>
     <row r="828">
-      <c r="J828" s="82"/>
-      <c r="K828" s="83"/>
+      <c r="J828" s="83"/>
+      <c r="K828" s="84"/>
     </row>
     <row r="829">
-      <c r="J829" s="82"/>
-      <c r="K829" s="83"/>
+      <c r="J829" s="83"/>
+      <c r="K829" s="84"/>
     </row>
     <row r="830">
-      <c r="J830" s="82"/>
-      <c r="K830" s="83"/>
+      <c r="J830" s="83"/>
+      <c r="K830" s="84"/>
     </row>
     <row r="831">
-      <c r="J831" s="82"/>
-      <c r="K831" s="83"/>
+      <c r="J831" s="83"/>
+      <c r="K831" s="84"/>
     </row>
     <row r="832">
-      <c r="J832" s="82"/>
-      <c r="K832" s="83"/>
+      <c r="J832" s="83"/>
+      <c r="K832" s="84"/>
     </row>
     <row r="833">
-      <c r="J833" s="82"/>
-      <c r="K833" s="83"/>
+      <c r="J833" s="83"/>
+      <c r="K833" s="84"/>
     </row>
     <row r="834">
-      <c r="J834" s="82"/>
-      <c r="K834" s="83"/>
+      <c r="J834" s="83"/>
+      <c r="K834" s="84"/>
     </row>
     <row r="835">
-      <c r="J835" s="82"/>
-      <c r="K835" s="83"/>
+      <c r="J835" s="83"/>
+      <c r="K835" s="84"/>
     </row>
     <row r="836">
-      <c r="J836" s="82"/>
-      <c r="K836" s="83"/>
+      <c r="J836" s="83"/>
+      <c r="K836" s="84"/>
     </row>
     <row r="837">
-      <c r="J837" s="82"/>
-      <c r="K837" s="83"/>
+      <c r="J837" s="83"/>
+      <c r="K837" s="84"/>
     </row>
     <row r="838">
-      <c r="J838" s="82"/>
-      <c r="K838" s="83"/>
+      <c r="J838" s="83"/>
+      <c r="K838" s="84"/>
     </row>
     <row r="839">
-      <c r="J839" s="82"/>
-      <c r="K839" s="83"/>
+      <c r="J839" s="83"/>
+      <c r="K839" s="84"/>
     </row>
     <row r="840">
-      <c r="J840" s="82"/>
-      <c r="K840" s="83"/>
+      <c r="J840" s="83"/>
+      <c r="K840" s="84"/>
     </row>
     <row r="841">
-      <c r="J841" s="82"/>
-      <c r="K841" s="83"/>
+      <c r="J841" s="83"/>
+      <c r="K841" s="84"/>
     </row>
     <row r="842">
-      <c r="J842" s="82"/>
-      <c r="K842" s="83"/>
+      <c r="J842" s="83"/>
+      <c r="K842" s="84"/>
     </row>
     <row r="843">
-      <c r="J843" s="82"/>
-      <c r="K843" s="83"/>
+      <c r="J843" s="83"/>
+      <c r="K843" s="84"/>
     </row>
     <row r="844">
-      <c r="J844" s="82"/>
-      <c r="K844" s="83"/>
+      <c r="J844" s="83"/>
+      <c r="K844" s="84"/>
     </row>
     <row r="845">
-      <c r="J845" s="82"/>
-      <c r="K845" s="83"/>
+      <c r="J845" s="83"/>
+      <c r="K845" s="84"/>
     </row>
     <row r="846">
-      <c r="J846" s="82"/>
-      <c r="K846" s="83"/>
+      <c r="J846" s="83"/>
+      <c r="K846" s="84"/>
     </row>
     <row r="847">
-      <c r="J847" s="82"/>
-      <c r="K847" s="83"/>
+      <c r="J847" s="83"/>
+      <c r="K847" s="84"/>
     </row>
     <row r="848">
-      <c r="J848" s="82"/>
-      <c r="K848" s="83"/>
+      <c r="J848" s="83"/>
+      <c r="K848" s="84"/>
     </row>
     <row r="849">
-      <c r="J849" s="82"/>
-      <c r="K849" s="83"/>
+      <c r="J849" s="83"/>
+      <c r="K849" s="84"/>
     </row>
     <row r="850">
-      <c r="J850" s="82"/>
-      <c r="K850" s="83"/>
+      <c r="J850" s="83"/>
+      <c r="K850" s="84"/>
     </row>
     <row r="851">
-      <c r="J851" s="82"/>
-      <c r="K851" s="83"/>
+      <c r="J851" s="83"/>
+      <c r="K851" s="84"/>
     </row>
     <row r="852">
-      <c r="J852" s="82"/>
-      <c r="K852" s="83"/>
+      <c r="J852" s="83"/>
+      <c r="K852" s="84"/>
     </row>
     <row r="853">
-      <c r="J853" s="82"/>
-      <c r="K853" s="83"/>
+      <c r="J853" s="83"/>
+      <c r="K853" s="84"/>
     </row>
     <row r="854">
-      <c r="J854" s="82"/>
-      <c r="K854" s="83"/>
+      <c r="J854" s="83"/>
+      <c r="K854" s="84"/>
     </row>
     <row r="855">
-      <c r="J855" s="82"/>
-      <c r="K855" s="83"/>
+      <c r="J855" s="83"/>
+      <c r="K855" s="84"/>
     </row>
     <row r="856">
-      <c r="J856" s="82"/>
-      <c r="K856" s="83"/>
+      <c r="J856" s="83"/>
+      <c r="K856" s="84"/>
     </row>
     <row r="857">
-      <c r="J857" s="82"/>
-      <c r="K857" s="83"/>
+      <c r="J857" s="83"/>
+      <c r="K857" s="84"/>
     </row>
     <row r="858">
-      <c r="J858" s="82"/>
-      <c r="K858" s="83"/>
+      <c r="J858" s="83"/>
+      <c r="K858" s="84"/>
     </row>
     <row r="859">
-      <c r="J859" s="82"/>
-      <c r="K859" s="83"/>
+      <c r="J859" s="83"/>
+      <c r="K859" s="84"/>
     </row>
     <row r="860">
-      <c r="J860" s="82"/>
-      <c r="K860" s="83"/>
+      <c r="J860" s="83"/>
+      <c r="K860" s="84"/>
     </row>
     <row r="861">
-      <c r="J861" s="82"/>
-      <c r="K861" s="83"/>
+      <c r="J861" s="83"/>
+      <c r="K861" s="84"/>
     </row>
     <row r="862">
-      <c r="J862" s="82"/>
-      <c r="K862" s="83"/>
+      <c r="J862" s="83"/>
+      <c r="K862" s="84"/>
     </row>
     <row r="863">
-      <c r="J863" s="82"/>
-      <c r="K863" s="83"/>
+      <c r="J863" s="83"/>
+      <c r="K863" s="84"/>
     </row>
     <row r="864">
-      <c r="J864" s="82"/>
-      <c r="K864" s="83"/>
+      <c r="J864" s="83"/>
+      <c r="K864" s="84"/>
     </row>
     <row r="865">
-      <c r="J865" s="82"/>
-      <c r="K865" s="83"/>
+      <c r="J865" s="83"/>
+      <c r="K865" s="84"/>
     </row>
     <row r="866">
-      <c r="J866" s="82"/>
-      <c r="K866" s="83"/>
+      <c r="J866" s="83"/>
+      <c r="K866" s="84"/>
     </row>
     <row r="867">
-      <c r="J867" s="82"/>
-      <c r="K867" s="83"/>
+      <c r="J867" s="83"/>
+      <c r="K867" s="84"/>
     </row>
     <row r="868">
-      <c r="J868" s="82"/>
-      <c r="K868" s="83"/>
+      <c r="J868" s="83"/>
+      <c r="K868" s="84"/>
     </row>
     <row r="869">
-      <c r="J869" s="82"/>
-      <c r="K869" s="83"/>
+      <c r="J869" s="83"/>
+      <c r="K869" s="84"/>
     </row>
     <row r="870">
-      <c r="J870" s="82"/>
-      <c r="K870" s="83"/>
+      <c r="J870" s="83"/>
+      <c r="K870" s="84"/>
     </row>
     <row r="871">
-      <c r="J871" s="82"/>
-      <c r="K871" s="83"/>
+      <c r="J871" s="83"/>
+      <c r="K871" s="84"/>
     </row>
     <row r="872">
-      <c r="J872" s="82"/>
-      <c r="K872" s="83"/>
+      <c r="J872" s="83"/>
+      <c r="K872" s="84"/>
     </row>
     <row r="873">
-      <c r="J873" s="82"/>
-      <c r="K873" s="83"/>
+      <c r="J873" s="83"/>
+      <c r="K873" s="84"/>
     </row>
     <row r="874">
-      <c r="J874" s="82"/>
-      <c r="K874" s="83"/>
+      <c r="J874" s="83"/>
+      <c r="K874" s="84"/>
     </row>
     <row r="875">
-      <c r="J875" s="82"/>
-      <c r="K875" s="83"/>
+      <c r="J875" s="83"/>
+      <c r="K875" s="84"/>
     </row>
     <row r="876">
-      <c r="J876" s="82"/>
-      <c r="K876" s="83"/>
+      <c r="J876" s="83"/>
+      <c r="K876" s="84"/>
     </row>
     <row r="877">
-      <c r="J877" s="82"/>
-      <c r="K877" s="83"/>
+      <c r="J877" s="83"/>
+      <c r="K877" s="84"/>
     </row>
     <row r="878">
-      <c r="J878" s="82"/>
-      <c r="K878" s="83"/>
+      <c r="J878" s="83"/>
+      <c r="K878" s="84"/>
     </row>
     <row r="879">
-      <c r="J879" s="82"/>
-      <c r="K879" s="83"/>
+      <c r="J879" s="83"/>
+      <c r="K879" s="84"/>
     </row>
     <row r="880">
-      <c r="J880" s="82"/>
-      <c r="K880" s="83"/>
+      <c r="J880" s="83"/>
+      <c r="K880" s="84"/>
     </row>
     <row r="881">
-      <c r="J881" s="82"/>
-      <c r="K881" s="83"/>
+      <c r="J881" s="83"/>
+      <c r="K881" s="84"/>
     </row>
     <row r="882">
-      <c r="J882" s="82"/>
-      <c r="K882" s="83"/>
+      <c r="J882" s="83"/>
+      <c r="K882" s="84"/>
     </row>
     <row r="883">
-      <c r="J883" s="82"/>
-      <c r="K883" s="83"/>
+      <c r="J883" s="83"/>
+      <c r="K883" s="84"/>
     </row>
     <row r="884">
-      <c r="J884" s="82"/>
-      <c r="K884" s="83"/>
+      <c r="J884" s="83"/>
+      <c r="K884" s="84"/>
     </row>
     <row r="885">
-      <c r="J885" s="82"/>
-      <c r="K885" s="83"/>
+      <c r="J885" s="83"/>
+      <c r="K885" s="84"/>
     </row>
     <row r="886">
-      <c r="J886" s="82"/>
-      <c r="K886" s="83"/>
+      <c r="J886" s="83"/>
+      <c r="K886" s="84"/>
     </row>
     <row r="887">
-      <c r="J887" s="82"/>
-      <c r="K887" s="83"/>
+      <c r="J887" s="83"/>
+      <c r="K887" s="84"/>
     </row>
     <row r="888">
-      <c r="J888" s="82"/>
-      <c r="K888" s="83"/>
+      <c r="J888" s="83"/>
+      <c r="K888" s="84"/>
     </row>
     <row r="889">
-      <c r="J889" s="82"/>
-      <c r="K889" s="83"/>
+      <c r="J889" s="83"/>
+      <c r="K889" s="84"/>
     </row>
     <row r="890">
-      <c r="J890" s="82"/>
-      <c r="K890" s="83"/>
+      <c r="J890" s="83"/>
+      <c r="K890" s="84"/>
     </row>
     <row r="891">
-      <c r="J891" s="82"/>
-      <c r="K891" s="83"/>
+      <c r="J891" s="83"/>
+      <c r="K891" s="84"/>
     </row>
     <row r="892">
-      <c r="J892" s="82"/>
-      <c r="K892" s="83"/>
+      <c r="J892" s="83"/>
+      <c r="K892" s="84"/>
     </row>
     <row r="893">
-      <c r="J893" s="82"/>
-      <c r="K893" s="83"/>
+      <c r="J893" s="83"/>
+      <c r="K893" s="84"/>
     </row>
     <row r="894">
-      <c r="J894" s="82"/>
-      <c r="K894" s="83"/>
+      <c r="J894" s="83"/>
+      <c r="K894" s="84"/>
     </row>
     <row r="895">
-      <c r="J895" s="82"/>
-      <c r="K895" s="83"/>
+      <c r="J895" s="83"/>
+      <c r="K895" s="84"/>
     </row>
     <row r="896">
-      <c r="J896" s="82"/>
-      <c r="K896" s="83"/>
+      <c r="J896" s="83"/>
+      <c r="K896" s="84"/>
     </row>
     <row r="897">
-      <c r="J897" s="82"/>
-      <c r="K897" s="83"/>
+      <c r="J897" s="83"/>
+      <c r="K897" s="84"/>
     </row>
     <row r="898">
-      <c r="J898" s="82"/>
-      <c r="K898" s="83"/>
+      <c r="J898" s="83"/>
+      <c r="K898" s="84"/>
     </row>
     <row r="899">
-      <c r="J899" s="82"/>
-      <c r="K899" s="83"/>
+      <c r="J899" s="83"/>
+      <c r="K899" s="84"/>
     </row>
     <row r="900">
-      <c r="J900" s="82"/>
-      <c r="K900" s="83"/>
+      <c r="J900" s="83"/>
+      <c r="K900" s="84"/>
     </row>
     <row r="901">
-      <c r="J901" s="82"/>
-      <c r="K901" s="83"/>
+      <c r="J901" s="83"/>
+      <c r="K901" s="84"/>
     </row>
     <row r="902">
-      <c r="J902" s="82"/>
-      <c r="K902" s="83"/>
+      <c r="J902" s="83"/>
+      <c r="K902" s="84"/>
     </row>
     <row r="903">
-      <c r="J903" s="82"/>
-      <c r="K903" s="83"/>
+      <c r="J903" s="83"/>
+      <c r="K903" s="84"/>
     </row>
     <row r="904">
-      <c r="J904" s="82"/>
-      <c r="K904" s="83"/>
+      <c r="J904" s="83"/>
+      <c r="K904" s="84"/>
     </row>
     <row r="905">
-      <c r="J905" s="82"/>
-      <c r="K905" s="83"/>
+      <c r="J905" s="83"/>
+      <c r="K905" s="84"/>
     </row>
     <row r="906">
-      <c r="J906" s="82"/>
-      <c r="K906" s="83"/>
+      <c r="J906" s="83"/>
+      <c r="K906" s="84"/>
     </row>
     <row r="907">
-      <c r="J907" s="82"/>
-      <c r="K907" s="83"/>
+      <c r="J907" s="83"/>
+      <c r="K907" s="84"/>
     </row>
     <row r="908">
-      <c r="J908" s="82"/>
-      <c r="K908" s="83"/>
+      <c r="J908" s="83"/>
+      <c r="K908" s="84"/>
     </row>
     <row r="909">
-      <c r="J909" s="82"/>
-      <c r="K909" s="83"/>
+      <c r="J909" s="83"/>
+      <c r="K909" s="84"/>
     </row>
     <row r="910">
-      <c r="J910" s="82"/>
-      <c r="K910" s="83"/>
+      <c r="J910" s="83"/>
+      <c r="K910" s="84"/>
     </row>
     <row r="911">
-      <c r="J911" s="82"/>
-      <c r="K911" s="83"/>
+      <c r="J911" s="83"/>
+      <c r="K911" s="84"/>
     </row>
     <row r="912">
-      <c r="J912" s="82"/>
-      <c r="K912" s="83"/>
+      <c r="J912" s="83"/>
+      <c r="K912" s="84"/>
     </row>
     <row r="913">
-      <c r="J913" s="82"/>
-      <c r="K913" s="83"/>
+      <c r="J913" s="83"/>
+      <c r="K913" s="84"/>
     </row>
     <row r="914">
-      <c r="J914" s="82"/>
-      <c r="K914" s="83"/>
+      <c r="J914" s="83"/>
+      <c r="K914" s="84"/>
     </row>
     <row r="915">
-      <c r="J915" s="82"/>
-      <c r="K915" s="83"/>
+      <c r="J915" s="83"/>
+      <c r="K915" s="84"/>
     </row>
     <row r="916">
-      <c r="J916" s="82"/>
-      <c r="K916" s="83"/>
+      <c r="J916" s="83"/>
+      <c r="K916" s="84"/>
     </row>
     <row r="917">
-      <c r="J917" s="82"/>
-      <c r="K917" s="83"/>
+      <c r="J917" s="83"/>
+      <c r="K917" s="84"/>
     </row>
     <row r="918">
-      <c r="J918" s="82"/>
-      <c r="K918" s="83"/>
+      <c r="J918" s="83"/>
+      <c r="K918" s="84"/>
     </row>
     <row r="919">
-      <c r="J919" s="82"/>
-      <c r="K919" s="83"/>
+      <c r="J919" s="83"/>
+      <c r="K919" s="84"/>
     </row>
     <row r="920">
-      <c r="J920" s="82"/>
-      <c r="K920" s="83"/>
+      <c r="J920" s="83"/>
+      <c r="K920" s="84"/>
     </row>
     <row r="921">
-      <c r="J921" s="82"/>
-      <c r="K921" s="83"/>
+      <c r="J921" s="83"/>
+      <c r="K921" s="84"/>
     </row>
     <row r="922">
-      <c r="J922" s="82"/>
-      <c r="K922" s="83"/>
+      <c r="J922" s="83"/>
+      <c r="K922" s="84"/>
     </row>
     <row r="923">
-      <c r="J923" s="82"/>
-      <c r="K923" s="83"/>
+      <c r="J923" s="83"/>
+      <c r="K923" s="84"/>
     </row>
     <row r="924">
-      <c r="J924" s="82"/>
-      <c r="K924" s="83"/>
+      <c r="J924" s="83"/>
+      <c r="K924" s="84"/>
     </row>
     <row r="925">
-      <c r="J925" s="82"/>
-      <c r="K925" s="83"/>
+      <c r="J925" s="83"/>
+      <c r="K925" s="84"/>
     </row>
     <row r="926">
-      <c r="J926" s="82"/>
-      <c r="K926" s="83"/>
+      <c r="J926" s="83"/>
+      <c r="K926" s="84"/>
     </row>
     <row r="927">
-      <c r="J927" s="82"/>
-      <c r="K927" s="83"/>
+      <c r="J927" s="83"/>
+      <c r="K927" s="84"/>
     </row>
     <row r="928">
-      <c r="J928" s="82"/>
-      <c r="K928" s="83"/>
+      <c r="J928" s="83"/>
+      <c r="K928" s="84"/>
     </row>
     <row r="929">
-      <c r="J929" s="82"/>
-      <c r="K929" s="83"/>
+      <c r="J929" s="83"/>
+      <c r="K929" s="84"/>
     </row>
     <row r="930">
-      <c r="J930" s="82"/>
-      <c r="K930" s="83"/>
+      <c r="J930" s="83"/>
+      <c r="K930" s="84"/>
     </row>
     <row r="931">
-      <c r="J931" s="82"/>
-      <c r="K931" s="83"/>
+      <c r="J931" s="83"/>
+      <c r="K931" s="84"/>
     </row>
     <row r="932">
-      <c r="J932" s="82"/>
-      <c r="K932" s="83"/>
+      <c r="J932" s="83"/>
+      <c r="K932" s="84"/>
     </row>
     <row r="933">
-      <c r="J933" s="82"/>
-      <c r="K933" s="83"/>
+      <c r="J933" s="83"/>
+      <c r="K933" s="84"/>
     </row>
     <row r="934">
-      <c r="J934" s="82"/>
-      <c r="K934" s="83"/>
+      <c r="J934" s="83"/>
+      <c r="K934" s="84"/>
     </row>
     <row r="935">
-      <c r="J935" s="82"/>
-      <c r="K935" s="83"/>
+      <c r="J935" s="83"/>
+      <c r="K935" s="84"/>
     </row>
     <row r="936">
-      <c r="J936" s="82"/>
-      <c r="K936" s="83"/>
+      <c r="J936" s="83"/>
+      <c r="K936" s="84"/>
     </row>
     <row r="937">
-      <c r="J937" s="82"/>
-      <c r="K937" s="83"/>
+      <c r="J937" s="83"/>
+      <c r="K937" s="84"/>
     </row>
     <row r="938">
-      <c r="J938" s="82"/>
-      <c r="K938" s="83"/>
+      <c r="J938" s="83"/>
+      <c r="K938" s="84"/>
     </row>
     <row r="939">
-      <c r="J939" s="82"/>
-      <c r="K939" s="83"/>
+      <c r="J939" s="83"/>
+      <c r="K939" s="84"/>
     </row>
     <row r="940">
-      <c r="J940" s="82"/>
-      <c r="K940" s="83"/>
+      <c r="J940" s="83"/>
+      <c r="K940" s="84"/>
     </row>
     <row r="941">
-      <c r="J941" s="82"/>
-      <c r="K941" s="83"/>
+      <c r="J941" s="83"/>
+      <c r="K941" s="84"/>
     </row>
     <row r="942">
-      <c r="J942" s="82"/>
-      <c r="K942" s="83"/>
+      <c r="J942" s="83"/>
+      <c r="K942" s="84"/>
     </row>
     <row r="943">
-      <c r="J943" s="82"/>
-      <c r="K943" s="83"/>
+      <c r="J943" s="83"/>
+      <c r="K943" s="84"/>
     </row>
     <row r="944">
-      <c r="J944" s="82"/>
-      <c r="K944" s="83"/>
+      <c r="J944" s="83"/>
+      <c r="K944" s="84"/>
     </row>
     <row r="945">
-      <c r="J945" s="82"/>
-      <c r="K945" s="83"/>
+      <c r="J945" s="83"/>
+      <c r="K945" s="84"/>
     </row>
     <row r="946">
-      <c r="J946" s="82"/>
-      <c r="K946" s="83"/>
+      <c r="J946" s="83"/>
+      <c r="K946" s="84"/>
     </row>
     <row r="947">
-      <c r="J947" s="82"/>
-      <c r="K947" s="83"/>
+      <c r="J947" s="83"/>
+      <c r="K947" s="84"/>
     </row>
     <row r="948">
-      <c r="J948" s="82"/>
-      <c r="K948" s="83"/>
+      <c r="J948" s="83"/>
+      <c r="K948" s="84"/>
     </row>
     <row r="949">
-      <c r="J949" s="82"/>
-      <c r="K949" s="83"/>
+      <c r="J949" s="83"/>
+      <c r="K949" s="84"/>
     </row>
     <row r="950">
-      <c r="J950" s="82"/>
-      <c r="K950" s="83"/>
+      <c r="J950" s="83"/>
+      <c r="K950" s="84"/>
     </row>
     <row r="951">
-      <c r="J951" s="82"/>
-      <c r="K951" s="83"/>
+      <c r="J951" s="83"/>
+      <c r="K951" s="84"/>
     </row>
     <row r="952">
-      <c r="J952" s="82"/>
-      <c r="K952" s="83"/>
+      <c r="J952" s="83"/>
+      <c r="K952" s="84"/>
     </row>
     <row r="953">
-      <c r="J953" s="82"/>
-      <c r="K953" s="83"/>
+      <c r="J953" s="83"/>
+      <c r="K953" s="84"/>
     </row>
     <row r="954">
-      <c r="J954" s="82"/>
-      <c r="K954" s="83"/>
+      <c r="J954" s="83"/>
+      <c r="K954" s="84"/>
     </row>
     <row r="955">
-      <c r="J955" s="82"/>
-      <c r="K955" s="83"/>
+      <c r="J955" s="83"/>
+      <c r="K955" s="84"/>
     </row>
     <row r="956">
-      <c r="J956" s="82"/>
-      <c r="K956" s="83"/>
+      <c r="J956" s="83"/>
+      <c r="K956" s="84"/>
     </row>
     <row r="957">
-      <c r="J957" s="82"/>
-      <c r="K957" s="83"/>
+      <c r="J957" s="83"/>
+      <c r="K957" s="84"/>
     </row>
     <row r="958">
-      <c r="J958" s="82"/>
-      <c r="K958" s="83"/>
+      <c r="J958" s="83"/>
+      <c r="K958" s="84"/>
     </row>
     <row r="959">
-      <c r="J959" s="82"/>
-      <c r="K959" s="83"/>
+      <c r="J959" s="83"/>
+      <c r="K959" s="84"/>
     </row>
     <row r="960">
-      <c r="J960" s="82"/>
-      <c r="K960" s="83"/>
+      <c r="J960" s="83"/>
+      <c r="K960" s="84"/>
     </row>
     <row r="961">
-      <c r="J961" s="82"/>
-      <c r="K961" s="83"/>
+      <c r="J961" s="83"/>
+      <c r="K961" s="84"/>
     </row>
     <row r="962">
-      <c r="J962" s="82"/>
-      <c r="K962" s="83"/>
+      <c r="J962" s="83"/>
+      <c r="K962" s="84"/>
     </row>
     <row r="963">
-      <c r="J963" s="82"/>
-      <c r="K963" s="83"/>
+      <c r="J963" s="83"/>
+      <c r="K963" s="84"/>
     </row>
     <row r="964">
-      <c r="J964" s="82"/>
-      <c r="K964" s="83"/>
+      <c r="J964" s="83"/>
+      <c r="K964" s="84"/>
     </row>
     <row r="965">
-      <c r="J965" s="82"/>
-      <c r="K965" s="83"/>
+      <c r="J965" s="83"/>
+      <c r="K965" s="84"/>
     </row>
     <row r="966">
-      <c r="J966" s="82"/>
-      <c r="K966" s="83"/>
+      <c r="J966" s="83"/>
+      <c r="K966" s="84"/>
     </row>
     <row r="967">
-      <c r="J967" s="82"/>
-      <c r="K967" s="83"/>
+      <c r="J967" s="83"/>
+      <c r="K967" s="84"/>
     </row>
     <row r="968">
-      <c r="J968" s="82"/>
-      <c r="K968" s="83"/>
+      <c r="J968" s="83"/>
+      <c r="K968" s="84"/>
     </row>
     <row r="969">
-      <c r="J969" s="82"/>
-      <c r="K969" s="83"/>
+      <c r="J969" s="83"/>
+      <c r="K969" s="84"/>
     </row>
     <row r="970">
-      <c r="J970" s="82"/>
-      <c r="K970" s="83"/>
+      <c r="J970" s="83"/>
+      <c r="K970" s="84"/>
     </row>
     <row r="971">
-      <c r="J971" s="82"/>
-      <c r="K971" s="83"/>
+      <c r="J971" s="83"/>
+      <c r="K971" s="84"/>
     </row>
     <row r="972">
-      <c r="J972" s="82"/>
-      <c r="K972" s="83"/>
+      <c r="J972" s="83"/>
+      <c r="K972" s="84"/>
     </row>
     <row r="973">
-      <c r="J973" s="82"/>
-      <c r="K973" s="83"/>
+      <c r="J973" s="83"/>
+      <c r="K973" s="84"/>
     </row>
     <row r="974">
-      <c r="J974" s="82"/>
-      <c r="K974" s="83"/>
+      <c r="J974" s="83"/>
+      <c r="K974" s="84"/>
     </row>
     <row r="975">
-      <c r="J975" s="82"/>
-      <c r="K975" s="83"/>
+      <c r="J975" s="83"/>
+      <c r="K975" s="84"/>
     </row>
     <row r="976">
-      <c r="J976" s="82"/>
-      <c r="K976" s="83"/>
+      <c r="J976" s="83"/>
+      <c r="K976" s="84"/>
     </row>
     <row r="977">
-      <c r="J977" s="82"/>
-      <c r="K977" s="83"/>
+      <c r="J977" s="83"/>
+      <c r="K977" s="84"/>
     </row>
     <row r="978">
-      <c r="J978" s="82"/>
-      <c r="K978" s="83"/>
+      <c r="J978" s="83"/>
+      <c r="K978" s="84"/>
     </row>
   </sheetData>
-  <autoFilter ref="$A$1:$O$68">
-    <sortState ref="A1:O68">
-      <sortCondition ref="E1:E68"/>
-      <sortCondition ref="C1:C68"/>
-      <sortCondition ref="D1:D68"/>
-    </sortState>
-  </autoFilter>
+  <autoFilter ref="$A$1:$P$68"/>
   <drawing r:id="rId2"/>
   <legacyDrawing r:id="rId3"/>
 </worksheet>
@@ -18594,7 +18807,7 @@
         <v>1.0</v>
       </c>
       <c r="C1" s="13" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
     </row>
     <row r="2">
@@ -18605,7 +18818,7 @@
         <v>3.0</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
     </row>
     <row r="3">
@@ -18616,7 +18829,7 @@
         <v>4.0</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
     </row>
     <row r="4">
@@ -18627,7 +18840,7 @@
         <v>5.0</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
     </row>
     <row r="5">
@@ -18638,7 +18851,7 @@
         <v>6.0</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
     </row>
     <row r="6">
@@ -18649,7 +18862,7 @@
         <v>7.0</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
     </row>
     <row r="7">
@@ -18660,7 +18873,7 @@
         <v>8.0</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
     </row>
     <row r="8">
@@ -18671,7 +18884,7 @@
         <v>9.0</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
     </row>
     <row r="9">
@@ -18682,7 +18895,7 @@
         <v>10.0</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
     </row>
     <row r="10">
@@ -18693,7 +18906,7 @@
         <v>11.0</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
     </row>
     <row r="11">
@@ -18715,7 +18928,7 @@
         <v>13.0</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
     </row>
     <row r="13">
@@ -18803,7 +19016,7 @@
         <v>21.0</v>
       </c>
       <c r="C20" s="13" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
     </row>
     <row r="21">
@@ -18847,7 +19060,7 @@
         <v>25.0</v>
       </c>
       <c r="C24" s="13" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
     </row>
     <row r="25">
@@ -18946,7 +19159,7 @@
         <v>34.0</v>
       </c>
       <c r="C33" s="13" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
     </row>
     <row r="34">
@@ -18968,7 +19181,7 @@
         <v>36.0</v>
       </c>
       <c r="C35" s="13" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
     </row>
     <row r="36">
@@ -18990,7 +19203,7 @@
         <v>38.0</v>
       </c>
       <c r="C37" s="13" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
     </row>
     <row r="38">
@@ -19001,7 +19214,7 @@
         <v>39.0</v>
       </c>
       <c r="C38" s="13" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
     </row>
     <row r="39">
@@ -19023,7 +19236,7 @@
         <v>41.0</v>
       </c>
       <c r="C40" s="13" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
     </row>
     <row r="41">
@@ -19034,7 +19247,7 @@
         <v>42.0</v>
       </c>
       <c r="C41" s="13" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
     </row>
     <row r="42">
@@ -19045,7 +19258,7 @@
         <v>43.0</v>
       </c>
       <c r="C42" s="13" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
     </row>
     <row r="43">
@@ -19067,7 +19280,7 @@
         <v>45.0</v>
       </c>
       <c r="C44" s="13" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
     </row>
     <row r="45">
@@ -19078,7 +19291,7 @@
         <v>46.0</v>
       </c>
       <c r="C45" s="13" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
     </row>
     <row r="46">
@@ -19089,7 +19302,7 @@
         <v>47.0</v>
       </c>
       <c r="C46" s="13" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
     </row>
     <row r="47">
@@ -19100,7 +19313,7 @@
         <v>48.0</v>
       </c>
       <c r="C47" s="13" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
     </row>
     <row r="48">
@@ -19111,7 +19324,7 @@
         <v>49.0</v>
       </c>
       <c r="C48" s="13" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
     </row>
     <row r="49">
@@ -19122,7 +19335,7 @@
         <v>50.0</v>
       </c>
       <c r="C49" s="13" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
     </row>
     <row r="50">
@@ -19133,7 +19346,7 @@
         <v>51.0</v>
       </c>
       <c r="C50" s="13" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
     </row>
     <row r="51">
@@ -19155,7 +19368,7 @@
         <v>53.0</v>
       </c>
       <c r="C52" s="13" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
     </row>
     <row r="53">
@@ -19166,7 +19379,7 @@
         <v>54.0</v>
       </c>
       <c r="C53" s="13" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
     </row>
     <row r="54">
@@ -19177,7 +19390,7 @@
         <v>55.0</v>
       </c>
       <c r="C54" s="13" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="55">
@@ -19199,7 +19412,7 @@
         <v>57.0</v>
       </c>
       <c r="C56" s="13" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
     </row>
     <row r="57">
@@ -19210,7 +19423,7 @@
         <v>58.0</v>
       </c>
       <c r="C57" s="13" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
     </row>
     <row r="58">
@@ -19221,7 +19434,7 @@
         <v>59.0</v>
       </c>
       <c r="C58" s="13" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
     </row>
     <row r="59">
@@ -19232,7 +19445,7 @@
         <v>60.0</v>
       </c>
       <c r="C59" s="13" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
     </row>
     <row r="60">
@@ -19265,7 +19478,7 @@
         <v>63.0</v>
       </c>
       <c r="C62" s="13" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
     </row>
     <row r="63">
@@ -19276,7 +19489,7 @@
         <v>64.0</v>
       </c>
       <c r="C63" s="13" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
     </row>
     <row r="64">
@@ -19298,7 +19511,7 @@
         <v>66.0</v>
       </c>
       <c r="C65" s="13" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
     </row>
     <row r="66">
@@ -19309,7 +19522,7 @@
         <v>67.0</v>
       </c>
       <c r="C66" s="13" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
     </row>
     <row r="67">
@@ -19320,7 +19533,7 @@
         <v>68.0</v>
       </c>
       <c r="C67" s="13" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
     </row>
     <row r="68">
@@ -19331,7 +19544,7 @@
         <v>69.0</v>
       </c>
       <c r="C68" s="13" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
     </row>
     <row r="69">
@@ -19342,7 +19555,7 @@
         <v>70.0</v>
       </c>
       <c r="C69" s="13" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
     </row>
     <row r="70">
@@ -19353,7 +19566,7 @@
         <v>71.0</v>
       </c>
       <c r="C70" s="13" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
     </row>
     <row r="71">
@@ -19364,7 +19577,7 @@
         <v>72.0</v>
       </c>
       <c r="C71" s="13" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
     </row>
     <row r="72">
@@ -19375,7 +19588,7 @@
         <v>73.0</v>
       </c>
       <c r="C72" s="13" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
     </row>
     <row r="73">
@@ -19386,7 +19599,7 @@
         <v>74.0</v>
       </c>
       <c r="C73" s="13" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
     </row>
     <row r="74">
@@ -19397,7 +19610,7 @@
         <v>75.0</v>
       </c>
       <c r="C74" s="13" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
     </row>
     <row r="75">
@@ -19408,7 +19621,7 @@
         <v>76.0</v>
       </c>
       <c r="C75" s="13" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
     </row>
     <row r="76">
@@ -19419,7 +19632,7 @@
         <v>77.0</v>
       </c>
       <c r="C76" s="13" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
     </row>
     <row r="77">
@@ -19430,7 +19643,7 @@
         <v>78.0</v>
       </c>
       <c r="C77" s="13" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
     </row>
     <row r="78">
@@ -19441,7 +19654,7 @@
         <v>79.0</v>
       </c>
       <c r="C78" s="13" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
     </row>
     <row r="79">
@@ -19452,7 +19665,7 @@
         <v>80.0</v>
       </c>
       <c r="C79" s="13" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
     </row>
     <row r="80">
@@ -19463,7 +19676,7 @@
         <v>81.0</v>
       </c>
       <c r="C80" s="13" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
     </row>
     <row r="81">
@@ -19474,7 +19687,7 @@
         <v>82.0</v>
       </c>
       <c r="C81" s="13" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
     </row>
     <row r="82">
@@ -19485,7 +19698,7 @@
         <v>83.0</v>
       </c>
       <c r="C82" s="13" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
     </row>
     <row r="83">
@@ -19496,7 +19709,7 @@
         <v>84.0</v>
       </c>
       <c r="C83" s="13" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
     </row>
     <row r="84">
@@ -19507,7 +19720,7 @@
         <v>85.0</v>
       </c>
       <c r="C84" s="13" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
     </row>
     <row r="85">
@@ -19518,7 +19731,7 @@
         <v>86.0</v>
       </c>
       <c r="C85" s="13" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
     </row>
     <row r="86">
@@ -19529,7 +19742,7 @@
         <v>87.0</v>
       </c>
       <c r="C86" s="13" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
     </row>
     <row r="87">
@@ -19540,7 +19753,7 @@
         <v>88.0</v>
       </c>
       <c r="C87" s="13" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
     </row>
     <row r="88">
@@ -19551,7 +19764,7 @@
         <v>89.0</v>
       </c>
       <c r="C88" s="13" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
     </row>
     <row r="89">
@@ -19562,7 +19775,7 @@
         <v>90.0</v>
       </c>
       <c r="C89" s="13" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
     </row>
     <row r="90">
@@ -19573,7 +19786,7 @@
         <v>91.0</v>
       </c>
       <c r="C90" s="13" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
     </row>
     <row r="91">
@@ -19584,7 +19797,7 @@
         <v>92.0</v>
       </c>
       <c r="C91" s="13" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
     </row>
     <row r="92">
@@ -19628,7 +19841,7 @@
         <v>96.0</v>
       </c>
       <c r="C95" s="13" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
     </row>
     <row r="96">
@@ -19672,7 +19885,7 @@
         <v>100.0</v>
       </c>
       <c r="C99" s="13" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
     </row>
     <row r="100">
@@ -19683,7 +19896,7 @@
         <v>101.0</v>
       </c>
       <c r="C100" s="13" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
     </row>
     <row r="101">
@@ -19760,7 +19973,7 @@
         <v>108.0</v>
       </c>
       <c r="C107" s="13" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
     </row>
     <row r="108">
@@ -19793,7 +20006,7 @@
         <v>111.0</v>
       </c>
       <c r="C110" s="13" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="111">
@@ -19804,7 +20017,7 @@
         <v>112.0</v>
       </c>
       <c r="C111" s="13" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
     </row>
     <row r="112">
@@ -19826,7 +20039,7 @@
         <v>114.0</v>
       </c>
       <c r="C113" s="13" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
     </row>
     <row r="114">
@@ -19837,7 +20050,7 @@
         <v>115.0</v>
       </c>
       <c r="C114" s="13" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
     </row>
     <row r="115">
@@ -19848,7 +20061,7 @@
         <v>116.0</v>
       </c>
       <c r="C115" s="13" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
     </row>
     <row r="116">
@@ -19859,7 +20072,7 @@
         <v>117.0</v>
       </c>
       <c r="C116" s="13" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
     </row>
     <row r="117">
@@ -19870,7 +20083,7 @@
         <v>118.0</v>
       </c>
       <c r="C117" s="13" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
     </row>
     <row r="118">
@@ -19881,7 +20094,7 @@
         <v>119.0</v>
       </c>
       <c r="C118" s="13" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
     </row>
     <row r="119">
@@ -19892,7 +20105,7 @@
         <v>120.0</v>
       </c>
       <c r="C119" s="13" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
     </row>
     <row r="120">
@@ -19903,7 +20116,7 @@
         <v>121.0</v>
       </c>
       <c r="C120" s="13" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
     </row>
     <row r="121">
@@ -19914,7 +20127,7 @@
         <v>122.0</v>
       </c>
       <c r="C121" s="13" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
     </row>
     <row r="122">
@@ -19925,7 +20138,7 @@
         <v>123.0</v>
       </c>
       <c r="C122" s="13" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
     </row>
     <row r="123">
@@ -19936,7 +20149,7 @@
         <v>124.0</v>
       </c>
       <c r="C123" s="13" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
     </row>
     <row r="124">
@@ -19947,7 +20160,7 @@
         <v>125.0</v>
       </c>
       <c r="C124" s="13" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
     </row>
     <row r="125">
@@ -19958,7 +20171,7 @@
         <v>127.0</v>
       </c>
       <c r="C125" s="13" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
     </row>
     <row r="126">
@@ -19969,7 +20182,7 @@
         <v>128.0</v>
       </c>
       <c r="C126" s="13" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
     </row>
     <row r="127">
@@ -19980,7 +20193,7 @@
         <v>129.0</v>
       </c>
       <c r="C127" s="13" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
     </row>
     <row r="128">
@@ -19991,7 +20204,7 @@
         <v>130.0</v>
       </c>
       <c r="C128" s="13" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
     </row>
     <row r="129">
@@ -20002,7 +20215,7 @@
         <v>131.0</v>
       </c>
       <c r="C129" s="13" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
     </row>
     <row r="130">
@@ -20013,7 +20226,7 @@
         <v>132.0</v>
       </c>
       <c r="C130" s="13" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
     </row>
     <row r="131">
@@ -20024,7 +20237,7 @@
         <v>133.0</v>
       </c>
       <c r="C131" s="13" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
     </row>
     <row r="132">
@@ -20035,7 +20248,7 @@
         <v>134.0</v>
       </c>
       <c r="C132" s="13" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
     </row>
     <row r="133">
@@ -20046,7 +20259,7 @@
         <v>135.0</v>
       </c>
       <c r="C133" s="13" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
     </row>
     <row r="134">
@@ -20057,7 +20270,7 @@
         <v>136.0</v>
       </c>
       <c r="C134" s="13" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
     </row>
     <row r="135">
@@ -20068,7 +20281,7 @@
         <v>137.0</v>
       </c>
       <c r="C135" s="13" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
     </row>
     <row r="136">
@@ -20079,7 +20292,7 @@
         <v>138.0</v>
       </c>
       <c r="C136" s="13" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
     </row>
     <row r="137">
@@ -20090,7 +20303,7 @@
         <v>139.0</v>
       </c>
       <c r="C137" s="13" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
     </row>
     <row r="138">
@@ -20101,7 +20314,7 @@
         <v>139.0</v>
       </c>
       <c r="C138" s="13" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
     </row>
     <row r="139">
